--- a/SharePoint/Docs/MS-MEETS/MS-MEETS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-MEETS/MS-MEETS_RequirementSpecification.xlsx
@@ -11371,13 +11371,13 @@
         <v>19</v>
       </c>
       <c r="F210" s="41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G210" s="41" t="s">
         <v>15</v>
       </c>
       <c r="H210" s="41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I210" s="42"/>
     </row>
@@ -15652,7 +15652,7 @@
         <v>15</v>
       </c>
       <c r="H381" s="41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I381" s="42"/>
     </row>
@@ -19873,6 +19873,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -19921,37 +19936,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -19965,10 +19950,25 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-MEETS/MS-MEETS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-MEETS/MS-MEETS_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17301"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="960" windowWidth="15405" windowHeight="6000" tabRatio="570"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3533" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3533" uniqueCount="1139">
   <si>
     <t>Req ID</t>
   </si>
@@ -3666,9 +3666,6 @@
   </si>
   <si>
     <t>MS-MEETS_R374</t>
-  </si>
-  <si>
-    <t>MS-MEETS</t>
   </si>
   <si>
     <t>Meetings Web Services Protocol Specification</t>
@@ -4060,20 +4057,32 @@
   &lt;/s:complexType&gt;
 &lt;/s:element&gt;</t>
   </si>
+  <si>
+    <t>Non-testable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-testable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-MEETS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.0.0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4111,7 +4120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4284,7 +4293,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4293,7 +4302,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4314,7 +4323,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6295,7 +6304,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>1039</v>
+        <v>1138</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -6305,7 +6314,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -6319,10 +6328,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F3" s="13">
         <v>42566</v>
@@ -6546,7 +6555,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
@@ -6604,7 +6613,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="20" spans="1:12" s="21" customFormat="1" ht="27">
       <c r="A20" s="26" t="s">
         <v>42</v>
       </c>
@@ -6612,7 +6621,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26" t="s">
@@ -6629,7 +6638,7 @@
       </c>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="21" spans="1:12" s="21" customFormat="1" ht="27">
       <c r="A21" s="28" t="s">
         <v>43</v>
       </c>
@@ -6637,7 +6646,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28" t="s">
@@ -6654,7 +6663,7 @@
       </c>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="22" spans="1:12" s="21" customFormat="1" ht="27">
       <c r="A22" s="28" t="s">
         <v>44</v>
       </c>
@@ -6662,7 +6671,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="28" t="s">
@@ -6679,7 +6688,7 @@
       </c>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:12" s="21" customFormat="1" ht="45">
+    <row r="23" spans="1:12" s="21" customFormat="1" ht="40.5">
       <c r="A23" s="28" t="s">
         <v>45</v>
       </c>
@@ -6687,7 +6696,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="28" t="s">
@@ -6729,7 +6738,7 @@
       </c>
       <c r="I24" s="29"/>
     </row>
-    <row r="25" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="25" spans="1:12" s="21" customFormat="1" ht="27">
       <c r="A25" s="28" t="s">
         <v>48</v>
       </c>
@@ -6753,10 +6762,10 @@
         <v>17</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="21" customFormat="1" ht="30">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="21" customFormat="1" ht="27">
       <c r="A26" s="28" t="s">
         <v>52</v>
       </c>
@@ -6781,7 +6790,7 @@
       </c>
       <c r="I26" s="29"/>
     </row>
-    <row r="27" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="27" spans="1:12" s="21" customFormat="1" ht="27">
       <c r="A27" s="28" t="s">
         <v>54</v>
       </c>
@@ -6814,7 +6823,7 @@
         <v>2.1</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30" t="s">
@@ -6831,7 +6840,7 @@
       </c>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="29" spans="1:12" s="21" customFormat="1" ht="27">
       <c r="A29" s="28" t="s">
         <v>57</v>
       </c>
@@ -6856,7 +6865,7 @@
       </c>
       <c r="I29" s="29"/>
     </row>
-    <row r="30" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="30" spans="1:12" s="21" customFormat="1" ht="40.5">
       <c r="A30" s="28" t="s">
         <v>59</v>
       </c>
@@ -6881,7 +6890,7 @@
       </c>
       <c r="I30" s="29"/>
     </row>
-    <row r="31" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="31" spans="1:12" s="21" customFormat="1" ht="27">
       <c r="A31" s="28" t="s">
         <v>61</v>
       </c>
@@ -6906,7 +6915,7 @@
       </c>
       <c r="I31" s="29"/>
     </row>
-    <row r="32" spans="1:12" s="21" customFormat="1" ht="45">
+    <row r="32" spans="1:12" s="21" customFormat="1" ht="40.5">
       <c r="A32" s="28" t="s">
         <v>64</v>
       </c>
@@ -6931,7 +6940,7 @@
       </c>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:9" ht="30">
+    <row r="33" spans="1:9" ht="27">
       <c r="A33" s="28" t="s">
         <v>66</v>
       </c>
@@ -6956,7 +6965,7 @@
       </c>
       <c r="I33" s="29"/>
     </row>
-    <row r="34" spans="1:9" ht="30">
+    <row r="34" spans="1:9" ht="27">
       <c r="A34" s="28" t="s">
         <v>68</v>
       </c>
@@ -6981,7 +6990,7 @@
       </c>
       <c r="I34" s="29"/>
     </row>
-    <row r="35" spans="1:9" ht="30">
+    <row r="35" spans="1:9" ht="27">
       <c r="A35" s="28" t="s">
         <v>70</v>
       </c>
@@ -7006,7 +7015,7 @@
       </c>
       <c r="I35" s="29"/>
     </row>
-    <row r="36" spans="1:9" ht="30">
+    <row r="36" spans="1:9" ht="27">
       <c r="A36" s="28" t="s">
         <v>72</v>
       </c>
@@ -7031,7 +7040,7 @@
       </c>
       <c r="I36" s="29"/>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9" ht="27">
       <c r="A37" s="28" t="s">
         <v>74</v>
       </c>
@@ -7056,7 +7065,7 @@
       </c>
       <c r="I37" s="29"/>
     </row>
-    <row r="38" spans="1:9" ht="30">
+    <row r="38" spans="1:9" ht="27">
       <c r="A38" s="28" t="s">
         <v>76</v>
       </c>
@@ -7081,7 +7090,7 @@
       </c>
       <c r="I38" s="29"/>
     </row>
-    <row r="39" spans="1:9" ht="30">
+    <row r="39" spans="1:9" ht="27">
       <c r="A39" s="28" t="s">
         <v>78</v>
       </c>
@@ -7106,7 +7115,7 @@
       </c>
       <c r="I39" s="29"/>
     </row>
-    <row r="40" spans="1:9" ht="30">
+    <row r="40" spans="1:9" ht="27">
       <c r="A40" s="28" t="s">
         <v>80</v>
       </c>
@@ -7131,7 +7140,7 @@
       </c>
       <c r="I40" s="29"/>
     </row>
-    <row r="41" spans="1:9" ht="30">
+    <row r="41" spans="1:9" ht="27">
       <c r="A41" s="28" t="s">
         <v>82</v>
       </c>
@@ -7156,7 +7165,7 @@
       </c>
       <c r="I41" s="29"/>
     </row>
-    <row r="42" spans="1:9" ht="30">
+    <row r="42" spans="1:9" ht="27">
       <c r="A42" s="28" t="s">
         <v>84</v>
       </c>
@@ -7181,7 +7190,7 @@
       </c>
       <c r="I42" s="29"/>
     </row>
-    <row r="43" spans="1:9" ht="30">
+    <row r="43" spans="1:9" ht="27">
       <c r="A43" s="28" t="s">
         <v>86</v>
       </c>
@@ -7206,7 +7215,7 @@
       </c>
       <c r="I43" s="29"/>
     </row>
-    <row r="44" spans="1:9" ht="30">
+    <row r="44" spans="1:9" ht="27">
       <c r="A44" s="28" t="s">
         <v>89</v>
       </c>
@@ -7231,7 +7240,7 @@
       </c>
       <c r="I44" s="29"/>
     </row>
-    <row r="45" spans="1:9" ht="30">
+    <row r="45" spans="1:9" ht="27">
       <c r="A45" s="28" t="s">
         <v>92</v>
       </c>
@@ -7256,7 +7265,7 @@
       </c>
       <c r="I45" s="29"/>
     </row>
-    <row r="46" spans="1:9" ht="30">
+    <row r="46" spans="1:9" ht="27">
       <c r="A46" s="28" t="s">
         <v>94</v>
       </c>
@@ -7281,7 +7290,7 @@
       </c>
       <c r="I46" s="29"/>
     </row>
-    <row r="47" spans="1:9" ht="30">
+    <row r="47" spans="1:9" ht="27">
       <c r="A47" s="28" t="s">
         <v>96</v>
       </c>
@@ -7306,7 +7315,7 @@
       </c>
       <c r="I47" s="29"/>
     </row>
-    <row r="48" spans="1:9" ht="30">
+    <row r="48" spans="1:9" ht="27">
       <c r="A48" s="28" t="s">
         <v>98</v>
       </c>
@@ -7331,7 +7340,7 @@
       </c>
       <c r="I48" s="29"/>
     </row>
-    <row r="49" spans="1:9" ht="30">
+    <row r="49" spans="1:9" ht="27">
       <c r="A49" s="28" t="s">
         <v>100</v>
       </c>
@@ -7356,7 +7365,7 @@
       </c>
       <c r="I49" s="29"/>
     </row>
-    <row r="50" spans="1:9" ht="30">
+    <row r="50" spans="1:9" ht="27">
       <c r="A50" s="28" t="s">
         <v>102</v>
       </c>
@@ -7381,7 +7390,7 @@
       </c>
       <c r="I50" s="29"/>
     </row>
-    <row r="51" spans="1:9" ht="30">
+    <row r="51" spans="1:9" ht="27">
       <c r="A51" s="28" t="s">
         <v>104</v>
       </c>
@@ -7431,7 +7440,7 @@
       </c>
       <c r="I52" s="29"/>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:9" ht="27">
       <c r="A53" s="28" t="s">
         <v>109</v>
       </c>
@@ -7456,7 +7465,7 @@
       </c>
       <c r="I53" s="29"/>
     </row>
-    <row r="54" spans="1:9" ht="30">
+    <row r="54" spans="1:9" ht="27">
       <c r="A54" s="28" t="s">
         <v>111</v>
       </c>
@@ -7481,7 +7490,7 @@
       </c>
       <c r="I54" s="29"/>
     </row>
-    <row r="55" spans="1:9" ht="135">
+    <row r="55" spans="1:9" ht="121.5">
       <c r="A55" s="28" t="s">
         <v>113</v>
       </c>
@@ -7506,7 +7515,7 @@
       </c>
       <c r="I55" s="29"/>
     </row>
-    <row r="56" spans="1:9" ht="30">
+    <row r="56" spans="1:9" ht="27">
       <c r="A56" s="28" t="s">
         <v>115</v>
       </c>
@@ -7531,7 +7540,7 @@
       </c>
       <c r="I56" s="29"/>
     </row>
-    <row r="57" spans="1:9" ht="30">
+    <row r="57" spans="1:9" ht="27">
       <c r="A57" s="28" t="s">
         <v>118</v>
       </c>
@@ -7556,7 +7565,7 @@
       </c>
       <c r="I57" s="29"/>
     </row>
-    <row r="58" spans="1:9" ht="30">
+    <row r="58" spans="1:9" ht="27">
       <c r="A58" s="28" t="s">
         <v>120</v>
       </c>
@@ -7581,7 +7590,7 @@
       </c>
       <c r="I58" s="29"/>
     </row>
-    <row r="59" spans="1:9" ht="30">
+    <row r="59" spans="1:9" ht="27">
       <c r="A59" s="28" t="s">
         <v>123</v>
       </c>
@@ -7606,7 +7615,7 @@
       </c>
       <c r="I59" s="29"/>
     </row>
-    <row r="60" spans="1:9" ht="30">
+    <row r="60" spans="1:9" ht="27">
       <c r="A60" s="28" t="s">
         <v>126</v>
       </c>
@@ -7631,7 +7640,7 @@
       </c>
       <c r="I60" s="29"/>
     </row>
-    <row r="61" spans="1:9" ht="30">
+    <row r="61" spans="1:9" ht="27">
       <c r="A61" s="28" t="s">
         <v>129</v>
       </c>
@@ -7656,7 +7665,7 @@
       </c>
       <c r="I61" s="29"/>
     </row>
-    <row r="62" spans="1:9" ht="30">
+    <row r="62" spans="1:9" ht="27">
       <c r="A62" s="28" t="s">
         <v>132</v>
       </c>
@@ -7681,7 +7690,7 @@
       </c>
       <c r="I62" s="29"/>
     </row>
-    <row r="63" spans="1:9" ht="30">
+    <row r="63" spans="1:9" ht="27">
       <c r="A63" s="28" t="s">
         <v>134</v>
       </c>
@@ -7706,7 +7715,7 @@
       </c>
       <c r="I63" s="29"/>
     </row>
-    <row r="64" spans="1:9" ht="30">
+    <row r="64" spans="1:9" ht="40.5">
       <c r="A64" s="28" t="s">
         <v>136</v>
       </c>
@@ -7731,7 +7740,7 @@
       </c>
       <c r="I64" s="29"/>
     </row>
-    <row r="65" spans="1:9" ht="30">
+    <row r="65" spans="1:9" ht="27">
       <c r="A65" s="28" t="s">
         <v>138</v>
       </c>
@@ -7756,7 +7765,7 @@
       </c>
       <c r="I65" s="29"/>
     </row>
-    <row r="66" spans="1:9" ht="30">
+    <row r="66" spans="1:9" ht="27">
       <c r="A66" s="28" t="s">
         <v>140</v>
       </c>
@@ -7781,7 +7790,7 @@
       </c>
       <c r="I66" s="29"/>
     </row>
-    <row r="67" spans="1:9" ht="30">
+    <row r="67" spans="1:9" ht="27">
       <c r="A67" s="28" t="s">
         <v>143</v>
       </c>
@@ -7806,7 +7815,7 @@
       </c>
       <c r="I67" s="29"/>
     </row>
-    <row r="68" spans="1:9" ht="30">
+    <row r="68" spans="1:9" ht="27">
       <c r="A68" s="28" t="s">
         <v>145</v>
       </c>
@@ -7831,7 +7840,7 @@
       </c>
       <c r="I68" s="29"/>
     </row>
-    <row r="69" spans="1:9" ht="30">
+    <row r="69" spans="1:9" ht="27">
       <c r="A69" s="28" t="s">
         <v>147</v>
       </c>
@@ -7856,7 +7865,7 @@
       </c>
       <c r="I69" s="29"/>
     </row>
-    <row r="70" spans="1:9" ht="30">
+    <row r="70" spans="1:9" ht="27">
       <c r="A70" s="28" t="s">
         <v>149</v>
       </c>
@@ -7881,7 +7890,7 @@
       </c>
       <c r="I70" s="29"/>
     </row>
-    <row r="71" spans="1:9" ht="135">
+    <row r="71" spans="1:9" ht="121.5">
       <c r="A71" s="28" t="s">
         <v>151</v>
       </c>
@@ -7906,7 +7915,7 @@
       </c>
       <c r="I71" s="29"/>
     </row>
-    <row r="72" spans="1:9" ht="30">
+    <row r="72" spans="1:9" ht="27">
       <c r="A72" s="28" t="s">
         <v>153</v>
       </c>
@@ -7931,7 +7940,7 @@
       </c>
       <c r="I72" s="29"/>
     </row>
-    <row r="73" spans="1:9" ht="30">
+    <row r="73" spans="1:9" ht="27">
       <c r="A73" s="34" t="s">
         <v>155</v>
       </c>
@@ -7939,7 +7948,7 @@
         <v>31</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D73" s="34"/>
       <c r="E73" s="34" t="s">
@@ -7956,7 +7965,7 @@
       </c>
       <c r="I73" s="35"/>
     </row>
-    <row r="74" spans="1:9" ht="30">
+    <row r="74" spans="1:9" ht="27">
       <c r="A74" s="28" t="s">
         <v>156</v>
       </c>
@@ -7964,7 +7973,7 @@
         <v>31</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D74" s="28"/>
       <c r="E74" s="28" t="s">
@@ -7981,7 +7990,7 @@
       </c>
       <c r="I74" s="29"/>
     </row>
-    <row r="75" spans="1:9" ht="30">
+    <row r="75" spans="1:9" ht="27">
       <c r="A75" s="28" t="s">
         <v>157</v>
       </c>
@@ -8006,7 +8015,7 @@
       </c>
       <c r="I75" s="29"/>
     </row>
-    <row r="76" spans="1:9" ht="30">
+    <row r="76" spans="1:9" ht="27">
       <c r="A76" s="28" t="s">
         <v>159</v>
       </c>
@@ -8014,7 +8023,7 @@
         <v>31</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="28" t="s">
@@ -8031,7 +8040,7 @@
       </c>
       <c r="I76" s="29"/>
     </row>
-    <row r="77" spans="1:9" ht="30">
+    <row r="77" spans="1:9" ht="27">
       <c r="A77" s="28" t="s">
         <v>160</v>
       </c>
@@ -8039,7 +8048,7 @@
         <v>31</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="28" t="s">
@@ -8056,7 +8065,7 @@
       </c>
       <c r="I77" s="29"/>
     </row>
-    <row r="78" spans="1:9" ht="30">
+    <row r="78" spans="1:9" ht="27">
       <c r="A78" s="28" t="s">
         <v>161</v>
       </c>
@@ -8081,7 +8090,7 @@
       </c>
       <c r="I78" s="29"/>
     </row>
-    <row r="79" spans="1:9" ht="90">
+    <row r="79" spans="1:9" ht="81">
       <c r="A79" s="28" t="s">
         <v>164</v>
       </c>
@@ -8106,7 +8115,7 @@
       </c>
       <c r="I79" s="29"/>
     </row>
-    <row r="80" spans="1:9" ht="30">
+    <row r="80" spans="1:9" ht="40.5">
       <c r="A80" s="28" t="s">
         <v>166</v>
       </c>
@@ -8131,7 +8140,7 @@
       </c>
       <c r="I80" s="29"/>
     </row>
-    <row r="81" spans="1:9" ht="30">
+    <row r="81" spans="1:9" ht="27">
       <c r="A81" s="28" t="s">
         <v>168</v>
       </c>
@@ -8156,7 +8165,7 @@
       </c>
       <c r="I81" s="29"/>
     </row>
-    <row r="82" spans="1:9" ht="30">
+    <row r="82" spans="1:9" ht="27">
       <c r="A82" s="28" t="s">
         <v>170</v>
       </c>
@@ -8181,7 +8190,7 @@
       </c>
       <c r="I82" s="29"/>
     </row>
-    <row r="83" spans="1:9" ht="30">
+    <row r="83" spans="1:9" ht="27">
       <c r="A83" s="28" t="s">
         <v>172</v>
       </c>
@@ -8206,7 +8215,7 @@
       </c>
       <c r="I83" s="29"/>
     </row>
-    <row r="84" spans="1:9" ht="30">
+    <row r="84" spans="1:9" ht="27">
       <c r="A84" s="28" t="s">
         <v>174</v>
       </c>
@@ -8231,7 +8240,7 @@
       </c>
       <c r="I84" s="29"/>
     </row>
-    <row r="85" spans="1:9" ht="30">
+    <row r="85" spans="1:9" ht="27">
       <c r="A85" s="28" t="s">
         <v>176</v>
       </c>
@@ -8256,7 +8265,7 @@
       </c>
       <c r="I85" s="29"/>
     </row>
-    <row r="86" spans="1:9" ht="30">
+    <row r="86" spans="1:9" ht="27">
       <c r="A86" s="28" t="s">
         <v>179</v>
       </c>
@@ -8281,7 +8290,7 @@
       </c>
       <c r="I86" s="29"/>
     </row>
-    <row r="87" spans="1:9" ht="90">
+    <row r="87" spans="1:9" ht="94.5">
       <c r="A87" s="28" t="s">
         <v>181</v>
       </c>
@@ -8306,7 +8315,7 @@
       </c>
       <c r="I87" s="29"/>
     </row>
-    <row r="88" spans="1:9" ht="105">
+    <row r="88" spans="1:9" ht="94.5">
       <c r="A88" s="28" t="s">
         <v>184</v>
       </c>
@@ -8331,7 +8340,7 @@
       </c>
       <c r="I88" s="29"/>
     </row>
-    <row r="89" spans="1:9" ht="60">
+    <row r="89" spans="1:9" ht="54">
       <c r="A89" s="28" t="s">
         <v>187</v>
       </c>
@@ -8339,7 +8348,7 @@
         <v>188</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="28" t="s">
@@ -8356,7 +8365,7 @@
       </c>
       <c r="I89" s="29"/>
     </row>
-    <row r="90" spans="1:9" ht="30">
+    <row r="90" spans="1:9" ht="27">
       <c r="A90" s="28" t="s">
         <v>189</v>
       </c>
@@ -8364,7 +8373,7 @@
         <v>188</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D90" s="28"/>
       <c r="E90" s="28" t="s">
@@ -8381,7 +8390,7 @@
       </c>
       <c r="I90" s="29"/>
     </row>
-    <row r="91" spans="1:9" ht="90">
+    <row r="91" spans="1:9" ht="81">
       <c r="A91" s="28" t="s">
         <v>190</v>
       </c>
@@ -8406,7 +8415,7 @@
       </c>
       <c r="I91" s="29"/>
     </row>
-    <row r="92" spans="1:9" ht="30">
+    <row r="92" spans="1:9" ht="27">
       <c r="A92" s="28" t="s">
         <v>193</v>
       </c>
@@ -8431,7 +8440,7 @@
       </c>
       <c r="I92" s="29"/>
     </row>
-    <row r="93" spans="1:9" ht="30">
+    <row r="93" spans="1:9" ht="27">
       <c r="A93" s="28" t="s">
         <v>196</v>
       </c>
@@ -8456,7 +8465,7 @@
       </c>
       <c r="I93" s="29"/>
     </row>
-    <row r="94" spans="1:9" ht="30">
+    <row r="94" spans="1:9" ht="27">
       <c r="A94" s="28" t="s">
         <v>199</v>
       </c>
@@ -8481,7 +8490,7 @@
       </c>
       <c r="I94" s="29"/>
     </row>
-    <row r="95" spans="1:9" ht="30">
+    <row r="95" spans="1:9" ht="27">
       <c r="A95" s="28" t="s">
         <v>202</v>
       </c>
@@ -8506,7 +8515,7 @@
       </c>
       <c r="I95" s="29"/>
     </row>
-    <row r="96" spans="1:9" ht="30">
+    <row r="96" spans="1:9" ht="27">
       <c r="A96" s="28" t="s">
         <v>204</v>
       </c>
@@ -8531,7 +8540,7 @@
       </c>
       <c r="I96" s="29"/>
     </row>
-    <row r="97" spans="1:9" ht="30">
+    <row r="97" spans="1:9" ht="27">
       <c r="A97" s="28" t="s">
         <v>206</v>
       </c>
@@ -8556,7 +8565,7 @@
       </c>
       <c r="I97" s="29"/>
     </row>
-    <row r="98" spans="1:9" ht="45">
+    <row r="98" spans="1:9" ht="40.5">
       <c r="A98" s="28" t="s">
         <v>208</v>
       </c>
@@ -8564,7 +8573,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D98" s="28"/>
       <c r="E98" s="28" t="s">
@@ -8581,7 +8590,7 @@
       </c>
       <c r="I98" s="29"/>
     </row>
-    <row r="99" spans="1:9" ht="30">
+    <row r="99" spans="1:9" ht="27">
       <c r="A99" s="28" t="s">
         <v>209</v>
       </c>
@@ -8606,7 +8615,7 @@
       </c>
       <c r="I99" s="29"/>
     </row>
-    <row r="100" spans="1:9" ht="30">
+    <row r="100" spans="1:9" ht="27">
       <c r="A100" s="28" t="s">
         <v>211</v>
       </c>
@@ -8631,7 +8640,7 @@
       </c>
       <c r="I100" s="29"/>
     </row>
-    <row r="101" spans="1:9" ht="30">
+    <row r="101" spans="1:9" ht="40.5">
       <c r="A101" s="28" t="s">
         <v>213</v>
       </c>
@@ -8656,7 +8665,7 @@
       </c>
       <c r="I101" s="29"/>
     </row>
-    <row r="102" spans="1:9" ht="30">
+    <row r="102" spans="1:9" ht="27">
       <c r="A102" s="28" t="s">
         <v>215</v>
       </c>
@@ -8681,7 +8690,7 @@
       </c>
       <c r="I102" s="29"/>
     </row>
-    <row r="103" spans="1:9" ht="30">
+    <row r="103" spans="1:9" ht="40.5">
       <c r="A103" s="28" t="s">
         <v>218</v>
       </c>
@@ -8706,7 +8715,7 @@
       </c>
       <c r="I103" s="29"/>
     </row>
-    <row r="104" spans="1:9" ht="30">
+    <row r="104" spans="1:9" ht="27">
       <c r="A104" s="28" t="s">
         <v>220</v>
       </c>
@@ -8731,7 +8740,7 @@
       </c>
       <c r="I104" s="29"/>
     </row>
-    <row r="105" spans="1:9" ht="30">
+    <row r="105" spans="1:9" ht="27">
       <c r="A105" s="28" t="s">
         <v>222</v>
       </c>
@@ -8756,7 +8765,7 @@
       </c>
       <c r="I105" s="29"/>
     </row>
-    <row r="106" spans="1:9" ht="30">
+    <row r="106" spans="1:9" ht="40.5">
       <c r="A106" s="28" t="s">
         <v>224</v>
       </c>
@@ -8764,7 +8773,7 @@
         <v>216</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D106" s="28"/>
       <c r="E106" s="28" t="s">
@@ -8781,7 +8790,7 @@
       </c>
       <c r="I106" s="29"/>
     </row>
-    <row r="107" spans="1:9" ht="30">
+    <row r="107" spans="1:9" ht="27">
       <c r="A107" s="28" t="s">
         <v>225</v>
       </c>
@@ -8806,7 +8815,7 @@
       </c>
       <c r="I107" s="29"/>
     </row>
-    <row r="108" spans="1:9" ht="30">
+    <row r="108" spans="1:9" ht="27">
       <c r="A108" s="28" t="s">
         <v>227</v>
       </c>
@@ -8814,7 +8823,7 @@
         <v>216</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D108" s="28"/>
       <c r="E108" s="28" t="s">
@@ -8831,7 +8840,7 @@
       </c>
       <c r="I108" s="29"/>
     </row>
-    <row r="109" spans="1:9" ht="30">
+    <row r="109" spans="1:9" ht="27">
       <c r="A109" s="28" t="s">
         <v>228</v>
       </c>
@@ -8856,7 +8865,7 @@
       </c>
       <c r="I109" s="29"/>
     </row>
-    <row r="110" spans="1:9" ht="30">
+    <row r="110" spans="1:9" ht="27">
       <c r="A110" s="28" t="s">
         <v>230</v>
       </c>
@@ -8881,7 +8890,7 @@
       </c>
       <c r="I110" s="29"/>
     </row>
-    <row r="111" spans="1:9" ht="30">
+    <row r="111" spans="1:9" ht="27">
       <c r="A111" s="28" t="s">
         <v>232</v>
       </c>
@@ -8906,7 +8915,7 @@
       </c>
       <c r="I111" s="29"/>
     </row>
-    <row r="112" spans="1:9" ht="30">
+    <row r="112" spans="1:9" ht="27">
       <c r="A112" s="28" t="s">
         <v>235</v>
       </c>
@@ -8931,7 +8940,7 @@
       </c>
       <c r="I112" s="29"/>
     </row>
-    <row r="113" spans="1:9" ht="30">
+    <row r="113" spans="1:9" ht="40.5">
       <c r="A113" s="28" t="s">
         <v>237</v>
       </c>
@@ -8939,7 +8948,7 @@
         <v>233</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D113" s="28"/>
       <c r="E113" s="28" t="s">
@@ -8956,7 +8965,7 @@
       </c>
       <c r="I113" s="29"/>
     </row>
-    <row r="114" spans="1:9" ht="30">
+    <row r="114" spans="1:9" ht="27">
       <c r="A114" s="28" t="s">
         <v>238</v>
       </c>
@@ -8981,7 +8990,7 @@
       </c>
       <c r="I114" s="29"/>
     </row>
-    <row r="115" spans="1:9" ht="30">
+    <row r="115" spans="1:9" ht="27">
       <c r="A115" s="28" t="s">
         <v>240</v>
       </c>
@@ -9006,7 +9015,7 @@
       </c>
       <c r="I115" s="29"/>
     </row>
-    <row r="116" spans="1:9" ht="45">
+    <row r="116" spans="1:9" ht="40.5">
       <c r="A116" s="28" t="s">
         <v>242</v>
       </c>
@@ -9014,7 +9023,7 @@
         <v>233</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D116" s="28"/>
       <c r="E116" s="28" t="s">
@@ -9031,7 +9040,7 @@
       </c>
       <c r="I116" s="29"/>
     </row>
-    <row r="117" spans="1:9" ht="30">
+    <row r="117" spans="1:9" ht="40.5">
       <c r="A117" s="28" t="s">
         <v>243</v>
       </c>
@@ -9056,7 +9065,7 @@
       </c>
       <c r="I117" s="29"/>
     </row>
-    <row r="118" spans="1:9" ht="30">
+    <row r="118" spans="1:9" ht="27">
       <c r="A118" s="28" t="s">
         <v>245</v>
       </c>
@@ -9081,7 +9090,7 @@
       </c>
       <c r="I118" s="29"/>
     </row>
-    <row r="119" spans="1:9" ht="30">
+    <row r="119" spans="1:9" ht="27">
       <c r="A119" s="28" t="s">
         <v>247</v>
       </c>
@@ -9106,7 +9115,7 @@
       </c>
       <c r="I119" s="29"/>
     </row>
-    <row r="120" spans="1:9" ht="30">
+    <row r="120" spans="1:9" ht="40.5">
       <c r="A120" s="28" t="s">
         <v>249</v>
       </c>
@@ -9131,7 +9140,7 @@
       </c>
       <c r="I120" s="29"/>
     </row>
-    <row r="121" spans="1:9" ht="30">
+    <row r="121" spans="1:9" ht="27">
       <c r="A121" s="28" t="s">
         <v>251</v>
       </c>
@@ -9156,7 +9165,7 @@
       </c>
       <c r="I121" s="29"/>
     </row>
-    <row r="122" spans="1:9" ht="30">
+    <row r="122" spans="1:9" ht="27">
       <c r="A122" s="28" t="s">
         <v>253</v>
       </c>
@@ -9181,7 +9190,7 @@
       </c>
       <c r="I122" s="29"/>
     </row>
-    <row r="123" spans="1:9" ht="30">
+    <row r="123" spans="1:9" ht="40.5">
       <c r="A123" s="28" t="s">
         <v>255</v>
       </c>
@@ -9189,7 +9198,7 @@
         <v>233</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D123" s="28"/>
       <c r="E123" s="28" t="s">
@@ -9206,7 +9215,7 @@
       </c>
       <c r="I123" s="29"/>
     </row>
-    <row r="124" spans="1:9" ht="30">
+    <row r="124" spans="1:9" ht="27">
       <c r="A124" s="28" t="s">
         <v>256</v>
       </c>
@@ -9231,7 +9240,7 @@
       </c>
       <c r="I124" s="29"/>
     </row>
-    <row r="125" spans="1:9" ht="75">
+    <row r="125" spans="1:9" ht="67.5">
       <c r="A125" s="28" t="s">
         <v>258</v>
       </c>
@@ -9256,7 +9265,7 @@
       </c>
       <c r="I125" s="29"/>
     </row>
-    <row r="126" spans="1:9" ht="30">
+    <row r="126" spans="1:9" ht="27">
       <c r="A126" s="28" t="s">
         <v>260</v>
       </c>
@@ -9281,7 +9290,7 @@
       </c>
       <c r="I126" s="29"/>
     </row>
-    <row r="127" spans="1:9" ht="30">
+    <row r="127" spans="1:9" ht="40.5">
       <c r="A127" s="28" t="s">
         <v>262</v>
       </c>
@@ -9306,7 +9315,7 @@
       </c>
       <c r="I127" s="29"/>
     </row>
-    <row r="128" spans="1:9" ht="45">
+    <row r="128" spans="1:9" ht="54">
       <c r="A128" s="28" t="s">
         <v>264</v>
       </c>
@@ -9331,7 +9340,7 @@
       </c>
       <c r="I128" s="29"/>
     </row>
-    <row r="129" spans="1:9" ht="30">
+    <row r="129" spans="1:9" ht="27">
       <c r="A129" s="28" t="s">
         <v>266</v>
       </c>
@@ -9356,7 +9365,7 @@
       </c>
       <c r="I129" s="29"/>
     </row>
-    <row r="130" spans="1:9" ht="30">
+    <row r="130" spans="1:9" ht="27">
       <c r="A130" s="28" t="s">
         <v>268</v>
       </c>
@@ -9381,7 +9390,7 @@
       </c>
       <c r="I130" s="29"/>
     </row>
-    <row r="131" spans="1:9" ht="30">
+    <row r="131" spans="1:9" ht="27">
       <c r="A131" s="28" t="s">
         <v>270</v>
       </c>
@@ -9406,7 +9415,7 @@
       </c>
       <c r="I131" s="29"/>
     </row>
-    <row r="132" spans="1:9" ht="30">
+    <row r="132" spans="1:9" ht="40.5">
       <c r="A132" s="28" t="s">
         <v>273</v>
       </c>
@@ -9431,7 +9440,7 @@
       </c>
       <c r="I132" s="29"/>
     </row>
-    <row r="133" spans="1:9" ht="30">
+    <row r="133" spans="1:9" ht="27">
       <c r="A133" s="28" t="s">
         <v>275</v>
       </c>
@@ -9456,7 +9465,7 @@
       </c>
       <c r="I133" s="29"/>
     </row>
-    <row r="134" spans="1:9" ht="30">
+    <row r="134" spans="1:9" ht="27">
       <c r="A134" s="28" t="s">
         <v>277</v>
       </c>
@@ -9481,7 +9490,7 @@
       </c>
       <c r="I134" s="29"/>
     </row>
-    <row r="135" spans="1:9" ht="30">
+    <row r="135" spans="1:9" ht="27">
       <c r="A135" s="28" t="s">
         <v>280</v>
       </c>
@@ -9506,7 +9515,7 @@
       </c>
       <c r="I135" s="29"/>
     </row>
-    <row r="136" spans="1:9" ht="30">
+    <row r="136" spans="1:9" ht="27">
       <c r="A136" s="28" t="s">
         <v>282</v>
       </c>
@@ -9514,7 +9523,7 @@
         <v>283</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="28" t="s">
@@ -9531,7 +9540,7 @@
       </c>
       <c r="I136" s="29"/>
     </row>
-    <row r="137" spans="1:9" ht="45">
+    <row r="137" spans="1:9" ht="40.5">
       <c r="A137" s="28" t="s">
         <v>284</v>
       </c>
@@ -9556,7 +9565,7 @@
       </c>
       <c r="I137" s="29"/>
     </row>
-    <row r="138" spans="1:9" ht="240">
+    <row r="138" spans="1:9" ht="216">
       <c r="A138" s="28" t="s">
         <v>286</v>
       </c>
@@ -9581,7 +9590,7 @@
       </c>
       <c r="I138" s="29"/>
     </row>
-    <row r="139" spans="1:9" ht="30">
+    <row r="139" spans="1:9" ht="27">
       <c r="A139" s="28" t="s">
         <v>288</v>
       </c>
@@ -9606,7 +9615,7 @@
       </c>
       <c r="I139" s="29"/>
     </row>
-    <row r="140" spans="1:9" ht="30">
+    <row r="140" spans="1:9" ht="27">
       <c r="A140" s="28" t="s">
         <v>290</v>
       </c>
@@ -9631,7 +9640,7 @@
       </c>
       <c r="I140" s="29"/>
     </row>
-    <row r="141" spans="1:9" ht="30">
+    <row r="141" spans="1:9" ht="27">
       <c r="A141" s="28" t="s">
         <v>292</v>
       </c>
@@ -9658,13 +9667,13 @@
     </row>
     <row r="142" spans="1:9" ht="30">
       <c r="A142" s="33" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B142" s="28" t="s">
         <v>283</v>
       </c>
       <c r="C142" s="29" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D142" s="41"/>
       <c r="E142" s="41" t="s">
@@ -9681,7 +9690,7 @@
       </c>
       <c r="I142" s="42"/>
     </row>
-    <row r="143" spans="1:9" ht="30">
+    <row r="143" spans="1:9" ht="27">
       <c r="A143" s="28" t="s">
         <v>294</v>
       </c>
@@ -9708,13 +9717,13 @@
     </row>
     <row r="144" spans="1:9" ht="30">
       <c r="A144" s="33" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B144" s="28" t="s">
         <v>283</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D144" s="41"/>
       <c r="E144" s="41" t="s">
@@ -9731,7 +9740,7 @@
       </c>
       <c r="I144" s="42"/>
     </row>
-    <row r="145" spans="1:9" ht="30">
+    <row r="145" spans="1:9" ht="27">
       <c r="A145" s="28" t="s">
         <v>296</v>
       </c>
@@ -9756,7 +9765,7 @@
       </c>
       <c r="I145" s="29"/>
     </row>
-    <row r="146" spans="1:9" ht="30">
+    <row r="146" spans="1:9" ht="27">
       <c r="A146" s="28" t="s">
         <v>298</v>
       </c>
@@ -9781,7 +9790,7 @@
       </c>
       <c r="I146" s="29"/>
     </row>
-    <row r="147" spans="1:9" ht="30">
+    <row r="147" spans="1:9" ht="27">
       <c r="A147" s="28" t="s">
         <v>300</v>
       </c>
@@ -9806,7 +9815,7 @@
       </c>
       <c r="I147" s="29"/>
     </row>
-    <row r="148" spans="1:9" ht="30">
+    <row r="148" spans="1:9" ht="27">
       <c r="A148" s="28" t="s">
         <v>302</v>
       </c>
@@ -9831,7 +9840,7 @@
       </c>
       <c r="I148" s="29"/>
     </row>
-    <row r="149" spans="1:9" ht="30">
+    <row r="149" spans="1:9" ht="27">
       <c r="A149" s="28" t="s">
         <v>304</v>
       </c>
@@ -9856,7 +9865,7 @@
       </c>
       <c r="I149" s="29"/>
     </row>
-    <row r="150" spans="1:9" ht="30">
+    <row r="150" spans="1:9" ht="27">
       <c r="A150" s="28" t="s">
         <v>307</v>
       </c>
@@ -9881,7 +9890,7 @@
       </c>
       <c r="I150" s="29"/>
     </row>
-    <row r="151" spans="1:9" ht="30">
+    <row r="151" spans="1:9" ht="27">
       <c r="A151" s="28" t="s">
         <v>309</v>
       </c>
@@ -9906,7 +9915,7 @@
       </c>
       <c r="I151" s="29"/>
     </row>
-    <row r="152" spans="1:9" ht="30">
+    <row r="152" spans="1:9" ht="27">
       <c r="A152" s="28" t="s">
         <v>311</v>
       </c>
@@ -9931,7 +9940,7 @@
       </c>
       <c r="I152" s="29"/>
     </row>
-    <row r="153" spans="1:9" ht="30">
+    <row r="153" spans="1:9" ht="27">
       <c r="A153" s="28" t="s">
         <v>313</v>
       </c>
@@ -9956,7 +9965,7 @@
       </c>
       <c r="I153" s="29"/>
     </row>
-    <row r="154" spans="1:9" ht="30">
+    <row r="154" spans="1:9" ht="27">
       <c r="A154" s="28" t="s">
         <v>315</v>
       </c>
@@ -9981,7 +9990,7 @@
       </c>
       <c r="I154" s="29"/>
     </row>
-    <row r="155" spans="1:9" ht="30">
+    <row r="155" spans="1:9" ht="27">
       <c r="A155" s="28" t="s">
         <v>317</v>
       </c>
@@ -10006,7 +10015,7 @@
       </c>
       <c r="I155" s="29"/>
     </row>
-    <row r="156" spans="1:9" ht="30">
+    <row r="156" spans="1:9" ht="27">
       <c r="A156" s="28" t="s">
         <v>319</v>
       </c>
@@ -10031,7 +10040,7 @@
       </c>
       <c r="I156" s="29"/>
     </row>
-    <row r="157" spans="1:9" ht="30">
+    <row r="157" spans="1:9" ht="27">
       <c r="A157" s="28" t="s">
         <v>321</v>
       </c>
@@ -10056,7 +10065,7 @@
       </c>
       <c r="I157" s="29"/>
     </row>
-    <row r="158" spans="1:9" ht="210">
+    <row r="158" spans="1:9" ht="189">
       <c r="A158" s="28" t="s">
         <v>306</v>
       </c>
@@ -10083,13 +10092,13 @@
     </row>
     <row r="159" spans="1:9" ht="30">
       <c r="A159" s="33" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B159" s="33" t="s">
         <v>322</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D159" s="41"/>
       <c r="E159" s="41" t="s">
@@ -10106,7 +10115,7 @@
       </c>
       <c r="I159" s="42"/>
     </row>
-    <row r="160" spans="1:9" ht="45">
+    <row r="160" spans="1:9" ht="40.5">
       <c r="A160" s="28" t="s">
         <v>325</v>
       </c>
@@ -10114,7 +10123,7 @@
         <v>322</v>
       </c>
       <c r="C160" s="29" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="28" t="s">
@@ -10131,7 +10140,7 @@
       </c>
       <c r="I160" s="29"/>
     </row>
-    <row r="161" spans="1:9" ht="45">
+    <row r="161" spans="1:9" ht="54">
       <c r="A161" s="28" t="s">
         <v>326</v>
       </c>
@@ -10139,7 +10148,7 @@
         <v>322</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D161" s="34"/>
       <c r="E161" s="34" t="s">
@@ -10152,11 +10161,11 @@
         <v>15</v>
       </c>
       <c r="H161" s="34" t="s">
-        <v>20</v>
+        <v>1136</v>
       </c>
       <c r="I161" s="35"/>
     </row>
-    <row r="162" spans="1:9" ht="30">
+    <row r="162" spans="1:9" ht="27">
       <c r="A162" s="28" t="s">
         <v>327</v>
       </c>
@@ -10164,7 +10173,7 @@
         <v>33</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D162" s="28"/>
       <c r="E162" s="28" t="s">
@@ -10181,7 +10190,7 @@
       </c>
       <c r="I162" s="29"/>
     </row>
-    <row r="163" spans="1:9" ht="75">
+    <row r="163" spans="1:9" ht="81">
       <c r="A163" s="28" t="s">
         <v>328</v>
       </c>
@@ -10206,7 +10215,7 @@
       </c>
       <c r="I163" s="29"/>
     </row>
-    <row r="164" spans="1:9" ht="30">
+    <row r="164" spans="1:9" ht="27">
       <c r="A164" s="28" t="s">
         <v>330</v>
       </c>
@@ -10231,7 +10240,7 @@
       </c>
       <c r="I164" s="29"/>
     </row>
-    <row r="165" spans="1:9" ht="30">
+    <row r="165" spans="1:9" ht="40.5">
       <c r="A165" s="28" t="s">
         <v>332</v>
       </c>
@@ -10256,7 +10265,7 @@
       </c>
       <c r="I165" s="29"/>
     </row>
-    <row r="166" spans="1:9" ht="30">
+    <row r="166" spans="1:9" ht="27">
       <c r="A166" s="28" t="s">
         <v>334</v>
       </c>
@@ -10281,7 +10290,7 @@
       </c>
       <c r="I166" s="29"/>
     </row>
-    <row r="167" spans="1:9" ht="45">
+    <row r="167" spans="1:9" ht="40.5">
       <c r="A167" s="28" t="s">
         <v>336</v>
       </c>
@@ -10306,7 +10315,7 @@
       </c>
       <c r="I167" s="29"/>
     </row>
-    <row r="168" spans="1:9" ht="30">
+    <row r="168" spans="1:9" ht="27">
       <c r="A168" s="28" t="s">
         <v>338</v>
       </c>
@@ -10331,7 +10340,7 @@
       </c>
       <c r="I168" s="29"/>
     </row>
-    <row r="169" spans="1:9" ht="30">
+    <row r="169" spans="1:9" ht="40.5">
       <c r="A169" s="28" t="s">
         <v>341</v>
       </c>
@@ -10356,7 +10365,7 @@
       </c>
       <c r="I169" s="29"/>
     </row>
-    <row r="170" spans="1:9" ht="30">
+    <row r="170" spans="1:9" ht="27">
       <c r="A170" s="28" t="s">
         <v>343</v>
       </c>
@@ -10381,7 +10390,7 @@
       </c>
       <c r="I170" s="29"/>
     </row>
-    <row r="171" spans="1:9" ht="30">
+    <row r="171" spans="1:9" ht="27">
       <c r="A171" s="28" t="s">
         <v>345</v>
       </c>
@@ -10406,7 +10415,7 @@
       </c>
       <c r="I171" s="29"/>
     </row>
-    <row r="172" spans="1:9" ht="30">
+    <row r="172" spans="1:9" ht="27">
       <c r="A172" s="28" t="s">
         <v>348</v>
       </c>
@@ -10431,7 +10440,7 @@
       </c>
       <c r="I172" s="29"/>
     </row>
-    <row r="173" spans="1:9" ht="30">
+    <row r="173" spans="1:9" ht="27">
       <c r="A173" s="28" t="s">
         <v>350</v>
       </c>
@@ -10456,7 +10465,7 @@
       </c>
       <c r="I173" s="29"/>
     </row>
-    <row r="174" spans="1:9" ht="135">
+    <row r="174" spans="1:9" ht="121.5">
       <c r="A174" s="28" t="s">
         <v>353</v>
       </c>
@@ -10481,7 +10490,7 @@
       </c>
       <c r="I174" s="29"/>
     </row>
-    <row r="175" spans="1:9" ht="30">
+    <row r="175" spans="1:9" ht="27">
       <c r="A175" s="28" t="s">
         <v>355</v>
       </c>
@@ -10506,7 +10515,7 @@
       </c>
       <c r="I175" s="29"/>
     </row>
-    <row r="176" spans="1:9" ht="30">
+    <row r="176" spans="1:9" ht="27">
       <c r="A176" s="28" t="s">
         <v>357</v>
       </c>
@@ -10531,7 +10540,7 @@
       </c>
       <c r="I176" s="29"/>
     </row>
-    <row r="177" spans="1:9" ht="30">
+    <row r="177" spans="1:9" ht="27">
       <c r="A177" s="28" t="s">
         <v>359</v>
       </c>
@@ -10556,7 +10565,7 @@
       </c>
       <c r="I177" s="29"/>
     </row>
-    <row r="178" spans="1:9" ht="30">
+    <row r="178" spans="1:9" ht="27">
       <c r="A178" s="28" t="s">
         <v>361</v>
       </c>
@@ -10583,13 +10592,13 @@
     </row>
     <row r="179" spans="1:9" ht="45">
       <c r="A179" s="33" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B179" s="41" t="s">
         <v>351</v>
       </c>
       <c r="C179" s="29" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D179" s="41"/>
       <c r="E179" s="41" t="s">
@@ -10606,7 +10615,7 @@
       </c>
       <c r="I179" s="42"/>
     </row>
-    <row r="180" spans="1:9" ht="30">
+    <row r="180" spans="1:9" ht="27">
       <c r="A180" s="28" t="s">
         <v>363</v>
       </c>
@@ -10631,7 +10640,7 @@
       </c>
       <c r="I180" s="29"/>
     </row>
-    <row r="181" spans="1:9" ht="30">
+    <row r="181" spans="1:9" ht="27">
       <c r="A181" s="28" t="s">
         <v>365</v>
       </c>
@@ -10656,7 +10665,7 @@
       </c>
       <c r="I181" s="29"/>
     </row>
-    <row r="182" spans="1:9" ht="30">
+    <row r="182" spans="1:9" ht="27">
       <c r="A182" s="28" t="s">
         <v>368</v>
       </c>
@@ -10681,7 +10690,7 @@
       </c>
       <c r="I182" s="29"/>
     </row>
-    <row r="183" spans="1:9" ht="30">
+    <row r="183" spans="1:9" ht="27">
       <c r="A183" s="28" t="s">
         <v>370</v>
       </c>
@@ -10689,7 +10698,7 @@
         <v>351</v>
       </c>
       <c r="C183" s="29" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D183" s="28"/>
       <c r="E183" s="28" t="s">
@@ -10706,7 +10715,7 @@
       </c>
       <c r="I183" s="29"/>
     </row>
-    <row r="184" spans="1:9" ht="30">
+    <row r="184" spans="1:9" ht="27">
       <c r="A184" s="28" t="s">
         <v>371</v>
       </c>
@@ -10731,7 +10740,7 @@
       </c>
       <c r="I184" s="29"/>
     </row>
-    <row r="185" spans="1:9" ht="210">
+    <row r="185" spans="1:9" ht="202.5">
       <c r="A185" s="28" t="s">
         <v>367</v>
       </c>
@@ -10756,7 +10765,7 @@
       </c>
       <c r="I185" s="29"/>
     </row>
-    <row r="186" spans="1:9" ht="150">
+    <row r="186" spans="1:9" ht="148.5">
       <c r="A186" s="28" t="s">
         <v>375</v>
       </c>
@@ -10781,7 +10790,7 @@
       </c>
       <c r="I186" s="29"/>
     </row>
-    <row r="187" spans="1:9" ht="30">
+    <row r="187" spans="1:9" ht="40.5">
       <c r="A187" s="28" t="s">
         <v>377</v>
       </c>
@@ -10806,7 +10815,7 @@
       </c>
       <c r="I187" s="29"/>
     </row>
-    <row r="188" spans="1:9" ht="30">
+    <row r="188" spans="1:9" ht="40.5">
       <c r="A188" s="28" t="s">
         <v>379</v>
       </c>
@@ -10814,7 +10823,7 @@
         <v>372</v>
       </c>
       <c r="C188" s="29" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D188" s="28"/>
       <c r="E188" s="28" t="s">
@@ -10831,7 +10840,7 @@
       </c>
       <c r="I188" s="29"/>
     </row>
-    <row r="189" spans="1:9" ht="30">
+    <row r="189" spans="1:9" ht="40.5">
       <c r="A189" s="28" t="s">
         <v>380</v>
       </c>
@@ -10856,7 +10865,7 @@
       </c>
       <c r="I189" s="29"/>
     </row>
-    <row r="190" spans="1:9" ht="45">
+    <row r="190" spans="1:9" ht="40.5">
       <c r="A190" s="28" t="s">
         <v>382</v>
       </c>
@@ -10876,20 +10885,20 @@
       <c r="G190" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H190" s="34" t="s">
-        <v>20</v>
+      <c r="H190" s="41" t="s">
+        <v>18</v>
       </c>
       <c r="I190" s="35"/>
     </row>
     <row r="191" spans="1:9" ht="30">
       <c r="A191" s="33" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B191" s="33" t="s">
         <v>1101</v>
       </c>
-      <c r="B191" s="33" t="s">
+      <c r="C191" s="31" t="s">
         <v>1102</v>
-      </c>
-      <c r="C191" s="31" t="s">
-        <v>1103</v>
       </c>
       <c r="D191" s="41"/>
       <c r="E191" s="41" t="s">
@@ -10908,13 +10917,13 @@
     </row>
     <row r="192" spans="1:9" ht="165">
       <c r="A192" s="33" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B192" s="33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C192" s="31" t="s">
         <v>1104</v>
-      </c>
-      <c r="B192" s="33" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C192" s="31" t="s">
-        <v>1105</v>
       </c>
       <c r="D192" s="41"/>
       <c r="E192" s="41" t="s">
@@ -10933,13 +10942,13 @@
     </row>
     <row r="193" spans="1:9" ht="30">
       <c r="A193" s="33" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B193" s="33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C193" s="31" t="s">
         <v>1106</v>
-      </c>
-      <c r="B193" s="33" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C193" s="31" t="s">
-        <v>1107</v>
       </c>
       <c r="D193" s="41"/>
       <c r="E193" s="41" t="s">
@@ -10956,7 +10965,7 @@
       </c>
       <c r="I193" s="42"/>
     </row>
-    <row r="194" spans="1:9" ht="30">
+    <row r="194" spans="1:9" ht="27">
       <c r="A194" s="28" t="s">
         <v>384</v>
       </c>
@@ -10981,7 +10990,7 @@
       </c>
       <c r="I194" s="29"/>
     </row>
-    <row r="195" spans="1:9" ht="75">
+    <row r="195" spans="1:9" ht="67.5">
       <c r="A195" s="28" t="s">
         <v>387</v>
       </c>
@@ -11006,7 +11015,7 @@
       </c>
       <c r="I195" s="29"/>
     </row>
-    <row r="196" spans="1:9" ht="30">
+    <row r="196" spans="1:9" ht="27">
       <c r="A196" s="28" t="s">
         <v>389</v>
       </c>
@@ -11031,7 +11040,7 @@
       </c>
       <c r="I196" s="29"/>
     </row>
-    <row r="197" spans="1:9" ht="30">
+    <row r="197" spans="1:9" ht="40.5">
       <c r="A197" s="28" t="s">
         <v>391</v>
       </c>
@@ -11056,7 +11065,7 @@
       </c>
       <c r="I197" s="29"/>
     </row>
-    <row r="198" spans="1:9" ht="45">
+    <row r="198" spans="1:9" ht="40.5">
       <c r="A198" s="28" t="s">
         <v>393</v>
       </c>
@@ -11081,7 +11090,7 @@
       </c>
       <c r="I198" s="29"/>
     </row>
-    <row r="199" spans="1:9" ht="30">
+    <row r="199" spans="1:9" ht="27">
       <c r="A199" s="28" t="s">
         <v>395</v>
       </c>
@@ -11106,7 +11115,7 @@
       </c>
       <c r="I199" s="29"/>
     </row>
-    <row r="200" spans="1:9" ht="30">
+    <row r="200" spans="1:9" ht="40.5">
       <c r="A200" s="28" t="s">
         <v>398</v>
       </c>
@@ -11131,7 +11140,7 @@
       </c>
       <c r="I200" s="29"/>
     </row>
-    <row r="201" spans="1:9" ht="30">
+    <row r="201" spans="1:9" ht="27">
       <c r="A201" s="28" t="s">
         <v>400</v>
       </c>
@@ -11156,7 +11165,7 @@
       </c>
       <c r="I201" s="29"/>
     </row>
-    <row r="202" spans="1:9" ht="30">
+    <row r="202" spans="1:9" ht="27">
       <c r="A202" s="28" t="s">
         <v>402</v>
       </c>
@@ -11181,7 +11190,7 @@
       </c>
       <c r="I202" s="29"/>
     </row>
-    <row r="203" spans="1:9" ht="30">
+    <row r="203" spans="1:9" ht="27">
       <c r="A203" s="28" t="s">
         <v>405</v>
       </c>
@@ -11206,7 +11215,7 @@
       </c>
       <c r="I203" s="29"/>
     </row>
-    <row r="204" spans="1:9" ht="30">
+    <row r="204" spans="1:9" ht="27">
       <c r="A204" s="28" t="s">
         <v>407</v>
       </c>
@@ -11231,7 +11240,7 @@
       </c>
       <c r="I204" s="29"/>
     </row>
-    <row r="205" spans="1:9" ht="165">
+    <row r="205" spans="1:9" ht="148.5">
       <c r="A205" s="28" t="s">
         <v>410</v>
       </c>
@@ -11256,7 +11265,7 @@
       </c>
       <c r="I205" s="29"/>
     </row>
-    <row r="206" spans="1:9" ht="30">
+    <row r="206" spans="1:9" ht="27">
       <c r="A206" s="28" t="s">
         <v>412</v>
       </c>
@@ -11281,7 +11290,7 @@
       </c>
       <c r="I206" s="29"/>
     </row>
-    <row r="207" spans="1:9" ht="30">
+    <row r="207" spans="1:9" ht="27">
       <c r="A207" s="28" t="s">
         <v>414</v>
       </c>
@@ -11306,7 +11315,7 @@
       </c>
       <c r="I207" s="29"/>
     </row>
-    <row r="208" spans="1:9" ht="30">
+    <row r="208" spans="1:9" ht="27">
       <c r="A208" s="28" t="s">
         <v>417</v>
       </c>
@@ -11331,7 +11340,7 @@
       </c>
       <c r="I208" s="29"/>
     </row>
-    <row r="209" spans="1:9" ht="30">
+    <row r="209" spans="1:9" ht="27">
       <c r="A209" s="28" t="s">
         <v>419</v>
       </c>
@@ -11358,13 +11367,13 @@
     </row>
     <row r="210" spans="1:9" ht="30">
       <c r="A210" s="33" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B210" s="33" t="s">
         <v>408</v>
       </c>
       <c r="C210" s="29" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D210" s="41"/>
       <c r="E210" s="41" t="s">
@@ -11381,7 +11390,7 @@
       </c>
       <c r="I210" s="42"/>
     </row>
-    <row r="211" spans="1:9" ht="30">
+    <row r="211" spans="1:9" ht="27">
       <c r="A211" s="28" t="s">
         <v>421</v>
       </c>
@@ -11406,7 +11415,7 @@
       </c>
       <c r="I211" s="29"/>
     </row>
-    <row r="212" spans="1:9" ht="30">
+    <row r="212" spans="1:9" ht="27">
       <c r="A212" s="28" t="s">
         <v>423</v>
       </c>
@@ -11414,7 +11423,7 @@
         <v>408</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D212" s="28"/>
       <c r="E212" s="28" t="s">
@@ -11431,7 +11440,7 @@
       </c>
       <c r="I212" s="29"/>
     </row>
-    <row r="213" spans="1:9" ht="45">
+    <row r="213" spans="1:9" ht="54">
       <c r="A213" s="28" t="s">
         <v>424</v>
       </c>
@@ -11456,7 +11465,7 @@
       </c>
       <c r="I213" s="29"/>
     </row>
-    <row r="214" spans="1:9" ht="30">
+    <row r="214" spans="1:9" ht="27">
       <c r="A214" s="28" t="s">
         <v>426</v>
       </c>
@@ -11481,7 +11490,7 @@
       </c>
       <c r="I214" s="29"/>
     </row>
-    <row r="215" spans="1:9" ht="30">
+    <row r="215" spans="1:9" ht="27">
       <c r="A215" s="28" t="s">
         <v>428</v>
       </c>
@@ -11506,7 +11515,7 @@
       </c>
       <c r="I215" s="29"/>
     </row>
-    <row r="216" spans="1:9" ht="30">
+    <row r="216" spans="1:9" ht="27">
       <c r="A216" s="28" t="s">
         <v>430</v>
       </c>
@@ -11531,7 +11540,7 @@
       </c>
       <c r="I216" s="29"/>
     </row>
-    <row r="217" spans="1:9" ht="225">
+    <row r="217" spans="1:9" ht="216">
       <c r="A217" s="28" t="s">
         <v>416</v>
       </c>
@@ -11556,7 +11565,7 @@
       </c>
       <c r="I217" s="29"/>
     </row>
-    <row r="218" spans="1:9" ht="60">
+    <row r="218" spans="1:9" ht="54">
       <c r="A218" s="28" t="s">
         <v>434</v>
       </c>
@@ -11581,7 +11590,7 @@
       </c>
       <c r="I218" s="29"/>
     </row>
-    <row r="219" spans="1:9" ht="30">
+    <row r="219" spans="1:9" ht="27">
       <c r="A219" s="28" t="s">
         <v>436</v>
       </c>
@@ -11606,7 +11615,7 @@
       </c>
       <c r="I219" s="29"/>
     </row>
-    <row r="220" spans="1:9" ht="30">
+    <row r="220" spans="1:9" ht="27">
       <c r="A220" s="28" t="s">
         <v>438</v>
       </c>
@@ -11631,7 +11640,7 @@
       </c>
       <c r="I220" s="29"/>
     </row>
-    <row r="221" spans="1:9" ht="30">
+    <row r="221" spans="1:9" ht="27">
       <c r="A221" s="28" t="s">
         <v>440</v>
       </c>
@@ -11656,7 +11665,7 @@
       </c>
       <c r="I221" s="29"/>
     </row>
-    <row r="222" spans="1:9" ht="30">
+    <row r="222" spans="1:9" ht="27">
       <c r="A222" s="28" t="s">
         <v>442</v>
       </c>
@@ -11681,7 +11690,7 @@
       </c>
       <c r="I222" s="29"/>
     </row>
-    <row r="223" spans="1:9" ht="30">
+    <row r="223" spans="1:9" ht="40.5">
       <c r="A223" s="28" t="s">
         <v>444</v>
       </c>
@@ -11689,7 +11698,7 @@
         <v>431</v>
       </c>
       <c r="C223" s="29" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D223" s="28"/>
       <c r="E223" s="28" t="s">
@@ -11706,7 +11715,7 @@
       </c>
       <c r="I223" s="29"/>
     </row>
-    <row r="224" spans="1:9" ht="30">
+    <row r="224" spans="1:9" ht="27">
       <c r="A224" s="28" t="s">
         <v>445</v>
       </c>
@@ -11731,7 +11740,7 @@
       </c>
       <c r="I224" s="29"/>
     </row>
-    <row r="225" spans="1:9" ht="150">
+    <row r="225" spans="1:9" ht="135">
       <c r="A225" s="28" t="s">
         <v>448</v>
       </c>
@@ -11756,7 +11765,7 @@
       </c>
       <c r="I225" s="29"/>
     </row>
-    <row r="226" spans="1:9" ht="30">
+    <row r="226" spans="1:9" ht="27">
       <c r="A226" s="28" t="s">
         <v>450</v>
       </c>
@@ -11781,7 +11790,7 @@
       </c>
       <c r="I226" s="29"/>
     </row>
-    <row r="227" spans="1:9" ht="30">
+    <row r="227" spans="1:9" ht="27">
       <c r="A227" s="28" t="s">
         <v>452</v>
       </c>
@@ -11806,7 +11815,7 @@
       </c>
       <c r="I227" s="29"/>
     </row>
-    <row r="228" spans="1:9" ht="30">
+    <row r="228" spans="1:9" ht="27">
       <c r="A228" s="28" t="s">
         <v>454</v>
       </c>
@@ -11831,7 +11840,7 @@
       </c>
       <c r="I228" s="29"/>
     </row>
-    <row r="229" spans="1:9" ht="30">
+    <row r="229" spans="1:9" ht="27">
       <c r="A229" s="28" t="s">
         <v>456</v>
       </c>
@@ -11856,7 +11865,7 @@
       </c>
       <c r="I229" s="29"/>
     </row>
-    <row r="230" spans="1:9" ht="30">
+    <row r="230" spans="1:9" ht="27">
       <c r="A230" s="28" t="s">
         <v>458</v>
       </c>
@@ -11881,7 +11890,7 @@
       </c>
       <c r="I230" s="29"/>
     </row>
-    <row r="231" spans="1:9" ht="30">
+    <row r="231" spans="1:9" ht="27">
       <c r="A231" s="28" t="s">
         <v>460</v>
       </c>
@@ -11906,7 +11915,7 @@
       </c>
       <c r="I231" s="29"/>
     </row>
-    <row r="232" spans="1:9" ht="30">
+    <row r="232" spans="1:9" ht="27">
       <c r="A232" s="28" t="s">
         <v>462</v>
       </c>
@@ -11931,7 +11940,7 @@
       </c>
       <c r="I232" s="29"/>
     </row>
-    <row r="233" spans="1:9" ht="30">
+    <row r="233" spans="1:9" ht="27">
       <c r="A233" s="28" t="s">
         <v>464</v>
       </c>
@@ -11956,7 +11965,7 @@
       </c>
       <c r="I233" s="29"/>
     </row>
-    <row r="234" spans="1:9" ht="30">
+    <row r="234" spans="1:9" ht="27">
       <c r="A234" s="28" t="s">
         <v>466</v>
       </c>
@@ -11981,7 +11990,7 @@
       </c>
       <c r="I234" s="29"/>
     </row>
-    <row r="235" spans="1:9" ht="30">
+    <row r="235" spans="1:9" ht="27">
       <c r="A235" s="28" t="s">
         <v>468</v>
       </c>
@@ -12006,7 +12015,7 @@
       </c>
       <c r="I235" s="29"/>
     </row>
-    <row r="236" spans="1:9" ht="30">
+    <row r="236" spans="1:9" ht="27">
       <c r="A236" s="28" t="s">
         <v>470</v>
       </c>
@@ -12031,7 +12040,7 @@
       </c>
       <c r="I236" s="29"/>
     </row>
-    <row r="237" spans="1:9" ht="30">
+    <row r="237" spans="1:9" ht="27">
       <c r="A237" s="28" t="s">
         <v>472</v>
       </c>
@@ -12056,7 +12065,7 @@
       </c>
       <c r="I237" s="29"/>
     </row>
-    <row r="238" spans="1:9" ht="30">
+    <row r="238" spans="1:9" ht="27">
       <c r="A238" s="28" t="s">
         <v>474</v>
       </c>
@@ -12081,7 +12090,7 @@
       </c>
       <c r="I238" s="29"/>
     </row>
-    <row r="239" spans="1:9" ht="30">
+    <row r="239" spans="1:9" ht="27">
       <c r="A239" s="28" t="s">
         <v>477</v>
       </c>
@@ -12106,7 +12115,7 @@
       </c>
       <c r="I239" s="29"/>
     </row>
-    <row r="240" spans="1:9" ht="195">
+    <row r="240" spans="1:9" ht="175.5">
       <c r="A240" s="28" t="s">
         <v>479</v>
       </c>
@@ -12131,7 +12140,7 @@
       </c>
       <c r="I240" s="29"/>
     </row>
-    <row r="241" spans="1:9" ht="30">
+    <row r="241" spans="1:9" ht="27">
       <c r="A241" s="28" t="s">
         <v>481</v>
       </c>
@@ -12156,7 +12165,7 @@
       </c>
       <c r="I241" s="29"/>
     </row>
-    <row r="242" spans="1:9" ht="45">
+    <row r="242" spans="1:9" ht="40.5">
       <c r="A242" s="28" t="s">
         <v>483</v>
       </c>
@@ -12181,7 +12190,7 @@
       </c>
       <c r="I242" s="29"/>
     </row>
-    <row r="243" spans="1:9" ht="30">
+    <row r="243" spans="1:9" ht="27">
       <c r="A243" s="28" t="s">
         <v>485</v>
       </c>
@@ -12206,7 +12215,7 @@
       </c>
       <c r="I243" s="29"/>
     </row>
-    <row r="244" spans="1:9" ht="30">
+    <row r="244" spans="1:9" ht="27">
       <c r="A244" s="28" t="s">
         <v>487</v>
       </c>
@@ -12231,7 +12240,7 @@
       </c>
       <c r="I244" s="29"/>
     </row>
-    <row r="245" spans="1:9" ht="30">
+    <row r="245" spans="1:9" ht="27">
       <c r="A245" s="28" t="s">
         <v>489</v>
       </c>
@@ -12256,7 +12265,7 @@
       </c>
       <c r="I245" s="29"/>
     </row>
-    <row r="246" spans="1:9" ht="30">
+    <row r="246" spans="1:9" ht="27">
       <c r="A246" s="28" t="s">
         <v>491</v>
       </c>
@@ -12281,7 +12290,7 @@
       </c>
       <c r="I246" s="29"/>
     </row>
-    <row r="247" spans="1:9" ht="30">
+    <row r="247" spans="1:9" ht="27">
       <c r="A247" s="28" t="s">
         <v>493</v>
       </c>
@@ -12306,7 +12315,7 @@
       </c>
       <c r="I247" s="29"/>
     </row>
-    <row r="248" spans="1:9" ht="30">
+    <row r="248" spans="1:9" ht="27">
       <c r="A248" s="28" t="s">
         <v>495</v>
       </c>
@@ -12331,7 +12340,7 @@
       </c>
       <c r="I248" s="29"/>
     </row>
-    <row r="249" spans="1:9" ht="30">
+    <row r="249" spans="1:9" ht="27">
       <c r="A249" s="28" t="s">
         <v>497</v>
       </c>
@@ -12356,7 +12365,7 @@
       </c>
       <c r="I249" s="29"/>
     </row>
-    <row r="250" spans="1:9" ht="30">
+    <row r="250" spans="1:9" ht="27">
       <c r="A250" s="28" t="s">
         <v>499</v>
       </c>
@@ -12381,7 +12390,7 @@
       </c>
       <c r="I250" s="29"/>
     </row>
-    <row r="251" spans="1:9" ht="30">
+    <row r="251" spans="1:9" ht="27">
       <c r="A251" s="28" t="s">
         <v>501</v>
       </c>
@@ -12406,7 +12415,7 @@
       </c>
       <c r="I251" s="29"/>
     </row>
-    <row r="252" spans="1:9" ht="30">
+    <row r="252" spans="1:9" ht="40.5">
       <c r="A252" s="28" t="s">
         <v>503</v>
       </c>
@@ -12431,7 +12440,7 @@
       </c>
       <c r="I252" s="29"/>
     </row>
-    <row r="253" spans="1:9" ht="30">
+    <row r="253" spans="1:9" ht="40.5">
       <c r="A253" s="28" t="s">
         <v>505</v>
       </c>
@@ -12456,7 +12465,7 @@
       </c>
       <c r="I253" s="29"/>
     </row>
-    <row r="254" spans="1:9" ht="45">
+    <row r="254" spans="1:9" ht="54">
       <c r="A254" s="28" t="s">
         <v>507</v>
       </c>
@@ -12481,7 +12490,7 @@
       </c>
       <c r="I254" s="29"/>
     </row>
-    <row r="255" spans="1:9" ht="30">
+    <row r="255" spans="1:9" ht="27">
       <c r="A255" s="28" t="s">
         <v>509</v>
       </c>
@@ -12506,7 +12515,7 @@
       </c>
       <c r="I255" s="29"/>
     </row>
-    <row r="256" spans="1:9" ht="30">
+    <row r="256" spans="1:9" ht="27">
       <c r="A256" s="28" t="s">
         <v>511</v>
       </c>
@@ -12531,7 +12540,7 @@
       </c>
       <c r="I256" s="29"/>
     </row>
-    <row r="257" spans="1:9" ht="30">
+    <row r="257" spans="1:9" ht="27">
       <c r="A257" s="28" t="s">
         <v>513</v>
       </c>
@@ -12556,7 +12565,7 @@
       </c>
       <c r="I257" s="29"/>
     </row>
-    <row r="258" spans="1:9" ht="30">
+    <row r="258" spans="1:9" ht="27">
       <c r="A258" s="28" t="s">
         <v>515</v>
       </c>
@@ -12581,7 +12590,7 @@
       </c>
       <c r="I258" s="29"/>
     </row>
-    <row r="259" spans="1:9" ht="30">
+    <row r="259" spans="1:9" ht="27">
       <c r="A259" s="28" t="s">
         <v>517</v>
       </c>
@@ -12606,7 +12615,7 @@
       </c>
       <c r="I259" s="29"/>
     </row>
-    <row r="260" spans="1:9" ht="30">
+    <row r="260" spans="1:9" ht="27">
       <c r="A260" s="28" t="s">
         <v>519</v>
       </c>
@@ -12631,7 +12640,7 @@
       </c>
       <c r="I260" s="29"/>
     </row>
-    <row r="261" spans="1:9" ht="30">
+    <row r="261" spans="1:9" ht="27">
       <c r="A261" s="28" t="s">
         <v>521</v>
       </c>
@@ -12656,7 +12665,7 @@
       </c>
       <c r="I261" s="29"/>
     </row>
-    <row r="262" spans="1:9" ht="30">
+    <row r="262" spans="1:9" ht="27">
       <c r="A262" s="28" t="s">
         <v>523</v>
       </c>
@@ -12681,7 +12690,7 @@
       </c>
       <c r="I262" s="29"/>
     </row>
-    <row r="263" spans="1:9" ht="30">
+    <row r="263" spans="1:9" ht="27">
       <c r="A263" s="28" t="s">
         <v>525</v>
       </c>
@@ -12706,7 +12715,7 @@
       </c>
       <c r="I263" s="29"/>
     </row>
-    <row r="264" spans="1:9" ht="75">
+    <row r="264" spans="1:9" ht="67.5">
       <c r="A264" s="28" t="s">
         <v>528</v>
       </c>
@@ -12731,7 +12740,7 @@
       </c>
       <c r="I264" s="29"/>
     </row>
-    <row r="265" spans="1:9" ht="30">
+    <row r="265" spans="1:9" ht="27">
       <c r="A265" s="28" t="s">
         <v>530</v>
       </c>
@@ -12756,7 +12765,7 @@
       </c>
       <c r="I265" s="29"/>
     </row>
-    <row r="266" spans="1:9" ht="30">
+    <row r="266" spans="1:9" ht="40.5">
       <c r="A266" s="28" t="s">
         <v>532</v>
       </c>
@@ -12781,7 +12790,7 @@
       </c>
       <c r="I266" s="29"/>
     </row>
-    <row r="267" spans="1:9" ht="30">
+    <row r="267" spans="1:9" ht="40.5">
       <c r="A267" s="28" t="s">
         <v>534</v>
       </c>
@@ -12806,7 +12815,7 @@
       </c>
       <c r="I267" s="29"/>
     </row>
-    <row r="268" spans="1:9" ht="30">
+    <row r="268" spans="1:9" ht="27">
       <c r="A268" s="28" t="s">
         <v>536</v>
       </c>
@@ -12814,7 +12823,7 @@
         <v>526</v>
       </c>
       <c r="C268" s="29" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D268" s="28"/>
       <c r="E268" s="28" t="s">
@@ -12831,7 +12840,7 @@
       </c>
       <c r="I268" s="29"/>
     </row>
-    <row r="269" spans="1:9" ht="30">
+    <row r="269" spans="1:9" ht="27">
       <c r="A269" s="28" t="s">
         <v>537</v>
       </c>
@@ -12856,7 +12865,7 @@
       </c>
       <c r="I269" s="29"/>
     </row>
-    <row r="270" spans="1:9" ht="30">
+    <row r="270" spans="1:9" ht="27">
       <c r="A270" s="28" t="s">
         <v>540</v>
       </c>
@@ -12881,7 +12890,7 @@
       </c>
       <c r="I270" s="29"/>
     </row>
-    <row r="271" spans="1:9" ht="30">
+    <row r="271" spans="1:9" ht="27">
       <c r="A271" s="28" t="s">
         <v>542</v>
       </c>
@@ -12906,7 +12915,7 @@
       </c>
       <c r="I271" s="29"/>
     </row>
-    <row r="272" spans="1:9" ht="30">
+    <row r="272" spans="1:9" ht="27">
       <c r="A272" s="28" t="s">
         <v>544</v>
       </c>
@@ -12931,7 +12940,7 @@
       </c>
       <c r="I272" s="29"/>
     </row>
-    <row r="273" spans="1:9" ht="30">
+    <row r="273" spans="1:9" ht="27">
       <c r="A273" s="28" t="s">
         <v>547</v>
       </c>
@@ -12956,7 +12965,7 @@
       </c>
       <c r="I273" s="29"/>
     </row>
-    <row r="274" spans="1:9" ht="30">
+    <row r="274" spans="1:9" ht="27">
       <c r="A274" s="28" t="s">
         <v>549</v>
       </c>
@@ -12981,7 +12990,7 @@
       </c>
       <c r="I274" s="29"/>
     </row>
-    <row r="275" spans="1:9" ht="45">
+    <row r="275" spans="1:9" ht="40.5">
       <c r="A275" s="28" t="s">
         <v>552</v>
       </c>
@@ -13006,7 +13015,7 @@
       </c>
       <c r="I275" s="29"/>
     </row>
-    <row r="276" spans="1:9" ht="30">
+    <row r="276" spans="1:9" ht="27">
       <c r="A276" s="28" t="s">
         <v>554</v>
       </c>
@@ -13031,7 +13040,7 @@
       </c>
       <c r="I276" s="29"/>
     </row>
-    <row r="277" spans="1:9" ht="60">
+    <row r="277" spans="1:9" ht="67.5">
       <c r="A277" s="28" t="s">
         <v>557</v>
       </c>
@@ -13056,7 +13065,7 @@
       </c>
       <c r="I277" s="29"/>
     </row>
-    <row r="278" spans="1:9" ht="30">
+    <row r="278" spans="1:9" ht="40.5">
       <c r="A278" s="28" t="s">
         <v>559</v>
       </c>
@@ -13064,7 +13073,7 @@
         <v>555</v>
       </c>
       <c r="C278" s="29" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D278" s="28"/>
       <c r="E278" s="28" t="s">
@@ -13081,7 +13090,7 @@
       </c>
       <c r="I278" s="29"/>
     </row>
-    <row r="279" spans="1:9" ht="30">
+    <row r="279" spans="1:9" ht="40.5">
       <c r="A279" s="28" t="s">
         <v>560</v>
       </c>
@@ -13089,7 +13098,7 @@
         <v>561</v>
       </c>
       <c r="C279" s="29" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D279" s="28"/>
       <c r="E279" s="28" t="s">
@@ -13106,7 +13115,7 @@
       </c>
       <c r="I279" s="29"/>
     </row>
-    <row r="280" spans="1:9" ht="75">
+    <row r="280" spans="1:9" ht="81">
       <c r="A280" s="28" t="s">
         <v>562</v>
       </c>
@@ -13131,7 +13140,7 @@
       </c>
       <c r="I280" s="29"/>
     </row>
-    <row r="281" spans="1:9" ht="30">
+    <row r="281" spans="1:9" ht="27">
       <c r="A281" s="28" t="s">
         <v>564</v>
       </c>
@@ -13156,7 +13165,7 @@
       </c>
       <c r="I281" s="29"/>
     </row>
-    <row r="282" spans="1:9" ht="30">
+    <row r="282" spans="1:9" ht="40.5">
       <c r="A282" s="28" t="s">
         <v>566</v>
       </c>
@@ -13181,7 +13190,7 @@
       </c>
       <c r="I282" s="29"/>
     </row>
-    <row r="283" spans="1:9" ht="30">
+    <row r="283" spans="1:9" ht="27">
       <c r="A283" s="28" t="s">
         <v>568</v>
       </c>
@@ -13206,7 +13215,7 @@
       </c>
       <c r="I283" s="29"/>
     </row>
-    <row r="284" spans="1:9" ht="45">
+    <row r="284" spans="1:9" ht="40.5">
       <c r="A284" s="28" t="s">
         <v>571</v>
       </c>
@@ -13231,7 +13240,7 @@
       </c>
       <c r="I284" s="29"/>
     </row>
-    <row r="285" spans="1:9" ht="30">
+    <row r="285" spans="1:9" ht="27">
       <c r="A285" s="28" t="s">
         <v>573</v>
       </c>
@@ -13256,7 +13265,7 @@
       </c>
       <c r="I285" s="29"/>
     </row>
-    <row r="286" spans="1:9" ht="30">
+    <row r="286" spans="1:9" ht="27">
       <c r="A286" s="28" t="s">
         <v>575</v>
       </c>
@@ -13281,7 +13290,7 @@
       </c>
       <c r="I286" s="29"/>
     </row>
-    <row r="287" spans="1:9" ht="30">
+    <row r="287" spans="1:9" ht="27">
       <c r="A287" s="28" t="s">
         <v>578</v>
       </c>
@@ -13306,7 +13315,7 @@
       </c>
       <c r="I287" s="29"/>
     </row>
-    <row r="288" spans="1:9" ht="30">
+    <row r="288" spans="1:9" ht="27">
       <c r="A288" s="28" t="s">
         <v>580</v>
       </c>
@@ -13356,7 +13365,7 @@
       </c>
       <c r="I289" s="29"/>
     </row>
-    <row r="290" spans="1:9" ht="30">
+    <row r="290" spans="1:9" ht="27">
       <c r="A290" s="28" t="s">
         <v>585</v>
       </c>
@@ -13381,7 +13390,7 @@
       </c>
       <c r="I290" s="29"/>
     </row>
-    <row r="291" spans="1:9" ht="30">
+    <row r="291" spans="1:9" ht="27">
       <c r="A291" s="28" t="s">
         <v>587</v>
       </c>
@@ -13389,7 +13398,7 @@
         <v>581</v>
       </c>
       <c r="C291" s="29" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D291" s="28"/>
       <c r="E291" s="28" t="s">
@@ -13406,7 +13415,7 @@
       </c>
       <c r="I291" s="29"/>
     </row>
-    <row r="292" spans="1:9" ht="30">
+    <row r="292" spans="1:9" ht="27">
       <c r="A292" s="28" t="s">
         <v>588</v>
       </c>
@@ -13431,7 +13440,7 @@
       </c>
       <c r="I292" s="29"/>
     </row>
-    <row r="293" spans="1:9" ht="30">
+    <row r="293" spans="1:9" ht="40.5">
       <c r="A293" s="28" t="s">
         <v>590</v>
       </c>
@@ -13439,7 +13448,7 @@
         <v>581</v>
       </c>
       <c r="C293" s="29" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D293" s="28"/>
       <c r="E293" s="28" t="s">
@@ -13456,7 +13465,7 @@
       </c>
       <c r="I293" s="29"/>
     </row>
-    <row r="294" spans="1:9" ht="30">
+    <row r="294" spans="1:9" ht="27">
       <c r="A294" s="28" t="s">
         <v>591</v>
       </c>
@@ -13481,7 +13490,7 @@
       </c>
       <c r="I294" s="29"/>
     </row>
-    <row r="295" spans="1:9" ht="30">
+    <row r="295" spans="1:9" ht="27">
       <c r="A295" s="28" t="s">
         <v>593</v>
       </c>
@@ -13506,7 +13515,7 @@
       </c>
       <c r="I295" s="29"/>
     </row>
-    <row r="296" spans="1:9" ht="30">
+    <row r="296" spans="1:9" ht="27">
       <c r="A296" s="28" t="s">
         <v>595</v>
       </c>
@@ -13531,7 +13540,7 @@
       </c>
       <c r="I296" s="29"/>
     </row>
-    <row r="297" spans="1:9" ht="30">
+    <row r="297" spans="1:9" ht="27">
       <c r="A297" s="28" t="s">
         <v>597</v>
       </c>
@@ -13556,7 +13565,7 @@
       </c>
       <c r="I297" s="29"/>
     </row>
-    <row r="298" spans="1:9" ht="30">
+    <row r="298" spans="1:9" ht="27">
       <c r="A298" s="28" t="s">
         <v>599</v>
       </c>
@@ -13581,7 +13590,7 @@
       </c>
       <c r="I298" s="29"/>
     </row>
-    <row r="299" spans="1:9" ht="30">
+    <row r="299" spans="1:9" ht="27">
       <c r="A299" s="28" t="s">
         <v>601</v>
       </c>
@@ -13631,7 +13640,7 @@
       </c>
       <c r="I300" s="29"/>
     </row>
-    <row r="301" spans="1:9" ht="105">
+    <row r="301" spans="1:9" ht="121.5">
       <c r="A301" s="28" t="s">
         <v>607</v>
       </c>
@@ -13656,7 +13665,7 @@
       </c>
       <c r="I301" s="29"/>
     </row>
-    <row r="302" spans="1:9" ht="30">
+    <row r="302" spans="1:9" ht="27">
       <c r="A302" s="28" t="s">
         <v>609</v>
       </c>
@@ -13681,7 +13690,7 @@
       </c>
       <c r="I302" s="29"/>
     </row>
-    <row r="303" spans="1:9" ht="30">
+    <row r="303" spans="1:9" ht="40.5">
       <c r="A303" s="28" t="s">
         <v>611</v>
       </c>
@@ -13706,7 +13715,7 @@
       </c>
       <c r="I303" s="29"/>
     </row>
-    <row r="304" spans="1:9" ht="30">
+    <row r="304" spans="1:9" ht="40.5">
       <c r="A304" s="28" t="s">
         <v>613</v>
       </c>
@@ -13731,7 +13740,7 @@
       </c>
       <c r="I304" s="29"/>
     </row>
-    <row r="305" spans="1:9" ht="30">
+    <row r="305" spans="1:9" ht="27">
       <c r="A305" s="28" t="s">
         <v>615</v>
       </c>
@@ -13756,7 +13765,7 @@
       </c>
       <c r="I305" s="29"/>
     </row>
-    <row r="306" spans="1:9" ht="45">
+    <row r="306" spans="1:9" ht="40.5">
       <c r="A306" s="28" t="s">
         <v>617</v>
       </c>
@@ -13764,7 +13773,7 @@
         <v>602</v>
       </c>
       <c r="C306" s="29" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D306" s="28"/>
       <c r="E306" s="28" t="s">
@@ -13781,7 +13790,7 @@
       </c>
       <c r="I306" s="29"/>
     </row>
-    <row r="307" spans="1:9" ht="30">
+    <row r="307" spans="1:9" ht="40.5">
       <c r="A307" s="28" t="s">
         <v>618</v>
       </c>
@@ -13789,7 +13798,7 @@
         <v>602</v>
       </c>
       <c r="C307" s="29" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D307" s="28"/>
       <c r="E307" s="28" t="s">
@@ -13806,7 +13815,7 @@
       </c>
       <c r="I307" s="29"/>
     </row>
-    <row r="308" spans="1:9" ht="30">
+    <row r="308" spans="1:9" ht="27">
       <c r="A308" s="28" t="s">
         <v>619</v>
       </c>
@@ -13831,7 +13840,7 @@
       </c>
       <c r="I308" s="29"/>
     </row>
-    <row r="309" spans="1:9" ht="30">
+    <row r="309" spans="1:9" ht="27">
       <c r="A309" s="28" t="s">
         <v>621</v>
       </c>
@@ -13856,7 +13865,7 @@
       </c>
       <c r="I309" s="29"/>
     </row>
-    <row r="310" spans="1:9" ht="30">
+    <row r="310" spans="1:9" ht="27">
       <c r="A310" s="28" t="s">
         <v>623</v>
       </c>
@@ -13881,7 +13890,7 @@
       </c>
       <c r="I310" s="29"/>
     </row>
-    <row r="311" spans="1:9" ht="30">
+    <row r="311" spans="1:9" ht="27">
       <c r="A311" s="28" t="s">
         <v>625</v>
       </c>
@@ -13889,7 +13898,7 @@
         <v>602</v>
       </c>
       <c r="C311" s="29" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D311" s="28"/>
       <c r="E311" s="28" t="s">
@@ -13906,7 +13915,7 @@
       </c>
       <c r="I311" s="29"/>
     </row>
-    <row r="312" spans="1:9" ht="120">
+    <row r="312" spans="1:9" ht="108">
       <c r="A312" s="28" t="s">
         <v>626</v>
       </c>
@@ -13931,7 +13940,7 @@
       </c>
       <c r="I312" s="29"/>
     </row>
-    <row r="313" spans="1:9" ht="30">
+    <row r="313" spans="1:9" ht="27">
       <c r="A313" s="28" t="s">
         <v>628</v>
       </c>
@@ -13956,7 +13965,7 @@
       </c>
       <c r="I313" s="29"/>
     </row>
-    <row r="314" spans="1:9" ht="30">
+    <row r="314" spans="1:9" ht="27">
       <c r="A314" s="28" t="s">
         <v>630</v>
       </c>
@@ -13981,7 +13990,7 @@
       </c>
       <c r="I314" s="29"/>
     </row>
-    <row r="315" spans="1:9" ht="30">
+    <row r="315" spans="1:9" ht="27">
       <c r="A315" s="28" t="s">
         <v>632</v>
       </c>
@@ -14006,7 +14015,7 @@
       </c>
       <c r="I315" s="29"/>
     </row>
-    <row r="316" spans="1:9" ht="120">
+    <row r="316" spans="1:9" ht="121.5">
       <c r="A316" s="28" t="s">
         <v>634</v>
       </c>
@@ -14031,7 +14040,7 @@
       </c>
       <c r="I316" s="29"/>
     </row>
-    <row r="317" spans="1:9" ht="120">
+    <row r="317" spans="1:9" ht="108">
       <c r="A317" s="28" t="s">
         <v>636</v>
       </c>
@@ -14056,7 +14065,7 @@
       </c>
       <c r="I317" s="29"/>
     </row>
-    <row r="318" spans="1:9" ht="30">
+    <row r="318" spans="1:9" ht="27">
       <c r="A318" s="28" t="s">
         <v>637</v>
       </c>
@@ -14081,7 +14090,7 @@
       </c>
       <c r="I318" s="29"/>
     </row>
-    <row r="319" spans="1:9" ht="30">
+    <row r="319" spans="1:9" ht="27">
       <c r="A319" s="28" t="s">
         <v>639</v>
       </c>
@@ -14106,7 +14115,7 @@
       </c>
       <c r="I319" s="29"/>
     </row>
-    <row r="320" spans="1:9" ht="30">
+    <row r="320" spans="1:9" ht="27">
       <c r="A320" s="28" t="s">
         <v>641</v>
       </c>
@@ -14131,7 +14140,7 @@
       </c>
       <c r="I320" s="29"/>
     </row>
-    <row r="321" spans="1:9" ht="30">
+    <row r="321" spans="1:9" ht="27">
       <c r="A321" s="28" t="s">
         <v>643</v>
       </c>
@@ -14156,7 +14165,7 @@
       </c>
       <c r="I321" s="29"/>
     </row>
-    <row r="322" spans="1:9" ht="30">
+    <row r="322" spans="1:9" ht="27">
       <c r="A322" s="28" t="s">
         <v>645</v>
       </c>
@@ -14181,7 +14190,7 @@
       </c>
       <c r="I322" s="29"/>
     </row>
-    <row r="323" spans="1:9" ht="30">
+    <row r="323" spans="1:9" ht="27">
       <c r="A323" s="28" t="s">
         <v>647</v>
       </c>
@@ -14206,7 +14215,7 @@
       </c>
       <c r="I323" s="29"/>
     </row>
-    <row r="324" spans="1:9" ht="30">
+    <row r="324" spans="1:9" ht="27">
       <c r="A324" s="28" t="s">
         <v>649</v>
       </c>
@@ -14231,7 +14240,7 @@
       </c>
       <c r="I324" s="29"/>
     </row>
-    <row r="325" spans="1:9" ht="30">
+    <row r="325" spans="1:9" ht="27">
       <c r="A325" s="28" t="s">
         <v>651</v>
       </c>
@@ -14256,7 +14265,7 @@
       </c>
       <c r="I325" s="29"/>
     </row>
-    <row r="326" spans="1:9" ht="135">
+    <row r="326" spans="1:9" ht="148.5">
       <c r="A326" s="28" t="s">
         <v>653</v>
       </c>
@@ -14264,7 +14273,7 @@
         <v>602</v>
       </c>
       <c r="C326" s="29" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D326" s="28"/>
       <c r="E326" s="28" t="s">
@@ -14281,7 +14290,7 @@
       </c>
       <c r="I326" s="29"/>
     </row>
-    <row r="327" spans="1:9" ht="30">
+    <row r="327" spans="1:9" ht="27">
       <c r="A327" s="34" t="s">
         <v>654</v>
       </c>
@@ -14306,7 +14315,7 @@
       </c>
       <c r="I327" s="35"/>
     </row>
-    <row r="328" spans="1:9" ht="30">
+    <row r="328" spans="1:9" ht="27">
       <c r="A328" s="28" t="s">
         <v>656</v>
       </c>
@@ -14331,7 +14340,7 @@
       </c>
       <c r="I328" s="29"/>
     </row>
-    <row r="329" spans="1:9" ht="30">
+    <row r="329" spans="1:9" ht="27">
       <c r="A329" s="28" t="s">
         <v>658</v>
       </c>
@@ -14356,7 +14365,7 @@
       </c>
       <c r="I329" s="29"/>
     </row>
-    <row r="330" spans="1:9" ht="30">
+    <row r="330" spans="1:9" ht="27">
       <c r="A330" s="28" t="s">
         <v>660</v>
       </c>
@@ -14381,7 +14390,7 @@
       </c>
       <c r="I330" s="29"/>
     </row>
-    <row r="331" spans="1:9" ht="30">
+    <row r="331" spans="1:9" ht="27">
       <c r="A331" s="28" t="s">
         <v>662</v>
       </c>
@@ -14389,7 +14398,7 @@
         <v>602</v>
       </c>
       <c r="C331" s="29" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D331" s="28"/>
       <c r="E331" s="28" t="s">
@@ -14406,7 +14415,7 @@
       </c>
       <c r="I331" s="29"/>
     </row>
-    <row r="332" spans="1:9" ht="30">
+    <row r="332" spans="1:9" ht="27">
       <c r="A332" s="28" t="s">
         <v>663</v>
       </c>
@@ -14431,7 +14440,7 @@
       </c>
       <c r="I332" s="29"/>
     </row>
-    <row r="333" spans="1:9" ht="30">
+    <row r="333" spans="1:9" ht="27">
       <c r="A333" s="28" t="s">
         <v>665</v>
       </c>
@@ -14456,7 +14465,7 @@
       </c>
       <c r="I333" s="29"/>
     </row>
-    <row r="334" spans="1:9" ht="30">
+    <row r="334" spans="1:9" ht="27">
       <c r="A334" s="28" t="s">
         <v>666</v>
       </c>
@@ -14481,7 +14490,7 @@
       </c>
       <c r="I334" s="29"/>
     </row>
-    <row r="335" spans="1:9" ht="30">
+    <row r="335" spans="1:9" ht="27">
       <c r="A335" s="28" t="s">
         <v>668</v>
       </c>
@@ -14506,7 +14515,7 @@
       </c>
       <c r="I335" s="29"/>
     </row>
-    <row r="336" spans="1:9" ht="30">
+    <row r="336" spans="1:9" ht="27">
       <c r="A336" s="28" t="s">
         <v>669</v>
       </c>
@@ -14514,7 +14523,7 @@
         <v>670</v>
       </c>
       <c r="C336" s="29" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D336" s="28"/>
       <c r="E336" s="28" t="s">
@@ -14531,7 +14540,7 @@
       </c>
       <c r="I336" s="29"/>
     </row>
-    <row r="337" spans="1:9" ht="75">
+    <row r="337" spans="1:9" ht="67.5">
       <c r="A337" s="28" t="s">
         <v>671</v>
       </c>
@@ -14556,7 +14565,7 @@
       </c>
       <c r="I337" s="29"/>
     </row>
-    <row r="338" spans="1:9" ht="30">
+    <row r="338" spans="1:9" ht="27">
       <c r="A338" s="28" t="s">
         <v>673</v>
       </c>
@@ -14581,7 +14590,7 @@
       </c>
       <c r="I338" s="29"/>
     </row>
-    <row r="339" spans="1:9" ht="45">
+    <row r="339" spans="1:9" ht="40.5">
       <c r="A339" s="28" t="s">
         <v>675</v>
       </c>
@@ -14606,7 +14615,7 @@
       </c>
       <c r="I339" s="29"/>
     </row>
-    <row r="340" spans="1:9" ht="30">
+    <row r="340" spans="1:9" ht="27">
       <c r="A340" s="28" t="s">
         <v>677</v>
       </c>
@@ -14631,7 +14640,7 @@
       </c>
       <c r="I340" s="29"/>
     </row>
-    <row r="341" spans="1:9" ht="45">
+    <row r="341" spans="1:9" ht="40.5">
       <c r="A341" s="28" t="s">
         <v>680</v>
       </c>
@@ -14656,7 +14665,7 @@
       </c>
       <c r="I341" s="29"/>
     </row>
-    <row r="342" spans="1:9" ht="30">
+    <row r="342" spans="1:9" ht="27">
       <c r="A342" s="28" t="s">
         <v>682</v>
       </c>
@@ -14681,7 +14690,7 @@
       </c>
       <c r="I342" s="29"/>
     </row>
-    <row r="343" spans="1:9" ht="30">
+    <row r="343" spans="1:9" ht="27">
       <c r="A343" s="28" t="s">
         <v>684</v>
       </c>
@@ -14706,7 +14715,7 @@
       </c>
       <c r="I343" s="29"/>
     </row>
-    <row r="344" spans="1:9" ht="30">
+    <row r="344" spans="1:9" ht="27">
       <c r="A344" s="28" t="s">
         <v>687</v>
       </c>
@@ -14731,7 +14740,7 @@
       </c>
       <c r="I344" s="29"/>
     </row>
-    <row r="345" spans="1:9" ht="30">
+    <row r="345" spans="1:9" ht="27">
       <c r="A345" s="28" t="s">
         <v>689</v>
       </c>
@@ -14756,7 +14765,7 @@
       </c>
       <c r="I345" s="29"/>
     </row>
-    <row r="346" spans="1:9" ht="30">
+    <row r="346" spans="1:9" ht="27">
       <c r="A346" s="28" t="s">
         <v>691</v>
       </c>
@@ -14781,7 +14790,7 @@
       </c>
       <c r="I346" s="29"/>
     </row>
-    <row r="347" spans="1:9" ht="120">
+    <row r="347" spans="1:9" ht="121.5">
       <c r="A347" s="28" t="s">
         <v>694</v>
       </c>
@@ -14806,7 +14815,7 @@
       </c>
       <c r="I347" s="29"/>
     </row>
-    <row r="348" spans="1:9" ht="30">
+    <row r="348" spans="1:9" ht="27">
       <c r="A348" s="28" t="s">
         <v>696</v>
       </c>
@@ -14814,7 +14823,7 @@
         <v>692</v>
       </c>
       <c r="C348" s="29" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D348" s="28"/>
       <c r="E348" s="28" t="s">
@@ -14831,7 +14840,7 @@
       </c>
       <c r="I348" s="29"/>
     </row>
-    <row r="349" spans="1:9" ht="30">
+    <row r="349" spans="1:9" ht="27">
       <c r="A349" s="28" t="s">
         <v>697</v>
       </c>
@@ -14856,7 +14865,7 @@
       </c>
       <c r="I349" s="29"/>
     </row>
-    <row r="350" spans="1:9" ht="30">
+    <row r="350" spans="1:9" ht="27">
       <c r="A350" s="28" t="s">
         <v>699</v>
       </c>
@@ -14883,13 +14892,13 @@
     </row>
     <row r="351" spans="1:9" ht="30">
       <c r="A351" s="33" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B351" s="33" t="s">
         <v>692</v>
       </c>
       <c r="C351" s="29" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D351" s="41"/>
       <c r="E351" s="41" t="s">
@@ -14906,7 +14915,7 @@
       </c>
       <c r="I351" s="42"/>
     </row>
-    <row r="352" spans="1:9" ht="30">
+    <row r="352" spans="1:9" ht="27">
       <c r="A352" s="28" t="s">
         <v>701</v>
       </c>
@@ -14931,7 +14940,7 @@
       </c>
       <c r="I352" s="29"/>
     </row>
-    <row r="353" spans="1:9" ht="300">
+    <row r="353" spans="1:9" ht="297">
       <c r="A353" s="28" t="s">
         <v>704</v>
       </c>
@@ -14956,7 +14965,7 @@
       </c>
       <c r="I353" s="29"/>
     </row>
-    <row r="354" spans="1:9" ht="75">
+    <row r="354" spans="1:9" ht="67.5">
       <c r="A354" s="28" t="s">
         <v>706</v>
       </c>
@@ -14981,7 +14990,7 @@
       </c>
       <c r="I354" s="29"/>
     </row>
-    <row r="355" spans="1:9" ht="30">
+    <row r="355" spans="1:9" ht="27">
       <c r="A355" s="28" t="s">
         <v>708</v>
       </c>
@@ -15006,7 +15015,7 @@
       </c>
       <c r="I355" s="29"/>
     </row>
-    <row r="356" spans="1:9" ht="30">
+    <row r="356" spans="1:9" ht="27">
       <c r="A356" s="28" t="s">
         <v>710</v>
       </c>
@@ -15031,7 +15040,7 @@
       </c>
       <c r="I356" s="29"/>
     </row>
-    <row r="357" spans="1:9" ht="30">
+    <row r="357" spans="1:9" ht="27">
       <c r="A357" s="28" t="s">
         <v>712</v>
       </c>
@@ -15056,7 +15065,7 @@
       </c>
       <c r="I357" s="29"/>
     </row>
-    <row r="358" spans="1:9" ht="30">
+    <row r="358" spans="1:9" ht="27">
       <c r="A358" s="28" t="s">
         <v>714</v>
       </c>
@@ -15081,7 +15090,7 @@
       </c>
       <c r="I358" s="29"/>
     </row>
-    <row r="359" spans="1:9" ht="30">
+    <row r="359" spans="1:9" ht="27">
       <c r="A359" s="28" t="s">
         <v>716</v>
       </c>
@@ -15106,7 +15115,7 @@
       </c>
       <c r="I359" s="29"/>
     </row>
-    <row r="360" spans="1:9" ht="30">
+    <row r="360" spans="1:9" ht="27">
       <c r="A360" s="28" t="s">
         <v>718</v>
       </c>
@@ -15114,7 +15123,7 @@
         <v>719</v>
       </c>
       <c r="C360" s="29" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D360" s="28"/>
       <c r="E360" s="28" t="s">
@@ -15131,7 +15140,7 @@
       </c>
       <c r="I360" s="29"/>
     </row>
-    <row r="361" spans="1:9" ht="75">
+    <row r="361" spans="1:9" ht="67.5">
       <c r="A361" s="28" t="s">
         <v>720</v>
       </c>
@@ -15156,7 +15165,7 @@
       </c>
       <c r="I361" s="29"/>
     </row>
-    <row r="362" spans="1:9" ht="30">
+    <row r="362" spans="1:9" ht="27">
       <c r="A362" s="28" t="s">
         <v>722</v>
       </c>
@@ -15181,7 +15190,7 @@
       </c>
       <c r="I362" s="29"/>
     </row>
-    <row r="363" spans="1:9" ht="30">
+    <row r="363" spans="1:9" ht="40.5">
       <c r="A363" s="28" t="s">
         <v>724</v>
       </c>
@@ -15206,7 +15215,7 @@
       </c>
       <c r="I363" s="29"/>
     </row>
-    <row r="364" spans="1:9" ht="45">
+    <row r="364" spans="1:9" ht="54">
       <c r="A364" s="28" t="s">
         <v>726</v>
       </c>
@@ -15214,7 +15223,7 @@
         <v>719</v>
       </c>
       <c r="C364" s="29" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D364" s="28"/>
       <c r="E364" s="28" t="s">
@@ -15231,7 +15240,7 @@
       </c>
       <c r="I364" s="29"/>
     </row>
-    <row r="365" spans="1:9" ht="30">
+    <row r="365" spans="1:9" ht="27">
       <c r="A365" s="28" t="s">
         <v>727</v>
       </c>
@@ -15256,7 +15265,7 @@
       </c>
       <c r="I365" s="29"/>
     </row>
-    <row r="366" spans="1:9" ht="30">
+    <row r="366" spans="1:9" ht="40.5">
       <c r="A366" s="28" t="s">
         <v>730</v>
       </c>
@@ -15281,7 +15290,7 @@
       </c>
       <c r="I366" s="29"/>
     </row>
-    <row r="367" spans="1:9" ht="30">
+    <row r="367" spans="1:9" ht="27">
       <c r="A367" s="28" t="s">
         <v>732</v>
       </c>
@@ -15306,7 +15315,7 @@
       </c>
       <c r="I367" s="29"/>
     </row>
-    <row r="368" spans="1:9" ht="30">
+    <row r="368" spans="1:9" ht="27">
       <c r="A368" s="28" t="s">
         <v>734</v>
       </c>
@@ -15331,7 +15340,7 @@
       </c>
       <c r="I368" s="29"/>
     </row>
-    <row r="369" spans="1:9" ht="30">
+    <row r="369" spans="1:9" ht="27">
       <c r="A369" s="28" t="s">
         <v>737</v>
       </c>
@@ -15356,7 +15365,7 @@
       </c>
       <c r="I369" s="29"/>
     </row>
-    <row r="370" spans="1:9" ht="30">
+    <row r="370" spans="1:9" ht="27">
       <c r="A370" s="28" t="s">
         <v>739</v>
       </c>
@@ -15381,7 +15390,7 @@
       </c>
       <c r="I370" s="29"/>
     </row>
-    <row r="371" spans="1:9" ht="180">
+    <row r="371" spans="1:9" ht="162">
       <c r="A371" s="28" t="s">
         <v>742</v>
       </c>
@@ -15406,7 +15415,7 @@
       </c>
       <c r="I371" s="29"/>
     </row>
-    <row r="372" spans="1:9" ht="30">
+    <row r="372" spans="1:9" ht="27">
       <c r="A372" s="28" t="s">
         <v>744</v>
       </c>
@@ -15431,7 +15440,7 @@
       </c>
       <c r="I372" s="29"/>
     </row>
-    <row r="373" spans="1:9" ht="30">
+    <row r="373" spans="1:9" ht="27">
       <c r="A373" s="28" t="s">
         <v>746</v>
       </c>
@@ -15456,7 +15465,7 @@
       </c>
       <c r="I373" s="29"/>
     </row>
-    <row r="374" spans="1:9" ht="30">
+    <row r="374" spans="1:9" ht="27">
       <c r="A374" s="28" t="s">
         <v>748</v>
       </c>
@@ -15481,7 +15490,7 @@
       </c>
       <c r="I374" s="29"/>
     </row>
-    <row r="375" spans="1:9" ht="30">
+    <row r="375" spans="1:9" ht="27">
       <c r="A375" s="28" t="s">
         <v>750</v>
       </c>
@@ -15506,7 +15515,7 @@
       </c>
       <c r="I375" s="29"/>
     </row>
-    <row r="376" spans="1:9" ht="30">
+    <row r="376" spans="1:9" ht="27">
       <c r="A376" s="28" t="s">
         <v>752</v>
       </c>
@@ -15531,7 +15540,7 @@
       </c>
       <c r="I376" s="29"/>
     </row>
-    <row r="377" spans="1:9" ht="45">
+    <row r="377" spans="1:9" ht="40.5">
       <c r="A377" s="28" t="s">
         <v>754</v>
       </c>
@@ -15556,7 +15565,7 @@
       </c>
       <c r="I377" s="29"/>
     </row>
-    <row r="378" spans="1:9" ht="30">
+    <row r="378" spans="1:9" ht="27">
       <c r="A378" s="28" t="s">
         <v>756</v>
       </c>
@@ -15581,7 +15590,7 @@
       </c>
       <c r="I378" s="29"/>
     </row>
-    <row r="379" spans="1:9" ht="30">
+    <row r="379" spans="1:9" ht="27">
       <c r="A379" s="28" t="s">
         <v>758</v>
       </c>
@@ -15606,7 +15615,7 @@
       </c>
       <c r="I379" s="29"/>
     </row>
-    <row r="380" spans="1:9" ht="30">
+    <row r="380" spans="1:9" ht="27">
       <c r="A380" s="28" t="s">
         <v>760</v>
       </c>
@@ -15633,13 +15642,13 @@
     </row>
     <row r="381" spans="1:9" ht="30">
       <c r="A381" s="33" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B381" s="33" t="s">
         <v>740</v>
       </c>
       <c r="C381" s="29" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D381" s="41"/>
       <c r="E381" s="41" t="s">
@@ -15656,7 +15665,7 @@
       </c>
       <c r="I381" s="42"/>
     </row>
-    <row r="382" spans="1:9" ht="30">
+    <row r="382" spans="1:9" ht="27">
       <c r="A382" s="28" t="s">
         <v>762</v>
       </c>
@@ -15681,7 +15690,7 @@
       </c>
       <c r="I382" s="29"/>
     </row>
-    <row r="383" spans="1:9" ht="60">
+    <row r="383" spans="1:9" ht="67.5">
       <c r="A383" s="28" t="s">
         <v>765</v>
       </c>
@@ -15706,7 +15715,7 @@
       </c>
       <c r="I383" s="29"/>
     </row>
-    <row r="384" spans="1:9" ht="30">
+    <row r="384" spans="1:9" ht="27">
       <c r="A384" s="28" t="s">
         <v>767</v>
       </c>
@@ -15731,7 +15740,7 @@
       </c>
       <c r="I384" s="29"/>
     </row>
-    <row r="385" spans="1:9" ht="75">
+    <row r="385" spans="1:9" ht="67.5">
       <c r="A385" s="28" t="s">
         <v>770</v>
       </c>
@@ -15756,7 +15765,7 @@
       </c>
       <c r="I385" s="29"/>
     </row>
-    <row r="386" spans="1:9" ht="30">
+    <row r="386" spans="1:9" ht="27">
       <c r="A386" s="28" t="s">
         <v>772</v>
       </c>
@@ -15781,7 +15790,7 @@
       </c>
       <c r="I386" s="29"/>
     </row>
-    <row r="387" spans="1:9" ht="30">
+    <row r="387" spans="1:9" ht="40.5">
       <c r="A387" s="28" t="s">
         <v>774</v>
       </c>
@@ -15806,7 +15815,7 @@
       </c>
       <c r="I387" s="29"/>
     </row>
-    <row r="388" spans="1:9" ht="30">
+    <row r="388" spans="1:9" ht="27">
       <c r="A388" s="28" t="s">
         <v>776</v>
       </c>
@@ -15831,7 +15840,7 @@
       </c>
       <c r="I388" s="29"/>
     </row>
-    <row r="389" spans="1:9" ht="30">
+    <row r="389" spans="1:9" ht="40.5">
       <c r="A389" s="28" t="s">
         <v>778</v>
       </c>
@@ -15856,7 +15865,7 @@
       </c>
       <c r="I389" s="29"/>
     </row>
-    <row r="390" spans="1:9" ht="30">
+    <row r="390" spans="1:9" ht="40.5">
       <c r="A390" s="28" t="s">
         <v>780</v>
       </c>
@@ -15881,7 +15890,7 @@
       </c>
       <c r="I390" s="29"/>
     </row>
-    <row r="391" spans="1:9" ht="30">
+    <row r="391" spans="1:9" ht="27">
       <c r="A391" s="28" t="s">
         <v>782</v>
       </c>
@@ -15906,7 +15915,7 @@
       </c>
       <c r="I391" s="29"/>
     </row>
-    <row r="392" spans="1:9" ht="45">
+    <row r="392" spans="1:9" ht="40.5">
       <c r="A392" s="28" t="s">
         <v>785</v>
       </c>
@@ -15931,7 +15940,7 @@
       </c>
       <c r="I392" s="29"/>
     </row>
-    <row r="393" spans="1:9" ht="30">
+    <row r="393" spans="1:9" ht="27">
       <c r="A393" s="28" t="s">
         <v>787</v>
       </c>
@@ -15956,7 +15965,7 @@
       </c>
       <c r="I393" s="29"/>
     </row>
-    <row r="394" spans="1:9" ht="30">
+    <row r="394" spans="1:9" ht="27">
       <c r="A394" s="28" t="s">
         <v>789</v>
       </c>
@@ -15981,7 +15990,7 @@
       </c>
       <c r="I394" s="29"/>
     </row>
-    <row r="395" spans="1:9" ht="30">
+    <row r="395" spans="1:9" ht="27">
       <c r="A395" s="28" t="s">
         <v>792</v>
       </c>
@@ -16006,7 +16015,7 @@
       </c>
       <c r="I395" s="29"/>
     </row>
-    <row r="396" spans="1:9" ht="30">
+    <row r="396" spans="1:9" ht="27">
       <c r="A396" s="28" t="s">
         <v>794</v>
       </c>
@@ -16031,7 +16040,7 @@
       </c>
       <c r="I396" s="29"/>
     </row>
-    <row r="397" spans="1:9" ht="120">
+    <row r="397" spans="1:9" ht="108">
       <c r="A397" s="28" t="s">
         <v>797</v>
       </c>
@@ -16056,7 +16065,7 @@
       </c>
       <c r="I397" s="29"/>
     </row>
-    <row r="398" spans="1:9" ht="30">
+    <row r="398" spans="1:9" ht="27">
       <c r="A398" s="28" t="s">
         <v>799</v>
       </c>
@@ -16081,7 +16090,7 @@
       </c>
       <c r="I398" s="29"/>
     </row>
-    <row r="399" spans="1:9" ht="30">
+    <row r="399" spans="1:9" ht="27">
       <c r="A399" s="28" t="s">
         <v>801</v>
       </c>
@@ -16106,7 +16115,7 @@
       </c>
       <c r="I399" s="29"/>
     </row>
-    <row r="400" spans="1:9" ht="30">
+    <row r="400" spans="1:9" ht="40.5">
       <c r="A400" s="28" t="s">
         <v>804</v>
       </c>
@@ -16131,7 +16140,7 @@
       </c>
       <c r="I400" s="29"/>
     </row>
-    <row r="401" spans="1:9" ht="45">
+    <row r="401" spans="1:9" ht="40.5">
       <c r="A401" s="28" t="s">
         <v>806</v>
       </c>
@@ -16156,7 +16165,7 @@
       </c>
       <c r="I401" s="29"/>
     </row>
-    <row r="402" spans="1:9" ht="30">
+    <row r="402" spans="1:9" ht="27">
       <c r="A402" s="28" t="s">
         <v>808</v>
       </c>
@@ -16181,7 +16190,7 @@
       </c>
       <c r="I402" s="29"/>
     </row>
-    <row r="403" spans="1:9" ht="30">
+    <row r="403" spans="1:9" ht="27">
       <c r="A403" s="28" t="s">
         <v>810</v>
       </c>
@@ -16206,7 +16215,7 @@
       </c>
       <c r="I403" s="29"/>
     </row>
-    <row r="404" spans="1:9" ht="75">
+    <row r="404" spans="1:9" ht="81">
       <c r="A404" s="28" t="s">
         <v>813</v>
       </c>
@@ -16231,7 +16240,7 @@
       </c>
       <c r="I404" s="29"/>
     </row>
-    <row r="405" spans="1:9" ht="30">
+    <row r="405" spans="1:9" ht="27">
       <c r="A405" s="28" t="s">
         <v>815</v>
       </c>
@@ -16256,7 +16265,7 @@
       </c>
       <c r="I405" s="29"/>
     </row>
-    <row r="406" spans="1:9" ht="30">
+    <row r="406" spans="1:9" ht="40.5">
       <c r="A406" s="28" t="s">
         <v>817</v>
       </c>
@@ -16281,7 +16290,7 @@
       </c>
       <c r="I406" s="29"/>
     </row>
-    <row r="407" spans="1:9" ht="30">
+    <row r="407" spans="1:9" ht="40.5">
       <c r="A407" s="28" t="s">
         <v>819</v>
       </c>
@@ -16306,7 +16315,7 @@
       </c>
       <c r="I407" s="29"/>
     </row>
-    <row r="408" spans="1:9" ht="30">
+    <row r="408" spans="1:9" ht="27">
       <c r="A408" s="28" t="s">
         <v>821</v>
       </c>
@@ -16331,7 +16340,7 @@
       </c>
       <c r="I408" s="29"/>
     </row>
-    <row r="409" spans="1:9" ht="30">
+    <row r="409" spans="1:9" ht="40.5">
       <c r="A409" s="28" t="s">
         <v>824</v>
       </c>
@@ -16356,7 +16365,7 @@
       </c>
       <c r="I409" s="29"/>
     </row>
-    <row r="410" spans="1:9" ht="30">
+    <row r="410" spans="1:9" ht="27">
       <c r="A410" s="28" t="s">
         <v>826</v>
       </c>
@@ -16381,7 +16390,7 @@
       </c>
       <c r="I410" s="29"/>
     </row>
-    <row r="411" spans="1:9" ht="30">
+    <row r="411" spans="1:9" ht="27">
       <c r="A411" s="28" t="s">
         <v>828</v>
       </c>
@@ -16406,7 +16415,7 @@
       </c>
       <c r="I411" s="29"/>
     </row>
-    <row r="412" spans="1:9" ht="30">
+    <row r="412" spans="1:9" ht="27">
       <c r="A412" s="28" t="s">
         <v>831</v>
       </c>
@@ -16431,7 +16440,7 @@
       </c>
       <c r="I412" s="29"/>
     </row>
-    <row r="413" spans="1:9" ht="30">
+    <row r="413" spans="1:9" ht="27">
       <c r="A413" s="28" t="s">
         <v>833</v>
       </c>
@@ -16439,7 +16448,7 @@
         <v>834</v>
       </c>
       <c r="C413" s="29" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D413" s="28"/>
       <c r="E413" s="28" t="s">
@@ -16456,7 +16465,7 @@
       </c>
       <c r="I413" s="29"/>
     </row>
-    <row r="414" spans="1:9" ht="210">
+    <row r="414" spans="1:9" ht="216">
       <c r="A414" s="28" t="s">
         <v>835</v>
       </c>
@@ -16481,7 +16490,7 @@
       </c>
       <c r="I414" s="29"/>
     </row>
-    <row r="415" spans="1:9" ht="30">
+    <row r="415" spans="1:9" ht="27">
       <c r="A415" s="28" t="s">
         <v>837</v>
       </c>
@@ -16506,7 +16515,7 @@
       </c>
       <c r="I415" s="29"/>
     </row>
-    <row r="416" spans="1:9" ht="30">
+    <row r="416" spans="1:9" ht="27">
       <c r="A416" s="28" t="s">
         <v>839</v>
       </c>
@@ -16531,7 +16540,7 @@
       </c>
       <c r="I416" s="29"/>
     </row>
-    <row r="417" spans="1:9" ht="30">
+    <row r="417" spans="1:9" ht="27">
       <c r="A417" s="28" t="s">
         <v>841</v>
       </c>
@@ -16556,7 +16565,7 @@
       </c>
       <c r="I417" s="29"/>
     </row>
-    <row r="418" spans="1:9" ht="30">
+    <row r="418" spans="1:9" ht="27">
       <c r="A418" s="28" t="s">
         <v>844</v>
       </c>
@@ -16581,7 +16590,7 @@
       </c>
       <c r="I418" s="29"/>
     </row>
-    <row r="419" spans="1:9" ht="30">
+    <row r="419" spans="1:9" ht="27">
       <c r="A419" s="28" t="s">
         <v>846</v>
       </c>
@@ -16606,7 +16615,7 @@
       </c>
       <c r="I419" s="29"/>
     </row>
-    <row r="420" spans="1:9" ht="30">
+    <row r="420" spans="1:9" ht="27">
       <c r="A420" s="28" t="s">
         <v>848</v>
       </c>
@@ -16631,7 +16640,7 @@
       </c>
       <c r="I420" s="29"/>
     </row>
-    <row r="421" spans="1:9" ht="30">
+    <row r="421" spans="1:9" ht="40.5">
       <c r="A421" s="32" t="s">
         <v>850</v>
       </c>
@@ -16656,7 +16665,7 @@
       </c>
       <c r="I421" s="29"/>
     </row>
-    <row r="422" spans="1:9" ht="30">
+    <row r="422" spans="1:9" ht="27">
       <c r="A422" s="28" t="s">
         <v>854</v>
       </c>
@@ -16681,7 +16690,7 @@
       </c>
       <c r="I422" s="29"/>
     </row>
-    <row r="423" spans="1:9" ht="30">
+    <row r="423" spans="1:9" ht="27">
       <c r="A423" s="28" t="s">
         <v>856</v>
       </c>
@@ -16706,7 +16715,7 @@
       </c>
       <c r="I423" s="29"/>
     </row>
-    <row r="424" spans="1:9" ht="30">
+    <row r="424" spans="1:9" ht="27">
       <c r="A424" s="28" t="s">
         <v>858</v>
       </c>
@@ -16731,7 +16740,7 @@
       </c>
       <c r="I424" s="29"/>
     </row>
-    <row r="425" spans="1:9" ht="30">
+    <row r="425" spans="1:9" ht="27">
       <c r="A425" s="28" t="s">
         <v>860</v>
       </c>
@@ -16756,7 +16765,7 @@
       </c>
       <c r="I425" s="29"/>
     </row>
-    <row r="426" spans="1:9" ht="60">
+    <row r="426" spans="1:9" ht="67.5">
       <c r="A426" s="28" t="s">
         <v>843</v>
       </c>
@@ -16781,7 +16790,7 @@
       </c>
       <c r="I426" s="29"/>
     </row>
-    <row r="427" spans="1:9" ht="30">
+    <row r="427" spans="1:9" ht="27">
       <c r="A427" s="28" t="s">
         <v>864</v>
       </c>
@@ -16806,7 +16815,7 @@
       </c>
       <c r="I427" s="29"/>
     </row>
-    <row r="428" spans="1:9" ht="120">
+    <row r="428" spans="1:9" ht="108">
       <c r="A428" s="28" t="s">
         <v>867</v>
       </c>
@@ -16831,7 +16840,7 @@
       </c>
       <c r="I428" s="29"/>
     </row>
-    <row r="429" spans="1:9" ht="30">
+    <row r="429" spans="1:9" ht="27">
       <c r="A429" s="28" t="s">
         <v>869</v>
       </c>
@@ -16856,7 +16865,7 @@
       </c>
       <c r="I429" s="29"/>
     </row>
-    <row r="430" spans="1:9" ht="30">
+    <row r="430" spans="1:9" ht="27">
       <c r="A430" s="28" t="s">
         <v>871</v>
       </c>
@@ -16881,7 +16890,7 @@
       </c>
       <c r="I430" s="29"/>
     </row>
-    <row r="431" spans="1:9" ht="30">
+    <row r="431" spans="1:9" ht="27">
       <c r="A431" s="28" t="s">
         <v>873</v>
       </c>
@@ -16906,7 +16915,7 @@
       </c>
       <c r="I431" s="29"/>
     </row>
-    <row r="432" spans="1:9" ht="30">
+    <row r="432" spans="1:9" ht="27">
       <c r="A432" s="28" t="s">
         <v>875</v>
       </c>
@@ -16931,7 +16940,7 @@
       </c>
       <c r="I432" s="29"/>
     </row>
-    <row r="433" spans="1:9" ht="30">
+    <row r="433" spans="1:9" ht="27">
       <c r="A433" s="28" t="s">
         <v>877</v>
       </c>
@@ -16956,7 +16965,7 @@
       </c>
       <c r="I433" s="29"/>
     </row>
-    <row r="434" spans="1:9" ht="75">
+    <row r="434" spans="1:9" ht="67.5">
       <c r="A434" s="28" t="s">
         <v>880</v>
       </c>
@@ -16981,7 +16990,7 @@
       </c>
       <c r="I434" s="29"/>
     </row>
-    <row r="435" spans="1:9" ht="30">
+    <row r="435" spans="1:9" ht="27">
       <c r="A435" s="28" t="s">
         <v>882</v>
       </c>
@@ -17006,7 +17015,7 @@
       </c>
       <c r="I435" s="29"/>
     </row>
-    <row r="436" spans="1:9" ht="30">
+    <row r="436" spans="1:9" ht="40.5">
       <c r="A436" s="28" t="s">
         <v>884</v>
       </c>
@@ -17031,7 +17040,7 @@
       </c>
       <c r="I436" s="29"/>
     </row>
-    <row r="437" spans="1:9" ht="30">
+    <row r="437" spans="1:9" ht="40.5">
       <c r="A437" s="34" t="s">
         <v>886</v>
       </c>
@@ -17039,7 +17048,7 @@
         <v>878</v>
       </c>
       <c r="C437" s="35" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D437" s="34"/>
       <c r="E437" s="34" t="s">
@@ -17052,11 +17061,11 @@
         <v>15</v>
       </c>
       <c r="H437" s="34" t="s">
-        <v>20</v>
+        <v>1137</v>
       </c>
       <c r="I437" s="35"/>
     </row>
-    <row r="438" spans="1:9" ht="30">
+    <row r="438" spans="1:9" ht="40.5">
       <c r="A438" s="28" t="s">
         <v>887</v>
       </c>
@@ -17064,7 +17073,7 @@
         <v>878</v>
       </c>
       <c r="C438" s="29" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D438" s="28"/>
       <c r="E438" s="28" t="s">
@@ -17081,7 +17090,7 @@
       </c>
       <c r="I438" s="29"/>
     </row>
-    <row r="439" spans="1:9" ht="30">
+    <row r="439" spans="1:9" ht="27">
       <c r="A439" s="28" t="s">
         <v>888</v>
       </c>
@@ -17106,7 +17115,7 @@
       </c>
       <c r="I439" s="29"/>
     </row>
-    <row r="440" spans="1:9" ht="30">
+    <row r="440" spans="1:9" ht="40.5">
       <c r="A440" s="28" t="s">
         <v>891</v>
       </c>
@@ -17131,7 +17140,7 @@
       </c>
       <c r="I440" s="29"/>
     </row>
-    <row r="441" spans="1:9" ht="30">
+    <row r="441" spans="1:9" ht="27">
       <c r="A441" s="28" t="s">
         <v>893</v>
       </c>
@@ -17156,7 +17165,7 @@
       </c>
       <c r="I441" s="29"/>
     </row>
-    <row r="442" spans="1:9" ht="30">
+    <row r="442" spans="1:9" ht="27">
       <c r="A442" s="28" t="s">
         <v>895</v>
       </c>
@@ -17181,7 +17190,7 @@
       </c>
       <c r="I442" s="29"/>
     </row>
-    <row r="443" spans="1:9" ht="30">
+    <row r="443" spans="1:9" ht="27">
       <c r="A443" s="28" t="s">
         <v>898</v>
       </c>
@@ -17206,7 +17215,7 @@
       </c>
       <c r="I443" s="29"/>
     </row>
-    <row r="444" spans="1:9" ht="30">
+    <row r="444" spans="1:9" ht="27">
       <c r="A444" s="28" t="s">
         <v>900</v>
       </c>
@@ -17231,7 +17240,7 @@
       </c>
       <c r="I444" s="29"/>
     </row>
-    <row r="445" spans="1:9" ht="120">
+    <row r="445" spans="1:9" ht="108">
       <c r="A445" s="28" t="s">
         <v>903</v>
       </c>
@@ -17256,7 +17265,7 @@
       </c>
       <c r="I445" s="29"/>
     </row>
-    <row r="446" spans="1:9" ht="30">
+    <row r="446" spans="1:9" ht="27">
       <c r="A446" s="28" t="s">
         <v>905</v>
       </c>
@@ -17281,7 +17290,7 @@
       </c>
       <c r="I446" s="29"/>
     </row>
-    <row r="447" spans="1:9" ht="30">
+    <row r="447" spans="1:9" ht="27">
       <c r="A447" s="28" t="s">
         <v>907</v>
       </c>
@@ -17289,7 +17298,7 @@
         <v>901</v>
       </c>
       <c r="C447" s="29" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D447" s="28"/>
       <c r="E447" s="28" t="s">
@@ -17306,7 +17315,7 @@
       </c>
       <c r="I447" s="29"/>
     </row>
-    <row r="448" spans="1:9" ht="30">
+    <row r="448" spans="1:9" ht="27">
       <c r="A448" s="28" t="s">
         <v>909</v>
       </c>
@@ -17331,7 +17340,7 @@
       </c>
       <c r="I448" s="29"/>
     </row>
-    <row r="449" spans="1:9" ht="30">
+    <row r="449" spans="1:9" ht="27">
       <c r="A449" s="28" t="s">
         <v>911</v>
       </c>
@@ -17356,7 +17365,7 @@
       </c>
       <c r="I449" s="29"/>
     </row>
-    <row r="450" spans="1:9" ht="60">
+    <row r="450" spans="1:9" ht="67.5">
       <c r="A450" s="28" t="s">
         <v>908</v>
       </c>
@@ -17381,7 +17390,7 @@
       </c>
       <c r="I450" s="29"/>
     </row>
-    <row r="451" spans="1:9" ht="30">
+    <row r="451" spans="1:9" ht="40.5">
       <c r="A451" s="28" t="s">
         <v>915</v>
       </c>
@@ -17389,7 +17398,7 @@
         <v>912</v>
       </c>
       <c r="C451" s="29" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D451" s="28"/>
       <c r="E451" s="28" t="s">
@@ -17406,7 +17415,7 @@
       </c>
       <c r="I451" s="29"/>
     </row>
-    <row r="452" spans="1:9" ht="30">
+    <row r="452" spans="1:9" ht="27">
       <c r="A452" s="28" t="s">
         <v>916</v>
       </c>
@@ -17431,7 +17440,7 @@
       </c>
       <c r="I452" s="29"/>
     </row>
-    <row r="453" spans="1:9" ht="75">
+    <row r="453" spans="1:9" ht="67.5">
       <c r="A453" s="28" t="s">
         <v>919</v>
       </c>
@@ -17456,7 +17465,7 @@
       </c>
       <c r="I453" s="29"/>
     </row>
-    <row r="454" spans="1:9" ht="30">
+    <row r="454" spans="1:9" ht="27">
       <c r="A454" s="28" t="s">
         <v>921</v>
       </c>
@@ -17481,7 +17490,7 @@
       </c>
       <c r="I454" s="29"/>
     </row>
-    <row r="455" spans="1:9" ht="30">
+    <row r="455" spans="1:9" ht="40.5">
       <c r="A455" s="28" t="s">
         <v>923</v>
       </c>
@@ -17506,7 +17515,7 @@
       </c>
       <c r="I455" s="29"/>
     </row>
-    <row r="456" spans="1:9" ht="30">
+    <row r="456" spans="1:9" ht="27">
       <c r="A456" s="28" t="s">
         <v>925</v>
       </c>
@@ -17531,7 +17540,7 @@
       </c>
       <c r="I456" s="29"/>
     </row>
-    <row r="457" spans="1:9" ht="45">
+    <row r="457" spans="1:9" ht="54">
       <c r="A457" s="28" t="s">
         <v>927</v>
       </c>
@@ -17556,7 +17565,7 @@
       </c>
       <c r="I457" s="29"/>
     </row>
-    <row r="458" spans="1:9" ht="30">
+    <row r="458" spans="1:9" ht="27">
       <c r="A458" s="28" t="s">
         <v>929</v>
       </c>
@@ -17581,7 +17590,7 @@
       </c>
       <c r="I458" s="29"/>
     </row>
-    <row r="459" spans="1:9" ht="30">
+    <row r="459" spans="1:9" ht="27">
       <c r="A459" s="28" t="s">
         <v>931</v>
       </c>
@@ -17606,7 +17615,7 @@
       </c>
       <c r="I459" s="29"/>
     </row>
-    <row r="460" spans="1:9" ht="45">
+    <row r="460" spans="1:9" ht="40.5">
       <c r="A460" s="28" t="s">
         <v>934</v>
       </c>
@@ -17631,7 +17640,7 @@
       </c>
       <c r="I460" s="29"/>
     </row>
-    <row r="461" spans="1:9" ht="30">
+    <row r="461" spans="1:9" ht="27">
       <c r="A461" s="28" t="s">
         <v>936</v>
       </c>
@@ -17656,7 +17665,7 @@
       </c>
       <c r="I461" s="29"/>
     </row>
-    <row r="462" spans="1:9" ht="30">
+    <row r="462" spans="1:9" ht="27">
       <c r="A462" s="28" t="s">
         <v>938</v>
       </c>
@@ -17681,7 +17690,7 @@
       </c>
       <c r="I462" s="29"/>
     </row>
-    <row r="463" spans="1:9" ht="30">
+    <row r="463" spans="1:9" ht="27">
       <c r="A463" s="28" t="s">
         <v>941</v>
       </c>
@@ -17706,7 +17715,7 @@
       </c>
       <c r="I463" s="29"/>
     </row>
-    <row r="464" spans="1:9" ht="30">
+    <row r="464" spans="1:9" ht="27">
       <c r="A464" s="28" t="s">
         <v>943</v>
       </c>
@@ -17731,7 +17740,7 @@
       </c>
       <c r="I464" s="29"/>
     </row>
-    <row r="465" spans="1:9" ht="225">
+    <row r="465" spans="1:9" ht="202.5">
       <c r="A465" s="28" t="s">
         <v>946</v>
       </c>
@@ -17756,7 +17765,7 @@
       </c>
       <c r="I465" s="29"/>
     </row>
-    <row r="466" spans="1:9" ht="30">
+    <row r="466" spans="1:9" ht="27">
       <c r="A466" s="28" t="s">
         <v>948</v>
       </c>
@@ -17781,7 +17790,7 @@
       </c>
       <c r="I466" s="29"/>
     </row>
-    <row r="467" spans="1:9" ht="30">
+    <row r="467" spans="1:9" ht="27">
       <c r="A467" s="28" t="s">
         <v>950</v>
       </c>
@@ -17806,7 +17815,7 @@
       </c>
       <c r="I467" s="29"/>
     </row>
-    <row r="468" spans="1:9" ht="30">
+    <row r="468" spans="1:9" ht="27">
       <c r="A468" s="28" t="s">
         <v>952</v>
       </c>
@@ -17831,7 +17840,7 @@
       </c>
       <c r="I468" s="29"/>
     </row>
-    <row r="469" spans="1:9" ht="30">
+    <row r="469" spans="1:9" ht="27">
       <c r="A469" s="28" t="s">
         <v>954</v>
       </c>
@@ -17856,7 +17865,7 @@
       </c>
       <c r="I469" s="29"/>
     </row>
-    <row r="470" spans="1:9" ht="30">
+    <row r="470" spans="1:9" ht="27">
       <c r="A470" s="28" t="s">
         <v>956</v>
       </c>
@@ -17881,7 +17890,7 @@
       </c>
       <c r="I470" s="29"/>
     </row>
-    <row r="471" spans="1:9" ht="30">
+    <row r="471" spans="1:9" ht="27">
       <c r="A471" s="28" t="s">
         <v>958</v>
       </c>
@@ -17906,7 +17915,7 @@
       </c>
       <c r="I471" s="29"/>
     </row>
-    <row r="472" spans="1:9" ht="30">
+    <row r="472" spans="1:9" ht="27">
       <c r="A472" s="28" t="s">
         <v>961</v>
       </c>
@@ -17931,7 +17940,7 @@
       </c>
       <c r="I472" s="29"/>
     </row>
-    <row r="473" spans="1:9" ht="30">
+    <row r="473" spans="1:9" ht="27">
       <c r="A473" s="28" t="s">
         <v>963</v>
       </c>
@@ -17956,7 +17965,7 @@
       </c>
       <c r="I473" s="29"/>
     </row>
-    <row r="474" spans="1:9" ht="30">
+    <row r="474" spans="1:9" ht="27">
       <c r="A474" s="28" t="s">
         <v>965</v>
       </c>
@@ -17981,7 +17990,7 @@
       </c>
       <c r="I474" s="29"/>
     </row>
-    <row r="475" spans="1:9" ht="30">
+    <row r="475" spans="1:9" ht="27">
       <c r="A475" s="28" t="s">
         <v>967</v>
       </c>
@@ -18006,7 +18015,7 @@
       </c>
       <c r="I475" s="29"/>
     </row>
-    <row r="476" spans="1:9" ht="30">
+    <row r="476" spans="1:9" ht="27">
       <c r="A476" s="28" t="s">
         <v>969</v>
       </c>
@@ -18031,7 +18040,7 @@
       </c>
       <c r="I476" s="29"/>
     </row>
-    <row r="477" spans="1:9" ht="30">
+    <row r="477" spans="1:9" ht="27">
       <c r="A477" s="28" t="s">
         <v>971</v>
       </c>
@@ -18056,7 +18065,7 @@
       </c>
       <c r="I477" s="29"/>
     </row>
-    <row r="478" spans="1:9" ht="30">
+    <row r="478" spans="1:9" ht="27">
       <c r="A478" s="28" t="s">
         <v>973</v>
       </c>
@@ -18081,7 +18090,7 @@
       </c>
       <c r="I478" s="29"/>
     </row>
-    <row r="479" spans="1:9" ht="30">
+    <row r="479" spans="1:9" ht="27">
       <c r="A479" s="28" t="s">
         <v>975</v>
       </c>
@@ -18106,7 +18115,7 @@
       </c>
       <c r="I479" s="29"/>
     </row>
-    <row r="480" spans="1:9" ht="60">
+    <row r="480" spans="1:9" ht="54">
       <c r="A480" s="28" t="s">
         <v>960</v>
       </c>
@@ -18131,7 +18140,7 @@
       </c>
       <c r="I480" s="29"/>
     </row>
-    <row r="481" spans="1:9" ht="30">
+    <row r="481" spans="1:9" ht="40.5">
       <c r="A481" s="28" t="s">
         <v>979</v>
       </c>
@@ -18139,7 +18148,7 @@
         <v>976</v>
       </c>
       <c r="C481" s="29" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D481" s="28"/>
       <c r="E481" s="28" t="s">
@@ -18156,7 +18165,7 @@
       </c>
       <c r="I481" s="29"/>
     </row>
-    <row r="482" spans="1:9" ht="30">
+    <row r="482" spans="1:9" ht="27">
       <c r="A482" s="28" t="s">
         <v>980</v>
       </c>
@@ -18164,7 +18173,7 @@
         <v>981</v>
       </c>
       <c r="C482" s="29" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D482" s="28"/>
       <c r="E482" s="28" t="s">
@@ -18181,7 +18190,7 @@
       </c>
       <c r="I482" s="29"/>
     </row>
-    <row r="483" spans="1:9" ht="75">
+    <row r="483" spans="1:9" ht="67.5">
       <c r="A483" s="28" t="s">
         <v>982</v>
       </c>
@@ -18206,7 +18215,7 @@
       </c>
       <c r="I483" s="29"/>
     </row>
-    <row r="484" spans="1:9" ht="30">
+    <row r="484" spans="1:9" ht="27">
       <c r="A484" s="28" t="s">
         <v>984</v>
       </c>
@@ -18231,7 +18240,7 @@
       </c>
       <c r="I484" s="29"/>
     </row>
-    <row r="485" spans="1:9" ht="30">
+    <row r="485" spans="1:9" ht="40.5">
       <c r="A485" s="28" t="s">
         <v>986</v>
       </c>
@@ -18256,7 +18265,7 @@
       </c>
       <c r="I485" s="29"/>
     </row>
-    <row r="486" spans="1:9" ht="30">
+    <row r="486" spans="1:9" ht="27">
       <c r="A486" s="28" t="s">
         <v>988</v>
       </c>
@@ -18281,7 +18290,7 @@
       </c>
       <c r="I486" s="29"/>
     </row>
-    <row r="487" spans="1:9" ht="45">
+    <row r="487" spans="1:9" ht="54">
       <c r="A487" s="28" t="s">
         <v>990</v>
       </c>
@@ -18306,7 +18315,7 @@
       </c>
       <c r="I487" s="29"/>
     </row>
-    <row r="488" spans="1:9" ht="30">
+    <row r="488" spans="1:9" ht="27">
       <c r="A488" s="28" t="s">
         <v>992</v>
       </c>
@@ -18331,7 +18340,7 @@
       </c>
       <c r="I488" s="29"/>
     </row>
-    <row r="489" spans="1:9" ht="45">
+    <row r="489" spans="1:9" ht="40.5">
       <c r="A489" s="28" t="s">
         <v>995</v>
       </c>
@@ -18356,7 +18365,7 @@
       </c>
       <c r="I489" s="29"/>
     </row>
-    <row r="490" spans="1:9" ht="30">
+    <row r="490" spans="1:9" ht="27">
       <c r="A490" s="28" t="s">
         <v>997</v>
       </c>
@@ -18381,7 +18390,7 @@
       </c>
       <c r="I490" s="29"/>
     </row>
-    <row r="491" spans="1:9" ht="30">
+    <row r="491" spans="1:9" ht="27">
       <c r="A491" s="28" t="s">
         <v>999</v>
       </c>
@@ -18406,7 +18415,7 @@
       </c>
       <c r="I491" s="29"/>
     </row>
-    <row r="492" spans="1:9" ht="30">
+    <row r="492" spans="1:9" ht="27">
       <c r="A492" s="28" t="s">
         <v>1002</v>
       </c>
@@ -18431,7 +18440,7 @@
       </c>
       <c r="I492" s="29"/>
     </row>
-    <row r="493" spans="1:9" ht="30">
+    <row r="493" spans="1:9" ht="27">
       <c r="A493" s="28" t="s">
         <v>1004</v>
       </c>
@@ -18464,7 +18473,7 @@
         <v>1005</v>
       </c>
       <c r="C494" s="29" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D494" s="28"/>
       <c r="E494" s="28" t="s">
@@ -18481,7 +18490,7 @@
       </c>
       <c r="I494" s="29"/>
     </row>
-    <row r="495" spans="1:9" ht="30">
+    <row r="495" spans="1:9" ht="27">
       <c r="A495" s="28" t="s">
         <v>1008</v>
       </c>
@@ -18508,13 +18517,13 @@
     </row>
     <row r="496" spans="1:9" ht="30">
       <c r="A496" s="33" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B496" s="28" t="s">
         <v>1005</v>
       </c>
       <c r="C496" s="38" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D496" s="37"/>
       <c r="E496" s="37" t="s">
@@ -18533,16 +18542,16 @@
     </row>
     <row r="497" spans="1:9" ht="45">
       <c r="A497" s="33" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B497" s="33" t="s">
         <v>1005</v>
       </c>
       <c r="C497" s="31" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D497" s="33" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E497" s="33" t="s">
         <v>19</v>
@@ -18560,16 +18569,16 @@
     </row>
     <row r="498" spans="1:9" ht="45">
       <c r="A498" s="33" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B498" s="28" t="s">
         <v>1005</v>
       </c>
       <c r="C498" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D498" s="33" t="s">
         <v>1060</v>
-      </c>
-      <c r="D498" s="33" t="s">
-        <v>1061</v>
       </c>
       <c r="E498" s="33" t="s">
         <v>19</v>
@@ -18585,7 +18594,7 @@
       </c>
       <c r="I498" s="31"/>
     </row>
-    <row r="499" spans="1:9" ht="30">
+    <row r="499" spans="1:9" ht="27">
       <c r="A499" s="28" t="s">
         <v>1010</v>
       </c>
@@ -18610,7 +18619,7 @@
       </c>
       <c r="I499" s="29"/>
     </row>
-    <row r="500" spans="1:9" ht="30">
+    <row r="500" spans="1:9" ht="27">
       <c r="A500" s="28" t="s">
         <v>1012</v>
       </c>
@@ -18635,7 +18644,7 @@
       </c>
       <c r="I500" s="29"/>
     </row>
-    <row r="501" spans="1:9" ht="30">
+    <row r="501" spans="1:9" ht="27">
       <c r="A501" s="28" t="s">
         <v>1014</v>
       </c>
@@ -18660,7 +18669,7 @@
       </c>
       <c r="I501" s="29"/>
     </row>
-    <row r="502" spans="1:9" ht="30">
+    <row r="502" spans="1:9" ht="27">
       <c r="A502" s="28" t="s">
         <v>1017</v>
       </c>
@@ -18668,7 +18677,7 @@
         <v>1005</v>
       </c>
       <c r="C502" s="29" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D502" s="28"/>
       <c r="E502" s="28" t="s">
@@ -18685,7 +18694,7 @@
       </c>
       <c r="I502" s="29"/>
     </row>
-    <row r="503" spans="1:9" ht="30">
+    <row r="503" spans="1:9" ht="27">
       <c r="A503" s="28" t="s">
         <v>1018</v>
       </c>
@@ -18710,7 +18719,7 @@
       </c>
       <c r="I503" s="28"/>
     </row>
-    <row r="504" spans="1:9" ht="30">
+    <row r="504" spans="1:9" ht="40.5">
       <c r="A504" s="28" t="s">
         <v>1020</v>
       </c>
@@ -18735,7 +18744,7 @@
       </c>
       <c r="I504" s="29"/>
     </row>
-    <row r="505" spans="1:9" ht="30">
+    <row r="505" spans="1:9" ht="27">
       <c r="A505" s="28" t="s">
         <v>1022</v>
       </c>
@@ -18760,7 +18769,7 @@
       </c>
       <c r="I505" s="29"/>
     </row>
-    <row r="506" spans="1:9" ht="300">
+    <row r="506" spans="1:9" ht="297">
       <c r="A506" s="28" t="s">
         <v>1016</v>
       </c>
@@ -18785,7 +18794,7 @@
       </c>
       <c r="I506" s="29"/>
     </row>
-    <row r="507" spans="1:9" ht="30">
+    <row r="507" spans="1:9" ht="27">
       <c r="A507" s="28" t="s">
         <v>1026</v>
       </c>
@@ -18810,7 +18819,7 @@
       </c>
       <c r="I507" s="29"/>
     </row>
-    <row r="508" spans="1:9" ht="30">
+    <row r="508" spans="1:9" ht="27">
       <c r="A508" s="28" t="s">
         <v>1028</v>
       </c>
@@ -18835,7 +18844,7 @@
       </c>
       <c r="I508" s="29"/>
     </row>
-    <row r="509" spans="1:9" ht="30">
+    <row r="509" spans="1:9" ht="27">
       <c r="A509" s="28" t="s">
         <v>1030</v>
       </c>
@@ -18860,7 +18869,7 @@
       </c>
       <c r="I509" s="29"/>
     </row>
-    <row r="510" spans="1:9" ht="30">
+    <row r="510" spans="1:9" ht="40.5">
       <c r="A510" s="28" t="s">
         <v>1032</v>
       </c>
@@ -18868,7 +18877,7 @@
         <v>1023</v>
       </c>
       <c r="C510" s="29" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D510" s="28"/>
       <c r="E510" s="28" t="s">
@@ -18885,7 +18894,7 @@
       </c>
       <c r="I510" s="29"/>
     </row>
-    <row r="511" spans="1:9" ht="45">
+    <row r="511" spans="1:9" ht="40.5">
       <c r="A511" s="28" t="s">
         <v>50</v>
       </c>
@@ -18893,7 +18902,7 @@
         <v>7</v>
       </c>
       <c r="C511" s="29" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D511" s="28" t="s">
         <v>51</v>
@@ -18911,10 +18920,10 @@
         <v>21</v>
       </c>
       <c r="I511" s="29" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="512" spans="1:9" ht="45">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" ht="54">
       <c r="A512" s="28" t="s">
         <v>1033</v>
       </c>
@@ -18922,7 +18931,7 @@
         <v>7</v>
       </c>
       <c r="C512" s="29" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D512" s="28"/>
       <c r="E512" s="28" t="s">
@@ -18939,7 +18948,7 @@
       </c>
       <c r="I512" s="29"/>
     </row>
-    <row r="513" spans="1:9" ht="30">
+    <row r="513" spans="1:9" ht="27">
       <c r="A513" s="28" t="s">
         <v>1034</v>
       </c>
@@ -18947,7 +18956,7 @@
         <v>7</v>
       </c>
       <c r="C513" s="29" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D513" s="28"/>
       <c r="E513" s="28" t="s">
@@ -18964,7 +18973,7 @@
       </c>
       <c r="I513" s="29"/>
     </row>
-    <row r="514" spans="1:9" ht="60">
+    <row r="514" spans="1:9" ht="67.5">
       <c r="A514" s="28" t="s">
         <v>1035</v>
       </c>
@@ -18972,10 +18981,10 @@
         <v>7</v>
       </c>
       <c r="C514" s="29" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D514" s="28" t="s">
         <v>1068</v>
-      </c>
-      <c r="D514" s="28" t="s">
-        <v>1069</v>
       </c>
       <c r="E514" s="28" t="s">
         <v>22</v>
@@ -18993,16 +19002,16 @@
     </row>
     <row r="515" spans="1:9" ht="30">
       <c r="A515" s="33" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B515" s="36">
+        <v>7</v>
+      </c>
+      <c r="C515" s="31" t="s">
         <v>1065</v>
       </c>
-      <c r="B515" s="36">
-        <v>7</v>
-      </c>
-      <c r="C515" s="31" t="s">
-        <v>1066</v>
-      </c>
       <c r="D515" s="33" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E515" s="33" t="s">
         <v>22</v>
@@ -19026,7 +19035,7 @@
         <v>7</v>
       </c>
       <c r="C516" s="31" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D516" s="30" t="s">
         <v>853</v>
@@ -19044,10 +19053,10 @@
         <v>20</v>
       </c>
       <c r="I516" s="40" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="517" spans="1:9" ht="30">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" ht="40.5">
       <c r="A517" s="28" t="s">
         <v>1036</v>
       </c>
@@ -19072,7 +19081,7 @@
       </c>
       <c r="I517" s="29"/>
     </row>
-    <row r="518" spans="1:9" ht="45">
+    <row r="518" spans="1:9" ht="40.5">
       <c r="A518" s="28" t="s">
         <v>1038</v>
       </c>
@@ -19080,7 +19089,7 @@
         <v>7</v>
       </c>
       <c r="C518" s="29" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D518" s="28"/>
       <c r="E518" s="28" t="s">
@@ -19096,21 +19105,21 @@
         <v>17</v>
       </c>
       <c r="I518" s="29" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="519" spans="1:9" ht="45">
       <c r="A519" s="28" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B519" s="39">
         <v>7</v>
       </c>
       <c r="C519" s="31" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D519" s="33" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E519" s="28" t="s">
         <v>22</v>
@@ -19125,7 +19134,7 @@
         <v>20</v>
       </c>
       <c r="I519" s="18" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="520" spans="1:9">
@@ -19153,7 +19162,7 @@
     <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E75:F77 E186:I189 E190:H193 D183 D93 B94:D94 E376:H376 E421:I423 E420:H420 E424:H424 E469:I477 E468:H468 E478:H478 E304:H304 E332:H332 I76:I77 E305:I331 A20:B20 D20 A21:D92 E20:I26 A517:I518 A516:H516 A519:H519 A505:I510 A512:I515 E95:F135 G95:I185 F136:F182 E138:E182 A95:D182 E194:I303 E333:I375 E377:I419 E425:I467 E479:I504 A184:D504">
+  <conditionalFormatting sqref="E75:F77 E186:I189 D183 D93 B94:D94 E376:H376 E421:I423 E420:H420 E424:H424 E469:I477 E468:H468 E478:H478 E304:H304 E332:H332 I76:I77 E305:I331 A20:B20 D20 A21:D92 E20:I26 A517:I518 A516:H516 A519:H519 A505:I510 A512:I515 E95:F135 G95:I185 F136:F182 E138:E182 A95:D182 E194:I303 E333:I375 E377:I419 E425:I467 E479:I504 A184:D504 E190:H193">
     <cfRule type="expression" dxfId="202" priority="500">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -19164,7 +19173,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:F77 E186:I189 E190:H193 D183 D93 B94:D94 E376:H376 E421:I423 E420:H420 E424:H424 E469:I477 E468:H468 E478:H478 E304:H304 E332:H332 I76:I77 E305:I331 A20:B20 D20 A21:D92 E20:I26 A517:I518 A516:H516 A519:H519 A505:I510 A512:I515 E95:F135 G95:I185 F136:F182 E138:E182 A95:D182 E194:I303 E333:I375 E377:I419 E425:I467 E479:I504 A184:D504">
+  <conditionalFormatting sqref="E75:F77 E186:I189 D183 D93 B94:D94 E376:H376 E421:I423 E420:H420 E424:H424 E469:I477 E468:H468 E478:H478 E304:H304 E332:H332 I76:I77 E305:I331 A20:B20 D20 A21:D92 E20:I26 A517:I518 A516:H516 A519:H519 A505:I510 A512:I515 E95:F135 G95:I185 F136:F182 E138:E182 A95:D182 E194:I303 E333:I375 E377:I419 E425:I467 E479:I504 A184:D504 E190:H193">
     <cfRule type="expression" dxfId="199" priority="497">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -19873,21 +19882,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -19936,7 +19930,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -19950,25 +19974,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-MEETS/MS-MEETS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-MEETS/MS-MEETS_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="960" windowWidth="15405" windowHeight="6000" tabRatio="570"/>
@@ -4075,14 +4075,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4120,7 +4120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4293,7 +4293,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4302,7 +4302,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4323,7 +4323,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="20" spans="1:12" s="21" customFormat="1" ht="30">
       <c r="A20" s="26" t="s">
         <v>42</v>
       </c>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="21" spans="1:12" s="21" customFormat="1" ht="30">
       <c r="A21" s="28" t="s">
         <v>43</v>
       </c>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="22" spans="1:12" s="21" customFormat="1" ht="30">
       <c r="A22" s="28" t="s">
         <v>44</v>
       </c>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:12" s="21" customFormat="1" ht="40.5">
+    <row r="23" spans="1:12" s="21" customFormat="1" ht="45">
       <c r="A23" s="28" t="s">
         <v>45</v>
       </c>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="I24" s="29"/>
     </row>
-    <row r="25" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="25" spans="1:12" s="21" customFormat="1" ht="30">
       <c r="A25" s="28" t="s">
         <v>48</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="26" spans="1:12" s="21" customFormat="1" ht="30">
       <c r="A26" s="28" t="s">
         <v>52</v>
       </c>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="I26" s="29"/>
     </row>
-    <row r="27" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="27" spans="1:12" s="21" customFormat="1" ht="30">
       <c r="A27" s="28" t="s">
         <v>54</v>
       </c>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="29" spans="1:12" s="21" customFormat="1" ht="30">
       <c r="A29" s="28" t="s">
         <v>57</v>
       </c>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="I29" s="29"/>
     </row>
-    <row r="30" spans="1:12" s="21" customFormat="1" ht="40.5">
+    <row r="30" spans="1:12" s="21" customFormat="1" ht="30">
       <c r="A30" s="28" t="s">
         <v>59</v>
       </c>
@@ -6890,7 +6890,7 @@
       </c>
       <c r="I30" s="29"/>
     </row>
-    <row r="31" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="31" spans="1:12" s="21" customFormat="1" ht="30">
       <c r="A31" s="28" t="s">
         <v>61</v>
       </c>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="I31" s="29"/>
     </row>
-    <row r="32" spans="1:12" s="21" customFormat="1" ht="40.5">
+    <row r="32" spans="1:12" s="21" customFormat="1" ht="45">
       <c r="A32" s="28" t="s">
         <v>64</v>
       </c>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:9" ht="27">
+    <row r="33" spans="1:9" ht="30">
       <c r="A33" s="28" t="s">
         <v>66</v>
       </c>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="I33" s="29"/>
     </row>
-    <row r="34" spans="1:9" ht="27">
+    <row r="34" spans="1:9" ht="30">
       <c r="A34" s="28" t="s">
         <v>68</v>
       </c>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="I34" s="29"/>
     </row>
-    <row r="35" spans="1:9" ht="27">
+    <row r="35" spans="1:9" ht="30">
       <c r="A35" s="28" t="s">
         <v>70</v>
       </c>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="I35" s="29"/>
     </row>
-    <row r="36" spans="1:9" ht="27">
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="28" t="s">
         <v>72</v>
       </c>
@@ -7040,7 +7040,7 @@
       </c>
       <c r="I36" s="29"/>
     </row>
-    <row r="37" spans="1:9" ht="27">
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="28" t="s">
         <v>74</v>
       </c>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="I37" s="29"/>
     </row>
-    <row r="38" spans="1:9" ht="27">
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" s="28" t="s">
         <v>76</v>
       </c>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="I38" s="29"/>
     </row>
-    <row r="39" spans="1:9" ht="27">
+    <row r="39" spans="1:9" ht="30">
       <c r="A39" s="28" t="s">
         <v>78</v>
       </c>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="I39" s="29"/>
     </row>
-    <row r="40" spans="1:9" ht="27">
+    <row r="40" spans="1:9" ht="30">
       <c r="A40" s="28" t="s">
         <v>80</v>
       </c>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="I40" s="29"/>
     </row>
-    <row r="41" spans="1:9" ht="27">
+    <row r="41" spans="1:9" ht="30">
       <c r="A41" s="28" t="s">
         <v>82</v>
       </c>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="I41" s="29"/>
     </row>
-    <row r="42" spans="1:9" ht="27">
+    <row r="42" spans="1:9" ht="30">
       <c r="A42" s="28" t="s">
         <v>84</v>
       </c>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="I42" s="29"/>
     </row>
-    <row r="43" spans="1:9" ht="27">
+    <row r="43" spans="1:9" ht="30">
       <c r="A43" s="28" t="s">
         <v>86</v>
       </c>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="I43" s="29"/>
     </row>
-    <row r="44" spans="1:9" ht="27">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="28" t="s">
         <v>89</v>
       </c>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="I44" s="29"/>
     </row>
-    <row r="45" spans="1:9" ht="27">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="28" t="s">
         <v>92</v>
       </c>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I45" s="29"/>
     </row>
-    <row r="46" spans="1:9" ht="27">
+    <row r="46" spans="1:9" ht="30">
       <c r="A46" s="28" t="s">
         <v>94</v>
       </c>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="I46" s="29"/>
     </row>
-    <row r="47" spans="1:9" ht="27">
+    <row r="47" spans="1:9" ht="30">
       <c r="A47" s="28" t="s">
         <v>96</v>
       </c>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="I47" s="29"/>
     </row>
-    <row r="48" spans="1:9" ht="27">
+    <row r="48" spans="1:9" ht="30">
       <c r="A48" s="28" t="s">
         <v>98</v>
       </c>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="I48" s="29"/>
     </row>
-    <row r="49" spans="1:9" ht="27">
+    <row r="49" spans="1:9" ht="30">
       <c r="A49" s="28" t="s">
         <v>100</v>
       </c>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="I49" s="29"/>
     </row>
-    <row r="50" spans="1:9" ht="27">
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="28" t="s">
         <v>102</v>
       </c>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="I50" s="29"/>
     </row>
-    <row r="51" spans="1:9" ht="27">
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="28" t="s">
         <v>104</v>
       </c>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="I52" s="29"/>
     </row>
-    <row r="53" spans="1:9" ht="27">
+    <row r="53" spans="1:9" ht="30">
       <c r="A53" s="28" t="s">
         <v>109</v>
       </c>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I53" s="29"/>
     </row>
-    <row r="54" spans="1:9" ht="27">
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" s="28" t="s">
         <v>111</v>
       </c>
@@ -7490,7 +7490,7 @@
       </c>
       <c r="I54" s="29"/>
     </row>
-    <row r="55" spans="1:9" ht="121.5">
+    <row r="55" spans="1:9" ht="135">
       <c r="A55" s="28" t="s">
         <v>113</v>
       </c>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="I55" s="29"/>
     </row>
-    <row r="56" spans="1:9" ht="27">
+    <row r="56" spans="1:9" ht="30">
       <c r="A56" s="28" t="s">
         <v>115</v>
       </c>
@@ -7540,7 +7540,7 @@
       </c>
       <c r="I56" s="29"/>
     </row>
-    <row r="57" spans="1:9" ht="27">
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="28" t="s">
         <v>118</v>
       </c>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="I57" s="29"/>
     </row>
-    <row r="58" spans="1:9" ht="27">
+    <row r="58" spans="1:9" ht="30">
       <c r="A58" s="28" t="s">
         <v>120</v>
       </c>
@@ -7590,7 +7590,7 @@
       </c>
       <c r="I58" s="29"/>
     </row>
-    <row r="59" spans="1:9" ht="27">
+    <row r="59" spans="1:9" ht="30">
       <c r="A59" s="28" t="s">
         <v>123</v>
       </c>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="I59" s="29"/>
     </row>
-    <row r="60" spans="1:9" ht="27">
+    <row r="60" spans="1:9" ht="30">
       <c r="A60" s="28" t="s">
         <v>126</v>
       </c>
@@ -7640,7 +7640,7 @@
       </c>
       <c r="I60" s="29"/>
     </row>
-    <row r="61" spans="1:9" ht="27">
+    <row r="61" spans="1:9" ht="30">
       <c r="A61" s="28" t="s">
         <v>129</v>
       </c>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="I61" s="29"/>
     </row>
-    <row r="62" spans="1:9" ht="27">
+    <row r="62" spans="1:9" ht="30">
       <c r="A62" s="28" t="s">
         <v>132</v>
       </c>
@@ -7690,7 +7690,7 @@
       </c>
       <c r="I62" s="29"/>
     </row>
-    <row r="63" spans="1:9" ht="27">
+    <row r="63" spans="1:9" ht="30">
       <c r="A63" s="28" t="s">
         <v>134</v>
       </c>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="I63" s="29"/>
     </row>
-    <row r="64" spans="1:9" ht="40.5">
+    <row r="64" spans="1:9" ht="30">
       <c r="A64" s="28" t="s">
         <v>136</v>
       </c>
@@ -7740,7 +7740,7 @@
       </c>
       <c r="I64" s="29"/>
     </row>
-    <row r="65" spans="1:9" ht="27">
+    <row r="65" spans="1:9" ht="30">
       <c r="A65" s="28" t="s">
         <v>138</v>
       </c>
@@ -7765,7 +7765,7 @@
       </c>
       <c r="I65" s="29"/>
     </row>
-    <row r="66" spans="1:9" ht="27">
+    <row r="66" spans="1:9" ht="30">
       <c r="A66" s="28" t="s">
         <v>140</v>
       </c>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="I66" s="29"/>
     </row>
-    <row r="67" spans="1:9" ht="27">
+    <row r="67" spans="1:9" ht="30">
       <c r="A67" s="28" t="s">
         <v>143</v>
       </c>
@@ -7815,7 +7815,7 @@
       </c>
       <c r="I67" s="29"/>
     </row>
-    <row r="68" spans="1:9" ht="27">
+    <row r="68" spans="1:9" ht="30">
       <c r="A68" s="28" t="s">
         <v>145</v>
       </c>
@@ -7840,7 +7840,7 @@
       </c>
       <c r="I68" s="29"/>
     </row>
-    <row r="69" spans="1:9" ht="27">
+    <row r="69" spans="1:9" ht="30">
       <c r="A69" s="28" t="s">
         <v>147</v>
       </c>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I69" s="29"/>
     </row>
-    <row r="70" spans="1:9" ht="27">
+    <row r="70" spans="1:9" ht="30">
       <c r="A70" s="28" t="s">
         <v>149</v>
       </c>
@@ -7890,7 +7890,7 @@
       </c>
       <c r="I70" s="29"/>
     </row>
-    <row r="71" spans="1:9" ht="121.5">
+    <row r="71" spans="1:9" ht="135">
       <c r="A71" s="28" t="s">
         <v>151</v>
       </c>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="I71" s="29"/>
     </row>
-    <row r="72" spans="1:9" ht="27">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="28" t="s">
         <v>153</v>
       </c>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="I72" s="29"/>
     </row>
-    <row r="73" spans="1:9" ht="27">
+    <row r="73" spans="1:9" ht="30">
       <c r="A73" s="34" t="s">
         <v>155</v>
       </c>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="I73" s="35"/>
     </row>
-    <row r="74" spans="1:9" ht="27">
+    <row r="74" spans="1:9" ht="30">
       <c r="A74" s="28" t="s">
         <v>156</v>
       </c>
@@ -7990,7 +7990,7 @@
       </c>
       <c r="I74" s="29"/>
     </row>
-    <row r="75" spans="1:9" ht="27">
+    <row r="75" spans="1:9" ht="30">
       <c r="A75" s="28" t="s">
         <v>157</v>
       </c>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="I75" s="29"/>
     </row>
-    <row r="76" spans="1:9" ht="27">
+    <row r="76" spans="1:9" ht="30">
       <c r="A76" s="28" t="s">
         <v>159</v>
       </c>
@@ -8040,7 +8040,7 @@
       </c>
       <c r="I76" s="29"/>
     </row>
-    <row r="77" spans="1:9" ht="27">
+    <row r="77" spans="1:9" ht="30">
       <c r="A77" s="28" t="s">
         <v>160</v>
       </c>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="I77" s="29"/>
     </row>
-    <row r="78" spans="1:9" ht="27">
+    <row r="78" spans="1:9" ht="30">
       <c r="A78" s="28" t="s">
         <v>161</v>
       </c>
@@ -8090,7 +8090,7 @@
       </c>
       <c r="I78" s="29"/>
     </row>
-    <row r="79" spans="1:9" ht="81">
+    <row r="79" spans="1:9" ht="90">
       <c r="A79" s="28" t="s">
         <v>164</v>
       </c>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="I79" s="29"/>
     </row>
-    <row r="80" spans="1:9" ht="40.5">
+    <row r="80" spans="1:9" ht="30">
       <c r="A80" s="28" t="s">
         <v>166</v>
       </c>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="I80" s="29"/>
     </row>
-    <row r="81" spans="1:9" ht="27">
+    <row r="81" spans="1:9" ht="30">
       <c r="A81" s="28" t="s">
         <v>168</v>
       </c>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="I81" s="29"/>
     </row>
-    <row r="82" spans="1:9" ht="27">
+    <row r="82" spans="1:9" ht="30">
       <c r="A82" s="28" t="s">
         <v>170</v>
       </c>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="I82" s="29"/>
     </row>
-    <row r="83" spans="1:9" ht="27">
+    <row r="83" spans="1:9" ht="30">
       <c r="A83" s="28" t="s">
         <v>172</v>
       </c>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="I83" s="29"/>
     </row>
-    <row r="84" spans="1:9" ht="27">
+    <row r="84" spans="1:9" ht="30">
       <c r="A84" s="28" t="s">
         <v>174</v>
       </c>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="I84" s="29"/>
     </row>
-    <row r="85" spans="1:9" ht="27">
+    <row r="85" spans="1:9" ht="30">
       <c r="A85" s="28" t="s">
         <v>176</v>
       </c>
@@ -8265,7 +8265,7 @@
       </c>
       <c r="I85" s="29"/>
     </row>
-    <row r="86" spans="1:9" ht="27">
+    <row r="86" spans="1:9" ht="30">
       <c r="A86" s="28" t="s">
         <v>179</v>
       </c>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="I86" s="29"/>
     </row>
-    <row r="87" spans="1:9" ht="94.5">
+    <row r="87" spans="1:9" ht="90">
       <c r="A87" s="28" t="s">
         <v>181</v>
       </c>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="I87" s="29"/>
     </row>
-    <row r="88" spans="1:9" ht="94.5">
+    <row r="88" spans="1:9" ht="105">
       <c r="A88" s="28" t="s">
         <v>184</v>
       </c>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="I88" s="29"/>
     </row>
-    <row r="89" spans="1:9" ht="54">
+    <row r="89" spans="1:9" ht="60">
       <c r="A89" s="28" t="s">
         <v>187</v>
       </c>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="I89" s="29"/>
     </row>
-    <row r="90" spans="1:9" ht="27">
+    <row r="90" spans="1:9" ht="30">
       <c r="A90" s="28" t="s">
         <v>189</v>
       </c>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="I90" s="29"/>
     </row>
-    <row r="91" spans="1:9" ht="81">
+    <row r="91" spans="1:9" ht="90">
       <c r="A91" s="28" t="s">
         <v>190</v>
       </c>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="I91" s="29"/>
     </row>
-    <row r="92" spans="1:9" ht="27">
+    <row r="92" spans="1:9" ht="30">
       <c r="A92" s="28" t="s">
         <v>193</v>
       </c>
@@ -8440,7 +8440,7 @@
       </c>
       <c r="I92" s="29"/>
     </row>
-    <row r="93" spans="1:9" ht="27">
+    <row r="93" spans="1:9" ht="30">
       <c r="A93" s="28" t="s">
         <v>196</v>
       </c>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="I93" s="29"/>
     </row>
-    <row r="94" spans="1:9" ht="27">
+    <row r="94" spans="1:9" ht="30">
       <c r="A94" s="28" t="s">
         <v>199</v>
       </c>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="I94" s="29"/>
     </row>
-    <row r="95" spans="1:9" ht="27">
+    <row r="95" spans="1:9" ht="30">
       <c r="A95" s="28" t="s">
         <v>202</v>
       </c>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="I95" s="29"/>
     </row>
-    <row r="96" spans="1:9" ht="27">
+    <row r="96" spans="1:9" ht="30">
       <c r="A96" s="28" t="s">
         <v>204</v>
       </c>
@@ -8540,7 +8540,7 @@
       </c>
       <c r="I96" s="29"/>
     </row>
-    <row r="97" spans="1:9" ht="27">
+    <row r="97" spans="1:9" ht="30">
       <c r="A97" s="28" t="s">
         <v>206</v>
       </c>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I97" s="29"/>
     </row>
-    <row r="98" spans="1:9" ht="40.5">
+    <row r="98" spans="1:9" ht="45">
       <c r="A98" s="28" t="s">
         <v>208</v>
       </c>
@@ -8590,7 +8590,7 @@
       </c>
       <c r="I98" s="29"/>
     </row>
-    <row r="99" spans="1:9" ht="27">
+    <row r="99" spans="1:9" ht="30">
       <c r="A99" s="28" t="s">
         <v>209</v>
       </c>
@@ -8615,7 +8615,7 @@
       </c>
       <c r="I99" s="29"/>
     </row>
-    <row r="100" spans="1:9" ht="27">
+    <row r="100" spans="1:9" ht="30">
       <c r="A100" s="28" t="s">
         <v>211</v>
       </c>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="I100" s="29"/>
     </row>
-    <row r="101" spans="1:9" ht="40.5">
+    <row r="101" spans="1:9" ht="30">
       <c r="A101" s="28" t="s">
         <v>213</v>
       </c>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I101" s="29"/>
     </row>
-    <row r="102" spans="1:9" ht="27">
+    <row r="102" spans="1:9" ht="30">
       <c r="A102" s="28" t="s">
         <v>215</v>
       </c>
@@ -8690,7 +8690,7 @@
       </c>
       <c r="I102" s="29"/>
     </row>
-    <row r="103" spans="1:9" ht="40.5">
+    <row r="103" spans="1:9" ht="30">
       <c r="A103" s="28" t="s">
         <v>218</v>
       </c>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="I103" s="29"/>
     </row>
-    <row r="104" spans="1:9" ht="27">
+    <row r="104" spans="1:9" ht="30">
       <c r="A104" s="28" t="s">
         <v>220</v>
       </c>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="I104" s="29"/>
     </row>
-    <row r="105" spans="1:9" ht="27">
+    <row r="105" spans="1:9" ht="30">
       <c r="A105" s="28" t="s">
         <v>222</v>
       </c>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="I105" s="29"/>
     </row>
-    <row r="106" spans="1:9" ht="40.5">
+    <row r="106" spans="1:9" ht="30">
       <c r="A106" s="28" t="s">
         <v>224</v>
       </c>
@@ -8790,7 +8790,7 @@
       </c>
       <c r="I106" s="29"/>
     </row>
-    <row r="107" spans="1:9" ht="27">
+    <row r="107" spans="1:9" ht="30">
       <c r="A107" s="28" t="s">
         <v>225</v>
       </c>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="I107" s="29"/>
     </row>
-    <row r="108" spans="1:9" ht="27">
+    <row r="108" spans="1:9" ht="30">
       <c r="A108" s="28" t="s">
         <v>227</v>
       </c>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="I108" s="29"/>
     </row>
-    <row r="109" spans="1:9" ht="27">
+    <row r="109" spans="1:9" ht="30">
       <c r="A109" s="28" t="s">
         <v>228</v>
       </c>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="I109" s="29"/>
     </row>
-    <row r="110" spans="1:9" ht="27">
+    <row r="110" spans="1:9" ht="30">
       <c r="A110" s="28" t="s">
         <v>230</v>
       </c>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="I110" s="29"/>
     </row>
-    <row r="111" spans="1:9" ht="27">
+    <row r="111" spans="1:9" ht="30">
       <c r="A111" s="28" t="s">
         <v>232</v>
       </c>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="I111" s="29"/>
     </row>
-    <row r="112" spans="1:9" ht="27">
+    <row r="112" spans="1:9" ht="30">
       <c r="A112" s="28" t="s">
         <v>235</v>
       </c>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="I112" s="29"/>
     </row>
-    <row r="113" spans="1:9" ht="40.5">
+    <row r="113" spans="1:9" ht="30">
       <c r="A113" s="28" t="s">
         <v>237</v>
       </c>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="I113" s="29"/>
     </row>
-    <row r="114" spans="1:9" ht="27">
+    <row r="114" spans="1:9" ht="30">
       <c r="A114" s="28" t="s">
         <v>238</v>
       </c>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="I114" s="29"/>
     </row>
-    <row r="115" spans="1:9" ht="27">
+    <row r="115" spans="1:9" ht="30">
       <c r="A115" s="28" t="s">
         <v>240</v>
       </c>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="I115" s="29"/>
     </row>
-    <row r="116" spans="1:9" ht="40.5">
+    <row r="116" spans="1:9" ht="45">
       <c r="A116" s="28" t="s">
         <v>242</v>
       </c>
@@ -9040,7 +9040,7 @@
       </c>
       <c r="I116" s="29"/>
     </row>
-    <row r="117" spans="1:9" ht="40.5">
+    <row r="117" spans="1:9" ht="30">
       <c r="A117" s="28" t="s">
         <v>243</v>
       </c>
@@ -9065,7 +9065,7 @@
       </c>
       <c r="I117" s="29"/>
     </row>
-    <row r="118" spans="1:9" ht="27">
+    <row r="118" spans="1:9" ht="30">
       <c r="A118" s="28" t="s">
         <v>245</v>
       </c>
@@ -9090,7 +9090,7 @@
       </c>
       <c r="I118" s="29"/>
     </row>
-    <row r="119" spans="1:9" ht="27">
+    <row r="119" spans="1:9" ht="30">
       <c r="A119" s="28" t="s">
         <v>247</v>
       </c>
@@ -9115,7 +9115,7 @@
       </c>
       <c r="I119" s="29"/>
     </row>
-    <row r="120" spans="1:9" ht="40.5">
+    <row r="120" spans="1:9" ht="30">
       <c r="A120" s="28" t="s">
         <v>249</v>
       </c>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="I120" s="29"/>
     </row>
-    <row r="121" spans="1:9" ht="27">
+    <row r="121" spans="1:9" ht="30">
       <c r="A121" s="28" t="s">
         <v>251</v>
       </c>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="I121" s="29"/>
     </row>
-    <row r="122" spans="1:9" ht="27">
+    <row r="122" spans="1:9" ht="30">
       <c r="A122" s="28" t="s">
         <v>253</v>
       </c>
@@ -9190,7 +9190,7 @@
       </c>
       <c r="I122" s="29"/>
     </row>
-    <row r="123" spans="1:9" ht="40.5">
+    <row r="123" spans="1:9" ht="30">
       <c r="A123" s="28" t="s">
         <v>255</v>
       </c>
@@ -9215,7 +9215,7 @@
       </c>
       <c r="I123" s="29"/>
     </row>
-    <row r="124" spans="1:9" ht="27">
+    <row r="124" spans="1:9" ht="30">
       <c r="A124" s="28" t="s">
         <v>256</v>
       </c>
@@ -9240,7 +9240,7 @@
       </c>
       <c r="I124" s="29"/>
     </row>
-    <row r="125" spans="1:9" ht="67.5">
+    <row r="125" spans="1:9" ht="75">
       <c r="A125" s="28" t="s">
         <v>258</v>
       </c>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="I125" s="29"/>
     </row>
-    <row r="126" spans="1:9" ht="27">
+    <row r="126" spans="1:9" ht="30">
       <c r="A126" s="28" t="s">
         <v>260</v>
       </c>
@@ -9290,7 +9290,7 @@
       </c>
       <c r="I126" s="29"/>
     </row>
-    <row r="127" spans="1:9" ht="40.5">
+    <row r="127" spans="1:9" ht="30">
       <c r="A127" s="28" t="s">
         <v>262</v>
       </c>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="I127" s="29"/>
     </row>
-    <row r="128" spans="1:9" ht="54">
+    <row r="128" spans="1:9" ht="45">
       <c r="A128" s="28" t="s">
         <v>264</v>
       </c>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="I128" s="29"/>
     </row>
-    <row r="129" spans="1:9" ht="27">
+    <row r="129" spans="1:9" ht="30">
       <c r="A129" s="28" t="s">
         <v>266</v>
       </c>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="I129" s="29"/>
     </row>
-    <row r="130" spans="1:9" ht="27">
+    <row r="130" spans="1:9" ht="30">
       <c r="A130" s="28" t="s">
         <v>268</v>
       </c>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="I130" s="29"/>
     </row>
-    <row r="131" spans="1:9" ht="27">
+    <row r="131" spans="1:9" ht="30">
       <c r="A131" s="28" t="s">
         <v>270</v>
       </c>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="I131" s="29"/>
     </row>
-    <row r="132" spans="1:9" ht="40.5">
+    <row r="132" spans="1:9" ht="30">
       <c r="A132" s="28" t="s">
         <v>273</v>
       </c>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="I132" s="29"/>
     </row>
-    <row r="133" spans="1:9" ht="27">
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" s="28" t="s">
         <v>275</v>
       </c>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="I133" s="29"/>
     </row>
-    <row r="134" spans="1:9" ht="27">
+    <row r="134" spans="1:9" ht="30">
       <c r="A134" s="28" t="s">
         <v>277</v>
       </c>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="I134" s="29"/>
     </row>
-    <row r="135" spans="1:9" ht="27">
+    <row r="135" spans="1:9" ht="30">
       <c r="A135" s="28" t="s">
         <v>280</v>
       </c>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="I135" s="29"/>
     </row>
-    <row r="136" spans="1:9" ht="27">
+    <row r="136" spans="1:9" ht="30">
       <c r="A136" s="28" t="s">
         <v>282</v>
       </c>
@@ -9540,7 +9540,7 @@
       </c>
       <c r="I136" s="29"/>
     </row>
-    <row r="137" spans="1:9" ht="40.5">
+    <row r="137" spans="1:9" ht="45">
       <c r="A137" s="28" t="s">
         <v>284</v>
       </c>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="I137" s="29"/>
     </row>
-    <row r="138" spans="1:9" ht="216">
+    <row r="138" spans="1:9" ht="240">
       <c r="A138" s="28" t="s">
         <v>286</v>
       </c>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="I138" s="29"/>
     </row>
-    <row r="139" spans="1:9" ht="27">
+    <row r="139" spans="1:9" ht="30">
       <c r="A139" s="28" t="s">
         <v>288</v>
       </c>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="I139" s="29"/>
     </row>
-    <row r="140" spans="1:9" ht="27">
+    <row r="140" spans="1:9" ht="30">
       <c r="A140" s="28" t="s">
         <v>290</v>
       </c>
@@ -9640,7 +9640,7 @@
       </c>
       <c r="I140" s="29"/>
     </row>
-    <row r="141" spans="1:9" ht="27">
+    <row r="141" spans="1:9" ht="30">
       <c r="A141" s="28" t="s">
         <v>292</v>
       </c>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="I142" s="42"/>
     </row>
-    <row r="143" spans="1:9" ht="27">
+    <row r="143" spans="1:9" ht="30">
       <c r="A143" s="28" t="s">
         <v>294</v>
       </c>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="I144" s="42"/>
     </row>
-    <row r="145" spans="1:9" ht="27">
+    <row r="145" spans="1:9" ht="30">
       <c r="A145" s="28" t="s">
         <v>296</v>
       </c>
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I145" s="29"/>
     </row>
-    <row r="146" spans="1:9" ht="27">
+    <row r="146" spans="1:9" ht="30">
       <c r="A146" s="28" t="s">
         <v>298</v>
       </c>
@@ -9790,7 +9790,7 @@
       </c>
       <c r="I146" s="29"/>
     </row>
-    <row r="147" spans="1:9" ht="27">
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="28" t="s">
         <v>300</v>
       </c>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="I147" s="29"/>
     </row>
-    <row r="148" spans="1:9" ht="27">
+    <row r="148" spans="1:9" ht="30">
       <c r="A148" s="28" t="s">
         <v>302</v>
       </c>
@@ -9840,7 +9840,7 @@
       </c>
       <c r="I148" s="29"/>
     </row>
-    <row r="149" spans="1:9" ht="27">
+    <row r="149" spans="1:9" ht="30">
       <c r="A149" s="28" t="s">
         <v>304</v>
       </c>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I149" s="29"/>
     </row>
-    <row r="150" spans="1:9" ht="27">
+    <row r="150" spans="1:9" ht="30">
       <c r="A150" s="28" t="s">
         <v>307</v>
       </c>
@@ -9890,7 +9890,7 @@
       </c>
       <c r="I150" s="29"/>
     </row>
-    <row r="151" spans="1:9" ht="27">
+    <row r="151" spans="1:9" ht="30">
       <c r="A151" s="28" t="s">
         <v>309</v>
       </c>
@@ -9915,7 +9915,7 @@
       </c>
       <c r="I151" s="29"/>
     </row>
-    <row r="152" spans="1:9" ht="27">
+    <row r="152" spans="1:9" ht="30">
       <c r="A152" s="28" t="s">
         <v>311</v>
       </c>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="I152" s="29"/>
     </row>
-    <row r="153" spans="1:9" ht="27">
+    <row r="153" spans="1:9" ht="30">
       <c r="A153" s="28" t="s">
         <v>313</v>
       </c>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="I153" s="29"/>
     </row>
-    <row r="154" spans="1:9" ht="27">
+    <row r="154" spans="1:9" ht="30">
       <c r="A154" s="28" t="s">
         <v>315</v>
       </c>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="I154" s="29"/>
     </row>
-    <row r="155" spans="1:9" ht="27">
+    <row r="155" spans="1:9" ht="30">
       <c r="A155" s="28" t="s">
         <v>317</v>
       </c>
@@ -10015,7 +10015,7 @@
       </c>
       <c r="I155" s="29"/>
     </row>
-    <row r="156" spans="1:9" ht="27">
+    <row r="156" spans="1:9" ht="30">
       <c r="A156" s="28" t="s">
         <v>319</v>
       </c>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="I156" s="29"/>
     </row>
-    <row r="157" spans="1:9" ht="27">
+    <row r="157" spans="1:9" ht="30">
       <c r="A157" s="28" t="s">
         <v>321</v>
       </c>
@@ -10065,7 +10065,7 @@
       </c>
       <c r="I157" s="29"/>
     </row>
-    <row r="158" spans="1:9" ht="189">
+    <row r="158" spans="1:9" ht="210">
       <c r="A158" s="28" t="s">
         <v>306</v>
       </c>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="I159" s="42"/>
     </row>
-    <row r="160" spans="1:9" ht="40.5">
+    <row r="160" spans="1:9" ht="45">
       <c r="A160" s="28" t="s">
         <v>325</v>
       </c>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="I160" s="29"/>
     </row>
-    <row r="161" spans="1:9" ht="54">
+    <row r="161" spans="1:9" ht="45">
       <c r="A161" s="28" t="s">
         <v>326</v>
       </c>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="I161" s="35"/>
     </row>
-    <row r="162" spans="1:9" ht="27">
+    <row r="162" spans="1:9" ht="30">
       <c r="A162" s="28" t="s">
         <v>327</v>
       </c>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="I162" s="29"/>
     </row>
-    <row r="163" spans="1:9" ht="81">
+    <row r="163" spans="1:9" ht="75">
       <c r="A163" s="28" t="s">
         <v>328</v>
       </c>
@@ -10215,7 +10215,7 @@
       </c>
       <c r="I163" s="29"/>
     </row>
-    <row r="164" spans="1:9" ht="27">
+    <row r="164" spans="1:9" ht="30">
       <c r="A164" s="28" t="s">
         <v>330</v>
       </c>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="I164" s="29"/>
     </row>
-    <row r="165" spans="1:9" ht="40.5">
+    <row r="165" spans="1:9" ht="30">
       <c r="A165" s="28" t="s">
         <v>332</v>
       </c>
@@ -10265,7 +10265,7 @@
       </c>
       <c r="I165" s="29"/>
     </row>
-    <row r="166" spans="1:9" ht="27">
+    <row r="166" spans="1:9" ht="30">
       <c r="A166" s="28" t="s">
         <v>334</v>
       </c>
@@ -10290,7 +10290,7 @@
       </c>
       <c r="I166" s="29"/>
     </row>
-    <row r="167" spans="1:9" ht="40.5">
+    <row r="167" spans="1:9" ht="45">
       <c r="A167" s="28" t="s">
         <v>336</v>
       </c>
@@ -10315,7 +10315,7 @@
       </c>
       <c r="I167" s="29"/>
     </row>
-    <row r="168" spans="1:9" ht="27">
+    <row r="168" spans="1:9" ht="30">
       <c r="A168" s="28" t="s">
         <v>338</v>
       </c>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="I168" s="29"/>
     </row>
-    <row r="169" spans="1:9" ht="40.5">
+    <row r="169" spans="1:9" ht="30">
       <c r="A169" s="28" t="s">
         <v>341</v>
       </c>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="I169" s="29"/>
     </row>
-    <row r="170" spans="1:9" ht="27">
+    <row r="170" spans="1:9" ht="30">
       <c r="A170" s="28" t="s">
         <v>343</v>
       </c>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="I170" s="29"/>
     </row>
-    <row r="171" spans="1:9" ht="27">
+    <row r="171" spans="1:9" ht="30">
       <c r="A171" s="28" t="s">
         <v>345</v>
       </c>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="I171" s="29"/>
     </row>
-    <row r="172" spans="1:9" ht="27">
+    <row r="172" spans="1:9" ht="30">
       <c r="A172" s="28" t="s">
         <v>348</v>
       </c>
@@ -10440,7 +10440,7 @@
       </c>
       <c r="I172" s="29"/>
     </row>
-    <row r="173" spans="1:9" ht="27">
+    <row r="173" spans="1:9" ht="30">
       <c r="A173" s="28" t="s">
         <v>350</v>
       </c>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="I173" s="29"/>
     </row>
-    <row r="174" spans="1:9" ht="121.5">
+    <row r="174" spans="1:9" ht="135">
       <c r="A174" s="28" t="s">
         <v>353</v>
       </c>
@@ -10490,7 +10490,7 @@
       </c>
       <c r="I174" s="29"/>
     </row>
-    <row r="175" spans="1:9" ht="27">
+    <row r="175" spans="1:9" ht="30">
       <c r="A175" s="28" t="s">
         <v>355</v>
       </c>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="I175" s="29"/>
     </row>
-    <row r="176" spans="1:9" ht="27">
+    <row r="176" spans="1:9" ht="30">
       <c r="A176" s="28" t="s">
         <v>357</v>
       </c>
@@ -10540,7 +10540,7 @@
       </c>
       <c r="I176" s="29"/>
     </row>
-    <row r="177" spans="1:9" ht="27">
+    <row r="177" spans="1:9" ht="30">
       <c r="A177" s="28" t="s">
         <v>359</v>
       </c>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="I177" s="29"/>
     </row>
-    <row r="178" spans="1:9" ht="27">
+    <row r="178" spans="1:9" ht="30">
       <c r="A178" s="28" t="s">
         <v>361</v>
       </c>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="I179" s="42"/>
     </row>
-    <row r="180" spans="1:9" ht="27">
+    <row r="180" spans="1:9" ht="30">
       <c r="A180" s="28" t="s">
         <v>363</v>
       </c>
@@ -10640,7 +10640,7 @@
       </c>
       <c r="I180" s="29"/>
     </row>
-    <row r="181" spans="1:9" ht="27">
+    <row r="181" spans="1:9" ht="30">
       <c r="A181" s="28" t="s">
         <v>365</v>
       </c>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="I181" s="29"/>
     </row>
-    <row r="182" spans="1:9" ht="27">
+    <row r="182" spans="1:9" ht="30">
       <c r="A182" s="28" t="s">
         <v>368</v>
       </c>
@@ -10690,7 +10690,7 @@
       </c>
       <c r="I182" s="29"/>
     </row>
-    <row r="183" spans="1:9" ht="27">
+    <row r="183" spans="1:9" ht="30">
       <c r="A183" s="28" t="s">
         <v>370</v>
       </c>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="I183" s="29"/>
     </row>
-    <row r="184" spans="1:9" ht="27">
+    <row r="184" spans="1:9" ht="30">
       <c r="A184" s="28" t="s">
         <v>371</v>
       </c>
@@ -10740,7 +10740,7 @@
       </c>
       <c r="I184" s="29"/>
     </row>
-    <row r="185" spans="1:9" ht="202.5">
+    <row r="185" spans="1:9" ht="210">
       <c r="A185" s="28" t="s">
         <v>367</v>
       </c>
@@ -10765,7 +10765,7 @@
       </c>
       <c r="I185" s="29"/>
     </row>
-    <row r="186" spans="1:9" ht="148.5">
+    <row r="186" spans="1:9" ht="150">
       <c r="A186" s="28" t="s">
         <v>375</v>
       </c>
@@ -10790,7 +10790,7 @@
       </c>
       <c r="I186" s="29"/>
     </row>
-    <row r="187" spans="1:9" ht="40.5">
+    <row r="187" spans="1:9" ht="30">
       <c r="A187" s="28" t="s">
         <v>377</v>
       </c>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="I187" s="29"/>
     </row>
-    <row r="188" spans="1:9" ht="40.5">
+    <row r="188" spans="1:9" ht="30">
       <c r="A188" s="28" t="s">
         <v>379</v>
       </c>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="I188" s="29"/>
     </row>
-    <row r="189" spans="1:9" ht="40.5">
+    <row r="189" spans="1:9" ht="30">
       <c r="A189" s="28" t="s">
         <v>380</v>
       </c>
@@ -10865,7 +10865,7 @@
       </c>
       <c r="I189" s="29"/>
     </row>
-    <row r="190" spans="1:9" ht="40.5">
+    <row r="190" spans="1:9" ht="45">
       <c r="A190" s="28" t="s">
         <v>382</v>
       </c>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I193" s="42"/>
     </row>
-    <row r="194" spans="1:9" ht="27">
+    <row r="194" spans="1:9" ht="30">
       <c r="A194" s="28" t="s">
         <v>384</v>
       </c>
@@ -10990,7 +10990,7 @@
       </c>
       <c r="I194" s="29"/>
     </row>
-    <row r="195" spans="1:9" ht="67.5">
+    <row r="195" spans="1:9" ht="75">
       <c r="A195" s="28" t="s">
         <v>387</v>
       </c>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="I195" s="29"/>
     </row>
-    <row r="196" spans="1:9" ht="27">
+    <row r="196" spans="1:9" ht="30">
       <c r="A196" s="28" t="s">
         <v>389</v>
       </c>
@@ -11040,7 +11040,7 @@
       </c>
       <c r="I196" s="29"/>
     </row>
-    <row r="197" spans="1:9" ht="40.5">
+    <row r="197" spans="1:9" ht="30">
       <c r="A197" s="28" t="s">
         <v>391</v>
       </c>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I197" s="29"/>
     </row>
-    <row r="198" spans="1:9" ht="40.5">
+    <row r="198" spans="1:9" ht="45">
       <c r="A198" s="28" t="s">
         <v>393</v>
       </c>
@@ -11090,7 +11090,7 @@
       </c>
       <c r="I198" s="29"/>
     </row>
-    <row r="199" spans="1:9" ht="27">
+    <row r="199" spans="1:9" ht="30">
       <c r="A199" s="28" t="s">
         <v>395</v>
       </c>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="I199" s="29"/>
     </row>
-    <row r="200" spans="1:9" ht="40.5">
+    <row r="200" spans="1:9" ht="30">
       <c r="A200" s="28" t="s">
         <v>398</v>
       </c>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="I200" s="29"/>
     </row>
-    <row r="201" spans="1:9" ht="27">
+    <row r="201" spans="1:9" ht="30">
       <c r="A201" s="28" t="s">
         <v>400</v>
       </c>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="I201" s="29"/>
     </row>
-    <row r="202" spans="1:9" ht="27">
+    <row r="202" spans="1:9" ht="30">
       <c r="A202" s="28" t="s">
         <v>402</v>
       </c>
@@ -11190,7 +11190,7 @@
       </c>
       <c r="I202" s="29"/>
     </row>
-    <row r="203" spans="1:9" ht="27">
+    <row r="203" spans="1:9" ht="30">
       <c r="A203" s="28" t="s">
         <v>405</v>
       </c>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="I203" s="29"/>
     </row>
-    <row r="204" spans="1:9" ht="27">
+    <row r="204" spans="1:9" ht="30">
       <c r="A204" s="28" t="s">
         <v>407</v>
       </c>
@@ -11240,7 +11240,7 @@
       </c>
       <c r="I204" s="29"/>
     </row>
-    <row r="205" spans="1:9" ht="148.5">
+    <row r="205" spans="1:9" ht="165">
       <c r="A205" s="28" t="s">
         <v>410</v>
       </c>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="I205" s="29"/>
     </row>
-    <row r="206" spans="1:9" ht="27">
+    <row r="206" spans="1:9" ht="30">
       <c r="A206" s="28" t="s">
         <v>412</v>
       </c>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="I206" s="29"/>
     </row>
-    <row r="207" spans="1:9" ht="27">
+    <row r="207" spans="1:9" ht="30">
       <c r="A207" s="28" t="s">
         <v>414</v>
       </c>
@@ -11315,7 +11315,7 @@
       </c>
       <c r="I207" s="29"/>
     </row>
-    <row r="208" spans="1:9" ht="27">
+    <row r="208" spans="1:9" ht="30">
       <c r="A208" s="28" t="s">
         <v>417</v>
       </c>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="I208" s="29"/>
     </row>
-    <row r="209" spans="1:9" ht="27">
+    <row r="209" spans="1:9" ht="30">
       <c r="A209" s="28" t="s">
         <v>419</v>
       </c>
@@ -11390,7 +11390,7 @@
       </c>
       <c r="I210" s="42"/>
     </row>
-    <row r="211" spans="1:9" ht="27">
+    <row r="211" spans="1:9" ht="30">
       <c r="A211" s="28" t="s">
         <v>421</v>
       </c>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="I211" s="29"/>
     </row>
-    <row r="212" spans="1:9" ht="27">
+    <row r="212" spans="1:9" ht="30">
       <c r="A212" s="28" t="s">
         <v>423</v>
       </c>
@@ -11440,7 +11440,7 @@
       </c>
       <c r="I212" s="29"/>
     </row>
-    <row r="213" spans="1:9" ht="54">
+    <row r="213" spans="1:9" ht="45">
       <c r="A213" s="28" t="s">
         <v>424</v>
       </c>
@@ -11465,7 +11465,7 @@
       </c>
       <c r="I213" s="29"/>
     </row>
-    <row r="214" spans="1:9" ht="27">
+    <row r="214" spans="1:9" ht="30">
       <c r="A214" s="28" t="s">
         <v>426</v>
       </c>
@@ -11490,7 +11490,7 @@
       </c>
       <c r="I214" s="29"/>
     </row>
-    <row r="215" spans="1:9" ht="27">
+    <row r="215" spans="1:9" ht="30">
       <c r="A215" s="28" t="s">
         <v>428</v>
       </c>
@@ -11515,7 +11515,7 @@
       </c>
       <c r="I215" s="29"/>
     </row>
-    <row r="216" spans="1:9" ht="27">
+    <row r="216" spans="1:9" ht="30">
       <c r="A216" s="28" t="s">
         <v>430</v>
       </c>
@@ -11540,7 +11540,7 @@
       </c>
       <c r="I216" s="29"/>
     </row>
-    <row r="217" spans="1:9" ht="216">
+    <row r="217" spans="1:9" ht="225">
       <c r="A217" s="28" t="s">
         <v>416</v>
       </c>
@@ -11565,7 +11565,7 @@
       </c>
       <c r="I217" s="29"/>
     </row>
-    <row r="218" spans="1:9" ht="54">
+    <row r="218" spans="1:9" ht="60">
       <c r="A218" s="28" t="s">
         <v>434</v>
       </c>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="I218" s="29"/>
     </row>
-    <row r="219" spans="1:9" ht="27">
+    <row r="219" spans="1:9" ht="30">
       <c r="A219" s="28" t="s">
         <v>436</v>
       </c>
@@ -11615,7 +11615,7 @@
       </c>
       <c r="I219" s="29"/>
     </row>
-    <row r="220" spans="1:9" ht="27">
+    <row r="220" spans="1:9" ht="30">
       <c r="A220" s="28" t="s">
         <v>438</v>
       </c>
@@ -11640,7 +11640,7 @@
       </c>
       <c r="I220" s="29"/>
     </row>
-    <row r="221" spans="1:9" ht="27">
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="28" t="s">
         <v>440</v>
       </c>
@@ -11665,7 +11665,7 @@
       </c>
       <c r="I221" s="29"/>
     </row>
-    <row r="222" spans="1:9" ht="27">
+    <row r="222" spans="1:9" ht="30">
       <c r="A222" s="28" t="s">
         <v>442</v>
       </c>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="I222" s="29"/>
     </row>
-    <row r="223" spans="1:9" ht="40.5">
+    <row r="223" spans="1:9" ht="30">
       <c r="A223" s="28" t="s">
         <v>444</v>
       </c>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="I223" s="29"/>
     </row>
-    <row r="224" spans="1:9" ht="27">
+    <row r="224" spans="1:9" ht="30">
       <c r="A224" s="28" t="s">
         <v>445</v>
       </c>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="I224" s="29"/>
     </row>
-    <row r="225" spans="1:9" ht="135">
+    <row r="225" spans="1:9" ht="150">
       <c r="A225" s="28" t="s">
         <v>448</v>
       </c>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="I225" s="29"/>
     </row>
-    <row r="226" spans="1:9" ht="27">
+    <row r="226" spans="1:9" ht="30">
       <c r="A226" s="28" t="s">
         <v>450</v>
       </c>
@@ -11790,7 +11790,7 @@
       </c>
       <c r="I226" s="29"/>
     </row>
-    <row r="227" spans="1:9" ht="27">
+    <row r="227" spans="1:9" ht="30">
       <c r="A227" s="28" t="s">
         <v>452</v>
       </c>
@@ -11815,7 +11815,7 @@
       </c>
       <c r="I227" s="29"/>
     </row>
-    <row r="228" spans="1:9" ht="27">
+    <row r="228" spans="1:9" ht="30">
       <c r="A228" s="28" t="s">
         <v>454</v>
       </c>
@@ -11840,7 +11840,7 @@
       </c>
       <c r="I228" s="29"/>
     </row>
-    <row r="229" spans="1:9" ht="27">
+    <row r="229" spans="1:9" ht="30">
       <c r="A229" s="28" t="s">
         <v>456</v>
       </c>
@@ -11865,7 +11865,7 @@
       </c>
       <c r="I229" s="29"/>
     </row>
-    <row r="230" spans="1:9" ht="27">
+    <row r="230" spans="1:9" ht="30">
       <c r="A230" s="28" t="s">
         <v>458</v>
       </c>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="I230" s="29"/>
     </row>
-    <row r="231" spans="1:9" ht="27">
+    <row r="231" spans="1:9" ht="30">
       <c r="A231" s="28" t="s">
         <v>460</v>
       </c>
@@ -11915,7 +11915,7 @@
       </c>
       <c r="I231" s="29"/>
     </row>
-    <row r="232" spans="1:9" ht="27">
+    <row r="232" spans="1:9" ht="30">
       <c r="A232" s="28" t="s">
         <v>462</v>
       </c>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="I232" s="29"/>
     </row>
-    <row r="233" spans="1:9" ht="27">
+    <row r="233" spans="1:9" ht="30">
       <c r="A233" s="28" t="s">
         <v>464</v>
       </c>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="I233" s="29"/>
     </row>
-    <row r="234" spans="1:9" ht="27">
+    <row r="234" spans="1:9" ht="30">
       <c r="A234" s="28" t="s">
         <v>466</v>
       </c>
@@ -11990,7 +11990,7 @@
       </c>
       <c r="I234" s="29"/>
     </row>
-    <row r="235" spans="1:9" ht="27">
+    <row r="235" spans="1:9" ht="30">
       <c r="A235" s="28" t="s">
         <v>468</v>
       </c>
@@ -12015,7 +12015,7 @@
       </c>
       <c r="I235" s="29"/>
     </row>
-    <row r="236" spans="1:9" ht="27">
+    <row r="236" spans="1:9" ht="30">
       <c r="A236" s="28" t="s">
         <v>470</v>
       </c>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="I236" s="29"/>
     </row>
-    <row r="237" spans="1:9" ht="27">
+    <row r="237" spans="1:9" ht="30">
       <c r="A237" s="28" t="s">
         <v>472</v>
       </c>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="I237" s="29"/>
     </row>
-    <row r="238" spans="1:9" ht="27">
+    <row r="238" spans="1:9" ht="30">
       <c r="A238" s="28" t="s">
         <v>474</v>
       </c>
@@ -12090,7 +12090,7 @@
       </c>
       <c r="I238" s="29"/>
     </row>
-    <row r="239" spans="1:9" ht="27">
+    <row r="239" spans="1:9" ht="30">
       <c r="A239" s="28" t="s">
         <v>477</v>
       </c>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="I239" s="29"/>
     </row>
-    <row r="240" spans="1:9" ht="175.5">
+    <row r="240" spans="1:9" ht="195">
       <c r="A240" s="28" t="s">
         <v>479</v>
       </c>
@@ -12140,7 +12140,7 @@
       </c>
       <c r="I240" s="29"/>
     </row>
-    <row r="241" spans="1:9" ht="27">
+    <row r="241" spans="1:9" ht="30">
       <c r="A241" s="28" t="s">
         <v>481</v>
       </c>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="I241" s="29"/>
     </row>
-    <row r="242" spans="1:9" ht="40.5">
+    <row r="242" spans="1:9" ht="45">
       <c r="A242" s="28" t="s">
         <v>483</v>
       </c>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="I242" s="29"/>
     </row>
-    <row r="243" spans="1:9" ht="27">
+    <row r="243" spans="1:9" ht="30">
       <c r="A243" s="28" t="s">
         <v>485</v>
       </c>
@@ -12215,7 +12215,7 @@
       </c>
       <c r="I243" s="29"/>
     </row>
-    <row r="244" spans="1:9" ht="27">
+    <row r="244" spans="1:9" ht="30">
       <c r="A244" s="28" t="s">
         <v>487</v>
       </c>
@@ -12240,7 +12240,7 @@
       </c>
       <c r="I244" s="29"/>
     </row>
-    <row r="245" spans="1:9" ht="27">
+    <row r="245" spans="1:9" ht="30">
       <c r="A245" s="28" t="s">
         <v>489</v>
       </c>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I245" s="29"/>
     </row>
-    <row r="246" spans="1:9" ht="27">
+    <row r="246" spans="1:9" ht="30">
       <c r="A246" s="28" t="s">
         <v>491</v>
       </c>
@@ -12290,7 +12290,7 @@
       </c>
       <c r="I246" s="29"/>
     </row>
-    <row r="247" spans="1:9" ht="27">
+    <row r="247" spans="1:9" ht="30">
       <c r="A247" s="28" t="s">
         <v>493</v>
       </c>
@@ -12315,7 +12315,7 @@
       </c>
       <c r="I247" s="29"/>
     </row>
-    <row r="248" spans="1:9" ht="27">
+    <row r="248" spans="1:9" ht="30">
       <c r="A248" s="28" t="s">
         <v>495</v>
       </c>
@@ -12340,7 +12340,7 @@
       </c>
       <c r="I248" s="29"/>
     </row>
-    <row r="249" spans="1:9" ht="27">
+    <row r="249" spans="1:9" ht="30">
       <c r="A249" s="28" t="s">
         <v>497</v>
       </c>
@@ -12365,7 +12365,7 @@
       </c>
       <c r="I249" s="29"/>
     </row>
-    <row r="250" spans="1:9" ht="27">
+    <row r="250" spans="1:9" ht="30">
       <c r="A250" s="28" t="s">
         <v>499</v>
       </c>
@@ -12390,7 +12390,7 @@
       </c>
       <c r="I250" s="29"/>
     </row>
-    <row r="251" spans="1:9" ht="27">
+    <row r="251" spans="1:9" ht="30">
       <c r="A251" s="28" t="s">
         <v>501</v>
       </c>
@@ -12415,7 +12415,7 @@
       </c>
       <c r="I251" s="29"/>
     </row>
-    <row r="252" spans="1:9" ht="40.5">
+    <row r="252" spans="1:9" ht="30">
       <c r="A252" s="28" t="s">
         <v>503</v>
       </c>
@@ -12440,7 +12440,7 @@
       </c>
       <c r="I252" s="29"/>
     </row>
-    <row r="253" spans="1:9" ht="40.5">
+    <row r="253" spans="1:9" ht="30">
       <c r="A253" s="28" t="s">
         <v>505</v>
       </c>
@@ -12465,7 +12465,7 @@
       </c>
       <c r="I253" s="29"/>
     </row>
-    <row r="254" spans="1:9" ht="54">
+    <row r="254" spans="1:9" ht="45">
       <c r="A254" s="28" t="s">
         <v>507</v>
       </c>
@@ -12490,7 +12490,7 @@
       </c>
       <c r="I254" s="29"/>
     </row>
-    <row r="255" spans="1:9" ht="27">
+    <row r="255" spans="1:9" ht="30">
       <c r="A255" s="28" t="s">
         <v>509</v>
       </c>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="I255" s="29"/>
     </row>
-    <row r="256" spans="1:9" ht="27">
+    <row r="256" spans="1:9" ht="30">
       <c r="A256" s="28" t="s">
         <v>511</v>
       </c>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="I256" s="29"/>
     </row>
-    <row r="257" spans="1:9" ht="27">
+    <row r="257" spans="1:9" ht="30">
       <c r="A257" s="28" t="s">
         <v>513</v>
       </c>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="I257" s="29"/>
     </row>
-    <row r="258" spans="1:9" ht="27">
+    <row r="258" spans="1:9" ht="30">
       <c r="A258" s="28" t="s">
         <v>515</v>
       </c>
@@ -12590,7 +12590,7 @@
       </c>
       <c r="I258" s="29"/>
     </row>
-    <row r="259" spans="1:9" ht="27">
+    <row r="259" spans="1:9" ht="30">
       <c r="A259" s="28" t="s">
         <v>517</v>
       </c>
@@ -12615,7 +12615,7 @@
       </c>
       <c r="I259" s="29"/>
     </row>
-    <row r="260" spans="1:9" ht="27">
+    <row r="260" spans="1:9" ht="30">
       <c r="A260" s="28" t="s">
         <v>519</v>
       </c>
@@ -12640,7 +12640,7 @@
       </c>
       <c r="I260" s="29"/>
     </row>
-    <row r="261" spans="1:9" ht="27">
+    <row r="261" spans="1:9" ht="30">
       <c r="A261" s="28" t="s">
         <v>521</v>
       </c>
@@ -12665,7 +12665,7 @@
       </c>
       <c r="I261" s="29"/>
     </row>
-    <row r="262" spans="1:9" ht="27">
+    <row r="262" spans="1:9" ht="30">
       <c r="A262" s="28" t="s">
         <v>523</v>
       </c>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="I262" s="29"/>
     </row>
-    <row r="263" spans="1:9" ht="27">
+    <row r="263" spans="1:9" ht="30">
       <c r="A263" s="28" t="s">
         <v>525</v>
       </c>
@@ -12715,7 +12715,7 @@
       </c>
       <c r="I263" s="29"/>
     </row>
-    <row r="264" spans="1:9" ht="67.5">
+    <row r="264" spans="1:9" ht="75">
       <c r="A264" s="28" t="s">
         <v>528</v>
       </c>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="I264" s="29"/>
     </row>
-    <row r="265" spans="1:9" ht="27">
+    <row r="265" spans="1:9" ht="30">
       <c r="A265" s="28" t="s">
         <v>530</v>
       </c>
@@ -12765,7 +12765,7 @@
       </c>
       <c r="I265" s="29"/>
     </row>
-    <row r="266" spans="1:9" ht="40.5">
+    <row r="266" spans="1:9" ht="30">
       <c r="A266" s="28" t="s">
         <v>532</v>
       </c>
@@ -12790,7 +12790,7 @@
       </c>
       <c r="I266" s="29"/>
     </row>
-    <row r="267" spans="1:9" ht="40.5">
+    <row r="267" spans="1:9" ht="30">
       <c r="A267" s="28" t="s">
         <v>534</v>
       </c>
@@ -12815,7 +12815,7 @@
       </c>
       <c r="I267" s="29"/>
     </row>
-    <row r="268" spans="1:9" ht="27">
+    <row r="268" spans="1:9" ht="30">
       <c r="A268" s="28" t="s">
         <v>536</v>
       </c>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I268" s="29"/>
     </row>
-    <row r="269" spans="1:9" ht="27">
+    <row r="269" spans="1:9" ht="30">
       <c r="A269" s="28" t="s">
         <v>537</v>
       </c>
@@ -12865,7 +12865,7 @@
       </c>
       <c r="I269" s="29"/>
     </row>
-    <row r="270" spans="1:9" ht="27">
+    <row r="270" spans="1:9" ht="30">
       <c r="A270" s="28" t="s">
         <v>540</v>
       </c>
@@ -12890,7 +12890,7 @@
       </c>
       <c r="I270" s="29"/>
     </row>
-    <row r="271" spans="1:9" ht="27">
+    <row r="271" spans="1:9" ht="30">
       <c r="A271" s="28" t="s">
         <v>542</v>
       </c>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="I271" s="29"/>
     </row>
-    <row r="272" spans="1:9" ht="27">
+    <row r="272" spans="1:9" ht="30">
       <c r="A272" s="28" t="s">
         <v>544</v>
       </c>
@@ -12940,7 +12940,7 @@
       </c>
       <c r="I272" s="29"/>
     </row>
-    <row r="273" spans="1:9" ht="27">
+    <row r="273" spans="1:9" ht="30">
       <c r="A273" s="28" t="s">
         <v>547</v>
       </c>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="I273" s="29"/>
     </row>
-    <row r="274" spans="1:9" ht="27">
+    <row r="274" spans="1:9" ht="30">
       <c r="A274" s="28" t="s">
         <v>549</v>
       </c>
@@ -12990,7 +12990,7 @@
       </c>
       <c r="I274" s="29"/>
     </row>
-    <row r="275" spans="1:9" ht="40.5">
+    <row r="275" spans="1:9" ht="45">
       <c r="A275" s="28" t="s">
         <v>552</v>
       </c>
@@ -13015,7 +13015,7 @@
       </c>
       <c r="I275" s="29"/>
     </row>
-    <row r="276" spans="1:9" ht="27">
+    <row r="276" spans="1:9" ht="30">
       <c r="A276" s="28" t="s">
         <v>554</v>
       </c>
@@ -13040,7 +13040,7 @@
       </c>
       <c r="I276" s="29"/>
     </row>
-    <row r="277" spans="1:9" ht="67.5">
+    <row r="277" spans="1:9" ht="60">
       <c r="A277" s="28" t="s">
         <v>557</v>
       </c>
@@ -13065,7 +13065,7 @@
       </c>
       <c r="I277" s="29"/>
     </row>
-    <row r="278" spans="1:9" ht="40.5">
+    <row r="278" spans="1:9" ht="30">
       <c r="A278" s="28" t="s">
         <v>559</v>
       </c>
@@ -13090,7 +13090,7 @@
       </c>
       <c r="I278" s="29"/>
     </row>
-    <row r="279" spans="1:9" ht="40.5">
+    <row r="279" spans="1:9" ht="30">
       <c r="A279" s="28" t="s">
         <v>560</v>
       </c>
@@ -13115,7 +13115,7 @@
       </c>
       <c r="I279" s="29"/>
     </row>
-    <row r="280" spans="1:9" ht="81">
+    <row r="280" spans="1:9" ht="75">
       <c r="A280" s="28" t="s">
         <v>562</v>
       </c>
@@ -13140,7 +13140,7 @@
       </c>
       <c r="I280" s="29"/>
     </row>
-    <row r="281" spans="1:9" ht="27">
+    <row r="281" spans="1:9" ht="30">
       <c r="A281" s="28" t="s">
         <v>564</v>
       </c>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="I281" s="29"/>
     </row>
-    <row r="282" spans="1:9" ht="40.5">
+    <row r="282" spans="1:9" ht="30">
       <c r="A282" s="28" t="s">
         <v>566</v>
       </c>
@@ -13190,7 +13190,7 @@
       </c>
       <c r="I282" s="29"/>
     </row>
-    <row r="283" spans="1:9" ht="27">
+    <row r="283" spans="1:9" ht="30">
       <c r="A283" s="28" t="s">
         <v>568</v>
       </c>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="I283" s="29"/>
     </row>
-    <row r="284" spans="1:9" ht="40.5">
+    <row r="284" spans="1:9" ht="45">
       <c r="A284" s="28" t="s">
         <v>571</v>
       </c>
@@ -13240,7 +13240,7 @@
       </c>
       <c r="I284" s="29"/>
     </row>
-    <row r="285" spans="1:9" ht="27">
+    <row r="285" spans="1:9" ht="30">
       <c r="A285" s="28" t="s">
         <v>573</v>
       </c>
@@ -13265,7 +13265,7 @@
       </c>
       <c r="I285" s="29"/>
     </row>
-    <row r="286" spans="1:9" ht="27">
+    <row r="286" spans="1:9" ht="30">
       <c r="A286" s="28" t="s">
         <v>575</v>
       </c>
@@ -13290,7 +13290,7 @@
       </c>
       <c r="I286" s="29"/>
     </row>
-    <row r="287" spans="1:9" ht="27">
+    <row r="287" spans="1:9" ht="30">
       <c r="A287" s="28" t="s">
         <v>578</v>
       </c>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="I287" s="29"/>
     </row>
-    <row r="288" spans="1:9" ht="27">
+    <row r="288" spans="1:9" ht="30">
       <c r="A288" s="28" t="s">
         <v>580</v>
       </c>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="I289" s="29"/>
     </row>
-    <row r="290" spans="1:9" ht="27">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="28" t="s">
         <v>585</v>
       </c>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="I290" s="29"/>
     </row>
-    <row r="291" spans="1:9" ht="27">
+    <row r="291" spans="1:9" ht="30">
       <c r="A291" s="28" t="s">
         <v>587</v>
       </c>
@@ -13415,7 +13415,7 @@
       </c>
       <c r="I291" s="29"/>
     </row>
-    <row r="292" spans="1:9" ht="27">
+    <row r="292" spans="1:9" ht="30">
       <c r="A292" s="28" t="s">
         <v>588</v>
       </c>
@@ -13440,7 +13440,7 @@
       </c>
       <c r="I292" s="29"/>
     </row>
-    <row r="293" spans="1:9" ht="40.5">
+    <row r="293" spans="1:9" ht="30">
       <c r="A293" s="28" t="s">
         <v>590</v>
       </c>
@@ -13465,7 +13465,7 @@
       </c>
       <c r="I293" s="29"/>
     </row>
-    <row r="294" spans="1:9" ht="27">
+    <row r="294" spans="1:9" ht="30">
       <c r="A294" s="28" t="s">
         <v>591</v>
       </c>
@@ -13490,7 +13490,7 @@
       </c>
       <c r="I294" s="29"/>
     </row>
-    <row r="295" spans="1:9" ht="27">
+    <row r="295" spans="1:9" ht="30">
       <c r="A295" s="28" t="s">
         <v>593</v>
       </c>
@@ -13515,7 +13515,7 @@
       </c>
       <c r="I295" s="29"/>
     </row>
-    <row r="296" spans="1:9" ht="27">
+    <row r="296" spans="1:9" ht="30">
       <c r="A296" s="28" t="s">
         <v>595</v>
       </c>
@@ -13540,7 +13540,7 @@
       </c>
       <c r="I296" s="29"/>
     </row>
-    <row r="297" spans="1:9" ht="27">
+    <row r="297" spans="1:9" ht="30">
       <c r="A297" s="28" t="s">
         <v>597</v>
       </c>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="I297" s="29"/>
     </row>
-    <row r="298" spans="1:9" ht="27">
+    <row r="298" spans="1:9" ht="30">
       <c r="A298" s="28" t="s">
         <v>599</v>
       </c>
@@ -13590,7 +13590,7 @@
       </c>
       <c r="I298" s="29"/>
     </row>
-    <row r="299" spans="1:9" ht="27">
+    <row r="299" spans="1:9" ht="30">
       <c r="A299" s="28" t="s">
         <v>601</v>
       </c>
@@ -13640,7 +13640,7 @@
       </c>
       <c r="I300" s="29"/>
     </row>
-    <row r="301" spans="1:9" ht="121.5">
+    <row r="301" spans="1:9" ht="105">
       <c r="A301" s="28" t="s">
         <v>607</v>
       </c>
@@ -13665,7 +13665,7 @@
       </c>
       <c r="I301" s="29"/>
     </row>
-    <row r="302" spans="1:9" ht="27">
+    <row r="302" spans="1:9" ht="30">
       <c r="A302" s="28" t="s">
         <v>609</v>
       </c>
@@ -13690,7 +13690,7 @@
       </c>
       <c r="I302" s="29"/>
     </row>
-    <row r="303" spans="1:9" ht="40.5">
+    <row r="303" spans="1:9" ht="30">
       <c r="A303" s="28" t="s">
         <v>611</v>
       </c>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="I303" s="29"/>
     </row>
-    <row r="304" spans="1:9" ht="40.5">
+    <row r="304" spans="1:9" ht="30">
       <c r="A304" s="28" t="s">
         <v>613</v>
       </c>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="I304" s="29"/>
     </row>
-    <row r="305" spans="1:9" ht="27">
+    <row r="305" spans="1:9" ht="30">
       <c r="A305" s="28" t="s">
         <v>615</v>
       </c>
@@ -13765,7 +13765,7 @@
       </c>
       <c r="I305" s="29"/>
     </row>
-    <row r="306" spans="1:9" ht="40.5">
+    <row r="306" spans="1:9" ht="45">
       <c r="A306" s="28" t="s">
         <v>617</v>
       </c>
@@ -13790,7 +13790,7 @@
       </c>
       <c r="I306" s="29"/>
     </row>
-    <row r="307" spans="1:9" ht="40.5">
+    <row r="307" spans="1:9" ht="30">
       <c r="A307" s="28" t="s">
         <v>618</v>
       </c>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="I307" s="29"/>
     </row>
-    <row r="308" spans="1:9" ht="27">
+    <row r="308" spans="1:9" ht="30">
       <c r="A308" s="28" t="s">
         <v>619</v>
       </c>
@@ -13840,7 +13840,7 @@
       </c>
       <c r="I308" s="29"/>
     </row>
-    <row r="309" spans="1:9" ht="27">
+    <row r="309" spans="1:9" ht="30">
       <c r="A309" s="28" t="s">
         <v>621</v>
       </c>
@@ -13865,7 +13865,7 @@
       </c>
       <c r="I309" s="29"/>
     </row>
-    <row r="310" spans="1:9" ht="27">
+    <row r="310" spans="1:9" ht="30">
       <c r="A310" s="28" t="s">
         <v>623</v>
       </c>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="I310" s="29"/>
     </row>
-    <row r="311" spans="1:9" ht="27">
+    <row r="311" spans="1:9" ht="30">
       <c r="A311" s="28" t="s">
         <v>625</v>
       </c>
@@ -13915,7 +13915,7 @@
       </c>
       <c r="I311" s="29"/>
     </row>
-    <row r="312" spans="1:9" ht="108">
+    <row r="312" spans="1:9" ht="120">
       <c r="A312" s="28" t="s">
         <v>626</v>
       </c>
@@ -13940,7 +13940,7 @@
       </c>
       <c r="I312" s="29"/>
     </row>
-    <row r="313" spans="1:9" ht="27">
+    <row r="313" spans="1:9" ht="30">
       <c r="A313" s="28" t="s">
         <v>628</v>
       </c>
@@ -13965,7 +13965,7 @@
       </c>
       <c r="I313" s="29"/>
     </row>
-    <row r="314" spans="1:9" ht="27">
+    <row r="314" spans="1:9" ht="30">
       <c r="A314" s="28" t="s">
         <v>630</v>
       </c>
@@ -13990,7 +13990,7 @@
       </c>
       <c r="I314" s="29"/>
     </row>
-    <row r="315" spans="1:9" ht="27">
+    <row r="315" spans="1:9" ht="30">
       <c r="A315" s="28" t="s">
         <v>632</v>
       </c>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="I315" s="29"/>
     </row>
-    <row r="316" spans="1:9" ht="121.5">
+    <row r="316" spans="1:9" ht="120">
       <c r="A316" s="28" t="s">
         <v>634</v>
       </c>
@@ -14040,7 +14040,7 @@
       </c>
       <c r="I316" s="29"/>
     </row>
-    <row r="317" spans="1:9" ht="108">
+    <row r="317" spans="1:9" ht="120">
       <c r="A317" s="28" t="s">
         <v>636</v>
       </c>
@@ -14065,7 +14065,7 @@
       </c>
       <c r="I317" s="29"/>
     </row>
-    <row r="318" spans="1:9" ht="27">
+    <row r="318" spans="1:9" ht="30">
       <c r="A318" s="28" t="s">
         <v>637</v>
       </c>
@@ -14090,7 +14090,7 @@
       </c>
       <c r="I318" s="29"/>
     </row>
-    <row r="319" spans="1:9" ht="27">
+    <row r="319" spans="1:9" ht="30">
       <c r="A319" s="28" t="s">
         <v>639</v>
       </c>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="I319" s="29"/>
     </row>
-    <row r="320" spans="1:9" ht="27">
+    <row r="320" spans="1:9" ht="30">
       <c r="A320" s="28" t="s">
         <v>641</v>
       </c>
@@ -14140,7 +14140,7 @@
       </c>
       <c r="I320" s="29"/>
     </row>
-    <row r="321" spans="1:9" ht="27">
+    <row r="321" spans="1:9" ht="30">
       <c r="A321" s="28" t="s">
         <v>643</v>
       </c>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="I321" s="29"/>
     </row>
-    <row r="322" spans="1:9" ht="27">
+    <row r="322" spans="1:9" ht="30">
       <c r="A322" s="28" t="s">
         <v>645</v>
       </c>
@@ -14190,7 +14190,7 @@
       </c>
       <c r="I322" s="29"/>
     </row>
-    <row r="323" spans="1:9" ht="27">
+    <row r="323" spans="1:9" ht="30">
       <c r="A323" s="28" t="s">
         <v>647</v>
       </c>
@@ -14215,7 +14215,7 @@
       </c>
       <c r="I323" s="29"/>
     </row>
-    <row r="324" spans="1:9" ht="27">
+    <row r="324" spans="1:9" ht="30">
       <c r="A324" s="28" t="s">
         <v>649</v>
       </c>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="I324" s="29"/>
     </row>
-    <row r="325" spans="1:9" ht="27">
+    <row r="325" spans="1:9" ht="30">
       <c r="A325" s="28" t="s">
         <v>651</v>
       </c>
@@ -14265,7 +14265,7 @@
       </c>
       <c r="I325" s="29"/>
     </row>
-    <row r="326" spans="1:9" ht="148.5">
+    <row r="326" spans="1:9" ht="135">
       <c r="A326" s="28" t="s">
         <v>653</v>
       </c>
@@ -14290,7 +14290,7 @@
       </c>
       <c r="I326" s="29"/>
     </row>
-    <row r="327" spans="1:9" ht="27">
+    <row r="327" spans="1:9" ht="30">
       <c r="A327" s="34" t="s">
         <v>654</v>
       </c>
@@ -14315,7 +14315,7 @@
       </c>
       <c r="I327" s="35"/>
     </row>
-    <row r="328" spans="1:9" ht="27">
+    <row r="328" spans="1:9" ht="30">
       <c r="A328" s="28" t="s">
         <v>656</v>
       </c>
@@ -14340,7 +14340,7 @@
       </c>
       <c r="I328" s="29"/>
     </row>
-    <row r="329" spans="1:9" ht="27">
+    <row r="329" spans="1:9" ht="30">
       <c r="A329" s="28" t="s">
         <v>658</v>
       </c>
@@ -14365,7 +14365,7 @@
       </c>
       <c r="I329" s="29"/>
     </row>
-    <row r="330" spans="1:9" ht="27">
+    <row r="330" spans="1:9" ht="30">
       <c r="A330" s="28" t="s">
         <v>660</v>
       </c>
@@ -14390,7 +14390,7 @@
       </c>
       <c r="I330" s="29"/>
     </row>
-    <row r="331" spans="1:9" ht="27">
+    <row r="331" spans="1:9" ht="30">
       <c r="A331" s="28" t="s">
         <v>662</v>
       </c>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="I331" s="29"/>
     </row>
-    <row r="332" spans="1:9" ht="27">
+    <row r="332" spans="1:9" ht="30">
       <c r="A332" s="28" t="s">
         <v>663</v>
       </c>
@@ -14440,7 +14440,7 @@
       </c>
       <c r="I332" s="29"/>
     </row>
-    <row r="333" spans="1:9" ht="27">
+    <row r="333" spans="1:9" ht="30">
       <c r="A333" s="28" t="s">
         <v>665</v>
       </c>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="I333" s="29"/>
     </row>
-    <row r="334" spans="1:9" ht="27">
+    <row r="334" spans="1:9" ht="30">
       <c r="A334" s="28" t="s">
         <v>666</v>
       </c>
@@ -14490,7 +14490,7 @@
       </c>
       <c r="I334" s="29"/>
     </row>
-    <row r="335" spans="1:9" ht="27">
+    <row r="335" spans="1:9" ht="30">
       <c r="A335" s="28" t="s">
         <v>668</v>
       </c>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="I335" s="29"/>
     </row>
-    <row r="336" spans="1:9" ht="27">
+    <row r="336" spans="1:9" ht="30">
       <c r="A336" s="28" t="s">
         <v>669</v>
       </c>
@@ -14540,7 +14540,7 @@
       </c>
       <c r="I336" s="29"/>
     </row>
-    <row r="337" spans="1:9" ht="67.5">
+    <row r="337" spans="1:9" ht="75">
       <c r="A337" s="28" t="s">
         <v>671</v>
       </c>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="I337" s="29"/>
     </row>
-    <row r="338" spans="1:9" ht="27">
+    <row r="338" spans="1:9" ht="30">
       <c r="A338" s="28" t="s">
         <v>673</v>
       </c>
@@ -14590,7 +14590,7 @@
       </c>
       <c r="I338" s="29"/>
     </row>
-    <row r="339" spans="1:9" ht="40.5">
+    <row r="339" spans="1:9" ht="45">
       <c r="A339" s="28" t="s">
         <v>675</v>
       </c>
@@ -14615,7 +14615,7 @@
       </c>
       <c r="I339" s="29"/>
     </row>
-    <row r="340" spans="1:9" ht="27">
+    <row r="340" spans="1:9" ht="30">
       <c r="A340" s="28" t="s">
         <v>677</v>
       </c>
@@ -14640,7 +14640,7 @@
       </c>
       <c r="I340" s="29"/>
     </row>
-    <row r="341" spans="1:9" ht="40.5">
+    <row r="341" spans="1:9" ht="45">
       <c r="A341" s="28" t="s">
         <v>680</v>
       </c>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I341" s="29"/>
     </row>
-    <row r="342" spans="1:9" ht="27">
+    <row r="342" spans="1:9" ht="30">
       <c r="A342" s="28" t="s">
         <v>682</v>
       </c>
@@ -14690,7 +14690,7 @@
       </c>
       <c r="I342" s="29"/>
     </row>
-    <row r="343" spans="1:9" ht="27">
+    <row r="343" spans="1:9" ht="30">
       <c r="A343" s="28" t="s">
         <v>684</v>
       </c>
@@ -14715,7 +14715,7 @@
       </c>
       <c r="I343" s="29"/>
     </row>
-    <row r="344" spans="1:9" ht="27">
+    <row r="344" spans="1:9" ht="30">
       <c r="A344" s="28" t="s">
         <v>687</v>
       </c>
@@ -14740,7 +14740,7 @@
       </c>
       <c r="I344" s="29"/>
     </row>
-    <row r="345" spans="1:9" ht="27">
+    <row r="345" spans="1:9" ht="30">
       <c r="A345" s="28" t="s">
         <v>689</v>
       </c>
@@ -14765,7 +14765,7 @@
       </c>
       <c r="I345" s="29"/>
     </row>
-    <row r="346" spans="1:9" ht="27">
+    <row r="346" spans="1:9" ht="30">
       <c r="A346" s="28" t="s">
         <v>691</v>
       </c>
@@ -14790,7 +14790,7 @@
       </c>
       <c r="I346" s="29"/>
     </row>
-    <row r="347" spans="1:9" ht="121.5">
+    <row r="347" spans="1:9" ht="120">
       <c r="A347" s="28" t="s">
         <v>694</v>
       </c>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="I347" s="29"/>
     </row>
-    <row r="348" spans="1:9" ht="27">
+    <row r="348" spans="1:9" ht="30">
       <c r="A348" s="28" t="s">
         <v>696</v>
       </c>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="I348" s="29"/>
     </row>
-    <row r="349" spans="1:9" ht="27">
+    <row r="349" spans="1:9" ht="30">
       <c r="A349" s="28" t="s">
         <v>697</v>
       </c>
@@ -14865,7 +14865,7 @@
       </c>
       <c r="I349" s="29"/>
     </row>
-    <row r="350" spans="1:9" ht="27">
+    <row r="350" spans="1:9" ht="30">
       <c r="A350" s="28" t="s">
         <v>699</v>
       </c>
@@ -14915,7 +14915,7 @@
       </c>
       <c r="I351" s="42"/>
     </row>
-    <row r="352" spans="1:9" ht="27">
+    <row r="352" spans="1:9" ht="30">
       <c r="A352" s="28" t="s">
         <v>701</v>
       </c>
@@ -14940,7 +14940,7 @@
       </c>
       <c r="I352" s="29"/>
     </row>
-    <row r="353" spans="1:9" ht="297">
+    <row r="353" spans="1:9" ht="300">
       <c r="A353" s="28" t="s">
         <v>704</v>
       </c>
@@ -14965,7 +14965,7 @@
       </c>
       <c r="I353" s="29"/>
     </row>
-    <row r="354" spans="1:9" ht="67.5">
+    <row r="354" spans="1:9" ht="75">
       <c r="A354" s="28" t="s">
         <v>706</v>
       </c>
@@ -14990,7 +14990,7 @@
       </c>
       <c r="I354" s="29"/>
     </row>
-    <row r="355" spans="1:9" ht="27">
+    <row r="355" spans="1:9" ht="30">
       <c r="A355" s="28" t="s">
         <v>708</v>
       </c>
@@ -15015,7 +15015,7 @@
       </c>
       <c r="I355" s="29"/>
     </row>
-    <row r="356" spans="1:9" ht="27">
+    <row r="356" spans="1:9" ht="30">
       <c r="A356" s="28" t="s">
         <v>710</v>
       </c>
@@ -15040,7 +15040,7 @@
       </c>
       <c r="I356" s="29"/>
     </row>
-    <row r="357" spans="1:9" ht="27">
+    <row r="357" spans="1:9" ht="30">
       <c r="A357" s="28" t="s">
         <v>712</v>
       </c>
@@ -15065,7 +15065,7 @@
       </c>
       <c r="I357" s="29"/>
     </row>
-    <row r="358" spans="1:9" ht="27">
+    <row r="358" spans="1:9" ht="30">
       <c r="A358" s="28" t="s">
         <v>714</v>
       </c>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="I358" s="29"/>
     </row>
-    <row r="359" spans="1:9" ht="27">
+    <row r="359" spans="1:9" ht="30">
       <c r="A359" s="28" t="s">
         <v>716</v>
       </c>
@@ -15115,7 +15115,7 @@
       </c>
       <c r="I359" s="29"/>
     </row>
-    <row r="360" spans="1:9" ht="27">
+    <row r="360" spans="1:9" ht="30">
       <c r="A360" s="28" t="s">
         <v>718</v>
       </c>
@@ -15140,7 +15140,7 @@
       </c>
       <c r="I360" s="29"/>
     </row>
-    <row r="361" spans="1:9" ht="67.5">
+    <row r="361" spans="1:9" ht="75">
       <c r="A361" s="28" t="s">
         <v>720</v>
       </c>
@@ -15165,7 +15165,7 @@
       </c>
       <c r="I361" s="29"/>
     </row>
-    <row r="362" spans="1:9" ht="27">
+    <row r="362" spans="1:9" ht="30">
       <c r="A362" s="28" t="s">
         <v>722</v>
       </c>
@@ -15190,7 +15190,7 @@
       </c>
       <c r="I362" s="29"/>
     </row>
-    <row r="363" spans="1:9" ht="40.5">
+    <row r="363" spans="1:9" ht="30">
       <c r="A363" s="28" t="s">
         <v>724</v>
       </c>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="I363" s="29"/>
     </row>
-    <row r="364" spans="1:9" ht="54">
+    <row r="364" spans="1:9" ht="45">
       <c r="A364" s="28" t="s">
         <v>726</v>
       </c>
@@ -15240,7 +15240,7 @@
       </c>
       <c r="I364" s="29"/>
     </row>
-    <row r="365" spans="1:9" ht="27">
+    <row r="365" spans="1:9" ht="30">
       <c r="A365" s="28" t="s">
         <v>727</v>
       </c>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="I365" s="29"/>
     </row>
-    <row r="366" spans="1:9" ht="40.5">
+    <row r="366" spans="1:9" ht="30">
       <c r="A366" s="28" t="s">
         <v>730</v>
       </c>
@@ -15290,7 +15290,7 @@
       </c>
       <c r="I366" s="29"/>
     </row>
-    <row r="367" spans="1:9" ht="27">
+    <row r="367" spans="1:9" ht="30">
       <c r="A367" s="28" t="s">
         <v>732</v>
       </c>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="I367" s="29"/>
     </row>
-    <row r="368" spans="1:9" ht="27">
+    <row r="368" spans="1:9" ht="30">
       <c r="A368" s="28" t="s">
         <v>734</v>
       </c>
@@ -15340,7 +15340,7 @@
       </c>
       <c r="I368" s="29"/>
     </row>
-    <row r="369" spans="1:9" ht="27">
+    <row r="369" spans="1:9" ht="30">
       <c r="A369" s="28" t="s">
         <v>737</v>
       </c>
@@ -15365,7 +15365,7 @@
       </c>
       <c r="I369" s="29"/>
     </row>
-    <row r="370" spans="1:9" ht="27">
+    <row r="370" spans="1:9" ht="30">
       <c r="A370" s="28" t="s">
         <v>739</v>
       </c>
@@ -15390,7 +15390,7 @@
       </c>
       <c r="I370" s="29"/>
     </row>
-    <row r="371" spans="1:9" ht="162">
+    <row r="371" spans="1:9" ht="180">
       <c r="A371" s="28" t="s">
         <v>742</v>
       </c>
@@ -15415,7 +15415,7 @@
       </c>
       <c r="I371" s="29"/>
     </row>
-    <row r="372" spans="1:9" ht="27">
+    <row r="372" spans="1:9" ht="30">
       <c r="A372" s="28" t="s">
         <v>744</v>
       </c>
@@ -15440,7 +15440,7 @@
       </c>
       <c r="I372" s="29"/>
     </row>
-    <row r="373" spans="1:9" ht="27">
+    <row r="373" spans="1:9" ht="30">
       <c r="A373" s="28" t="s">
         <v>746</v>
       </c>
@@ -15465,7 +15465,7 @@
       </c>
       <c r="I373" s="29"/>
     </row>
-    <row r="374" spans="1:9" ht="27">
+    <row r="374" spans="1:9" ht="30">
       <c r="A374" s="28" t="s">
         <v>748</v>
       </c>
@@ -15490,7 +15490,7 @@
       </c>
       <c r="I374" s="29"/>
     </row>
-    <row r="375" spans="1:9" ht="27">
+    <row r="375" spans="1:9" ht="30">
       <c r="A375" s="28" t="s">
         <v>750</v>
       </c>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="I375" s="29"/>
     </row>
-    <row r="376" spans="1:9" ht="27">
+    <row r="376" spans="1:9" ht="30">
       <c r="A376" s="28" t="s">
         <v>752</v>
       </c>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="I376" s="29"/>
     </row>
-    <row r="377" spans="1:9" ht="40.5">
+    <row r="377" spans="1:9" ht="45">
       <c r="A377" s="28" t="s">
         <v>754</v>
       </c>
@@ -15565,7 +15565,7 @@
       </c>
       <c r="I377" s="29"/>
     </row>
-    <row r="378" spans="1:9" ht="27">
+    <row r="378" spans="1:9" ht="30">
       <c r="A378" s="28" t="s">
         <v>756</v>
       </c>
@@ -15590,7 +15590,7 @@
       </c>
       <c r="I378" s="29"/>
     </row>
-    <row r="379" spans="1:9" ht="27">
+    <row r="379" spans="1:9" ht="30">
       <c r="A379" s="28" t="s">
         <v>758</v>
       </c>
@@ -15615,7 +15615,7 @@
       </c>
       <c r="I379" s="29"/>
     </row>
-    <row r="380" spans="1:9" ht="27">
+    <row r="380" spans="1:9" ht="30">
       <c r="A380" s="28" t="s">
         <v>760</v>
       </c>
@@ -15665,7 +15665,7 @@
       </c>
       <c r="I381" s="42"/>
     </row>
-    <row r="382" spans="1:9" ht="27">
+    <row r="382" spans="1:9" ht="30">
       <c r="A382" s="28" t="s">
         <v>762</v>
       </c>
@@ -15690,7 +15690,7 @@
       </c>
       <c r="I382" s="29"/>
     </row>
-    <row r="383" spans="1:9" ht="67.5">
+    <row r="383" spans="1:9" ht="60">
       <c r="A383" s="28" t="s">
         <v>765</v>
       </c>
@@ -15715,7 +15715,7 @@
       </c>
       <c r="I383" s="29"/>
     </row>
-    <row r="384" spans="1:9" ht="27">
+    <row r="384" spans="1:9" ht="30">
       <c r="A384" s="28" t="s">
         <v>767</v>
       </c>
@@ -15740,7 +15740,7 @@
       </c>
       <c r="I384" s="29"/>
     </row>
-    <row r="385" spans="1:9" ht="67.5">
+    <row r="385" spans="1:9" ht="75">
       <c r="A385" s="28" t="s">
         <v>770</v>
       </c>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="I385" s="29"/>
     </row>
-    <row r="386" spans="1:9" ht="27">
+    <row r="386" spans="1:9" ht="30">
       <c r="A386" s="28" t="s">
         <v>772</v>
       </c>
@@ -15790,7 +15790,7 @@
       </c>
       <c r="I386" s="29"/>
     </row>
-    <row r="387" spans="1:9" ht="40.5">
+    <row r="387" spans="1:9" ht="30">
       <c r="A387" s="28" t="s">
         <v>774</v>
       </c>
@@ -15815,7 +15815,7 @@
       </c>
       <c r="I387" s="29"/>
     </row>
-    <row r="388" spans="1:9" ht="27">
+    <row r="388" spans="1:9" ht="30">
       <c r="A388" s="28" t="s">
         <v>776</v>
       </c>
@@ -15840,7 +15840,7 @@
       </c>
       <c r="I388" s="29"/>
     </row>
-    <row r="389" spans="1:9" ht="40.5">
+    <row r="389" spans="1:9" ht="30">
       <c r="A389" s="28" t="s">
         <v>778</v>
       </c>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I389" s="29"/>
     </row>
-    <row r="390" spans="1:9" ht="40.5">
+    <row r="390" spans="1:9" ht="30">
       <c r="A390" s="28" t="s">
         <v>780</v>
       </c>
@@ -15890,7 +15890,7 @@
       </c>
       <c r="I390" s="29"/>
     </row>
-    <row r="391" spans="1:9" ht="27">
+    <row r="391" spans="1:9" ht="30">
       <c r="A391" s="28" t="s">
         <v>782</v>
       </c>
@@ -15915,7 +15915,7 @@
       </c>
       <c r="I391" s="29"/>
     </row>
-    <row r="392" spans="1:9" ht="40.5">
+    <row r="392" spans="1:9" ht="45">
       <c r="A392" s="28" t="s">
         <v>785</v>
       </c>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="I392" s="29"/>
     </row>
-    <row r="393" spans="1:9" ht="27">
+    <row r="393" spans="1:9" ht="30">
       <c r="A393" s="28" t="s">
         <v>787</v>
       </c>
@@ -15965,7 +15965,7 @@
       </c>
       <c r="I393" s="29"/>
     </row>
-    <row r="394" spans="1:9" ht="27">
+    <row r="394" spans="1:9" ht="30">
       <c r="A394" s="28" t="s">
         <v>789</v>
       </c>
@@ -15990,7 +15990,7 @@
       </c>
       <c r="I394" s="29"/>
     </row>
-    <row r="395" spans="1:9" ht="27">
+    <row r="395" spans="1:9" ht="30">
       <c r="A395" s="28" t="s">
         <v>792</v>
       </c>
@@ -16015,7 +16015,7 @@
       </c>
       <c r="I395" s="29"/>
     </row>
-    <row r="396" spans="1:9" ht="27">
+    <row r="396" spans="1:9" ht="30">
       <c r="A396" s="28" t="s">
         <v>794</v>
       </c>
@@ -16040,7 +16040,7 @@
       </c>
       <c r="I396" s="29"/>
     </row>
-    <row r="397" spans="1:9" ht="108">
+    <row r="397" spans="1:9" ht="120">
       <c r="A397" s="28" t="s">
         <v>797</v>
       </c>
@@ -16065,7 +16065,7 @@
       </c>
       <c r="I397" s="29"/>
     </row>
-    <row r="398" spans="1:9" ht="27">
+    <row r="398" spans="1:9" ht="30">
       <c r="A398" s="28" t="s">
         <v>799</v>
       </c>
@@ -16090,7 +16090,7 @@
       </c>
       <c r="I398" s="29"/>
     </row>
-    <row r="399" spans="1:9" ht="27">
+    <row r="399" spans="1:9" ht="30">
       <c r="A399" s="28" t="s">
         <v>801</v>
       </c>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="I399" s="29"/>
     </row>
-    <row r="400" spans="1:9" ht="40.5">
+    <row r="400" spans="1:9" ht="30">
       <c r="A400" s="28" t="s">
         <v>804</v>
       </c>
@@ -16140,7 +16140,7 @@
       </c>
       <c r="I400" s="29"/>
     </row>
-    <row r="401" spans="1:9" ht="40.5">
+    <row r="401" spans="1:9" ht="45">
       <c r="A401" s="28" t="s">
         <v>806</v>
       </c>
@@ -16165,7 +16165,7 @@
       </c>
       <c r="I401" s="29"/>
     </row>
-    <row r="402" spans="1:9" ht="27">
+    <row r="402" spans="1:9" ht="30">
       <c r="A402" s="28" t="s">
         <v>808</v>
       </c>
@@ -16190,7 +16190,7 @@
       </c>
       <c r="I402" s="29"/>
     </row>
-    <row r="403" spans="1:9" ht="27">
+    <row r="403" spans="1:9" ht="30">
       <c r="A403" s="28" t="s">
         <v>810</v>
       </c>
@@ -16215,7 +16215,7 @@
       </c>
       <c r="I403" s="29"/>
     </row>
-    <row r="404" spans="1:9" ht="81">
+    <row r="404" spans="1:9" ht="75">
       <c r="A404" s="28" t="s">
         <v>813</v>
       </c>
@@ -16240,7 +16240,7 @@
       </c>
       <c r="I404" s="29"/>
     </row>
-    <row r="405" spans="1:9" ht="27">
+    <row r="405" spans="1:9" ht="30">
       <c r="A405" s="28" t="s">
         <v>815</v>
       </c>
@@ -16265,7 +16265,7 @@
       </c>
       <c r="I405" s="29"/>
     </row>
-    <row r="406" spans="1:9" ht="40.5">
+    <row r="406" spans="1:9" ht="30">
       <c r="A406" s="28" t="s">
         <v>817</v>
       </c>
@@ -16290,7 +16290,7 @@
       </c>
       <c r="I406" s="29"/>
     </row>
-    <row r="407" spans="1:9" ht="40.5">
+    <row r="407" spans="1:9" ht="30">
       <c r="A407" s="28" t="s">
         <v>819</v>
       </c>
@@ -16315,7 +16315,7 @@
       </c>
       <c r="I407" s="29"/>
     </row>
-    <row r="408" spans="1:9" ht="27">
+    <row r="408" spans="1:9" ht="30">
       <c r="A408" s="28" t="s">
         <v>821</v>
       </c>
@@ -16340,7 +16340,7 @@
       </c>
       <c r="I408" s="29"/>
     </row>
-    <row r="409" spans="1:9" ht="40.5">
+    <row r="409" spans="1:9" ht="30">
       <c r="A409" s="28" t="s">
         <v>824</v>
       </c>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="I409" s="29"/>
     </row>
-    <row r="410" spans="1:9" ht="27">
+    <row r="410" spans="1:9" ht="30">
       <c r="A410" s="28" t="s">
         <v>826</v>
       </c>
@@ -16390,7 +16390,7 @@
       </c>
       <c r="I410" s="29"/>
     </row>
-    <row r="411" spans="1:9" ht="27">
+    <row r="411" spans="1:9" ht="30">
       <c r="A411" s="28" t="s">
         <v>828</v>
       </c>
@@ -16415,7 +16415,7 @@
       </c>
       <c r="I411" s="29"/>
     </row>
-    <row r="412" spans="1:9" ht="27">
+    <row r="412" spans="1:9" ht="30">
       <c r="A412" s="28" t="s">
         <v>831</v>
       </c>
@@ -16440,7 +16440,7 @@
       </c>
       <c r="I412" s="29"/>
     </row>
-    <row r="413" spans="1:9" ht="27">
+    <row r="413" spans="1:9" ht="30">
       <c r="A413" s="28" t="s">
         <v>833</v>
       </c>
@@ -16465,7 +16465,7 @@
       </c>
       <c r="I413" s="29"/>
     </row>
-    <row r="414" spans="1:9" ht="216">
+    <row r="414" spans="1:9" ht="210">
       <c r="A414" s="28" t="s">
         <v>835</v>
       </c>
@@ -16490,7 +16490,7 @@
       </c>
       <c r="I414" s="29"/>
     </row>
-    <row r="415" spans="1:9" ht="27">
+    <row r="415" spans="1:9" ht="30">
       <c r="A415" s="28" t="s">
         <v>837</v>
       </c>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="I415" s="29"/>
     </row>
-    <row r="416" spans="1:9" ht="27">
+    <row r="416" spans="1:9" ht="30">
       <c r="A416" s="28" t="s">
         <v>839</v>
       </c>
@@ -16540,7 +16540,7 @@
       </c>
       <c r="I416" s="29"/>
     </row>
-    <row r="417" spans="1:9" ht="27">
+    <row r="417" spans="1:9" ht="30">
       <c r="A417" s="28" t="s">
         <v>841</v>
       </c>
@@ -16565,7 +16565,7 @@
       </c>
       <c r="I417" s="29"/>
     </row>
-    <row r="418" spans="1:9" ht="27">
+    <row r="418" spans="1:9" ht="30">
       <c r="A418" s="28" t="s">
         <v>844</v>
       </c>
@@ -16590,7 +16590,7 @@
       </c>
       <c r="I418" s="29"/>
     </row>
-    <row r="419" spans="1:9" ht="27">
+    <row r="419" spans="1:9" ht="30">
       <c r="A419" s="28" t="s">
         <v>846</v>
       </c>
@@ -16615,7 +16615,7 @@
       </c>
       <c r="I419" s="29"/>
     </row>
-    <row r="420" spans="1:9" ht="27">
+    <row r="420" spans="1:9" ht="30">
       <c r="A420" s="28" t="s">
         <v>848</v>
       </c>
@@ -16640,7 +16640,7 @@
       </c>
       <c r="I420" s="29"/>
     </row>
-    <row r="421" spans="1:9" ht="40.5">
+    <row r="421" spans="1:9" ht="30">
       <c r="A421" s="32" t="s">
         <v>850</v>
       </c>
@@ -16665,7 +16665,7 @@
       </c>
       <c r="I421" s="29"/>
     </row>
-    <row r="422" spans="1:9" ht="27">
+    <row r="422" spans="1:9" ht="30">
       <c r="A422" s="28" t="s">
         <v>854</v>
       </c>
@@ -16690,7 +16690,7 @@
       </c>
       <c r="I422" s="29"/>
     </row>
-    <row r="423" spans="1:9" ht="27">
+    <row r="423" spans="1:9" ht="30">
       <c r="A423" s="28" t="s">
         <v>856</v>
       </c>
@@ -16715,7 +16715,7 @@
       </c>
       <c r="I423" s="29"/>
     </row>
-    <row r="424" spans="1:9" ht="27">
+    <row r="424" spans="1:9" ht="30">
       <c r="A424" s="28" t="s">
         <v>858</v>
       </c>
@@ -16740,7 +16740,7 @@
       </c>
       <c r="I424" s="29"/>
     </row>
-    <row r="425" spans="1:9" ht="27">
+    <row r="425" spans="1:9" ht="30">
       <c r="A425" s="28" t="s">
         <v>860</v>
       </c>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="I425" s="29"/>
     </row>
-    <row r="426" spans="1:9" ht="67.5">
+    <row r="426" spans="1:9" ht="60">
       <c r="A426" s="28" t="s">
         <v>843</v>
       </c>
@@ -16790,7 +16790,7 @@
       </c>
       <c r="I426" s="29"/>
     </row>
-    <row r="427" spans="1:9" ht="27">
+    <row r="427" spans="1:9" ht="30">
       <c r="A427" s="28" t="s">
         <v>864</v>
       </c>
@@ -16815,7 +16815,7 @@
       </c>
       <c r="I427" s="29"/>
     </row>
-    <row r="428" spans="1:9" ht="108">
+    <row r="428" spans="1:9" ht="120">
       <c r="A428" s="28" t="s">
         <v>867</v>
       </c>
@@ -16840,7 +16840,7 @@
       </c>
       <c r="I428" s="29"/>
     </row>
-    <row r="429" spans="1:9" ht="27">
+    <row r="429" spans="1:9" ht="30">
       <c r="A429" s="28" t="s">
         <v>869</v>
       </c>
@@ -16865,7 +16865,7 @@
       </c>
       <c r="I429" s="29"/>
     </row>
-    <row r="430" spans="1:9" ht="27">
+    <row r="430" spans="1:9" ht="30">
       <c r="A430" s="28" t="s">
         <v>871</v>
       </c>
@@ -16890,7 +16890,7 @@
       </c>
       <c r="I430" s="29"/>
     </row>
-    <row r="431" spans="1:9" ht="27">
+    <row r="431" spans="1:9" ht="30">
       <c r="A431" s="28" t="s">
         <v>873</v>
       </c>
@@ -16915,7 +16915,7 @@
       </c>
       <c r="I431" s="29"/>
     </row>
-    <row r="432" spans="1:9" ht="27">
+    <row r="432" spans="1:9" ht="30">
       <c r="A432" s="28" t="s">
         <v>875</v>
       </c>
@@ -16940,7 +16940,7 @@
       </c>
       <c r="I432" s="29"/>
     </row>
-    <row r="433" spans="1:9" ht="27">
+    <row r="433" spans="1:9" ht="30">
       <c r="A433" s="28" t="s">
         <v>877</v>
       </c>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="I433" s="29"/>
     </row>
-    <row r="434" spans="1:9" ht="67.5">
+    <row r="434" spans="1:9" ht="75">
       <c r="A434" s="28" t="s">
         <v>880</v>
       </c>
@@ -16990,7 +16990,7 @@
       </c>
       <c r="I434" s="29"/>
     </row>
-    <row r="435" spans="1:9" ht="27">
+    <row r="435" spans="1:9" ht="30">
       <c r="A435" s="28" t="s">
         <v>882</v>
       </c>
@@ -17015,7 +17015,7 @@
       </c>
       <c r="I435" s="29"/>
     </row>
-    <row r="436" spans="1:9" ht="40.5">
+    <row r="436" spans="1:9" ht="30">
       <c r="A436" s="28" t="s">
         <v>884</v>
       </c>
@@ -17040,7 +17040,7 @@
       </c>
       <c r="I436" s="29"/>
     </row>
-    <row r="437" spans="1:9" ht="40.5">
+    <row r="437" spans="1:9" ht="30">
       <c r="A437" s="34" t="s">
         <v>886</v>
       </c>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I437" s="35"/>
     </row>
-    <row r="438" spans="1:9" ht="40.5">
+    <row r="438" spans="1:9" ht="30">
       <c r="A438" s="28" t="s">
         <v>887</v>
       </c>
@@ -17090,7 +17090,7 @@
       </c>
       <c r="I438" s="29"/>
     </row>
-    <row r="439" spans="1:9" ht="27">
+    <row r="439" spans="1:9" ht="30">
       <c r="A439" s="28" t="s">
         <v>888</v>
       </c>
@@ -17115,7 +17115,7 @@
       </c>
       <c r="I439" s="29"/>
     </row>
-    <row r="440" spans="1:9" ht="40.5">
+    <row r="440" spans="1:9" ht="30">
       <c r="A440" s="28" t="s">
         <v>891</v>
       </c>
@@ -17140,7 +17140,7 @@
       </c>
       <c r="I440" s="29"/>
     </row>
-    <row r="441" spans="1:9" ht="27">
+    <row r="441" spans="1:9" ht="30">
       <c r="A441" s="28" t="s">
         <v>893</v>
       </c>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="I441" s="29"/>
     </row>
-    <row r="442" spans="1:9" ht="27">
+    <row r="442" spans="1:9" ht="30">
       <c r="A442" s="28" t="s">
         <v>895</v>
       </c>
@@ -17190,7 +17190,7 @@
       </c>
       <c r="I442" s="29"/>
     </row>
-    <row r="443" spans="1:9" ht="27">
+    <row r="443" spans="1:9" ht="30">
       <c r="A443" s="28" t="s">
         <v>898</v>
       </c>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="I443" s="29"/>
     </row>
-    <row r="444" spans="1:9" ht="27">
+    <row r="444" spans="1:9" ht="30">
       <c r="A444" s="28" t="s">
         <v>900</v>
       </c>
@@ -17240,7 +17240,7 @@
       </c>
       <c r="I444" s="29"/>
     </row>
-    <row r="445" spans="1:9" ht="108">
+    <row r="445" spans="1:9" ht="120">
       <c r="A445" s="28" t="s">
         <v>903</v>
       </c>
@@ -17265,7 +17265,7 @@
       </c>
       <c r="I445" s="29"/>
     </row>
-    <row r="446" spans="1:9" ht="27">
+    <row r="446" spans="1:9" ht="30">
       <c r="A446" s="28" t="s">
         <v>905</v>
       </c>
@@ -17290,7 +17290,7 @@
       </c>
       <c r="I446" s="29"/>
     </row>
-    <row r="447" spans="1:9" ht="27">
+    <row r="447" spans="1:9" ht="30">
       <c r="A447" s="28" t="s">
         <v>907</v>
       </c>
@@ -17315,7 +17315,7 @@
       </c>
       <c r="I447" s="29"/>
     </row>
-    <row r="448" spans="1:9" ht="27">
+    <row r="448" spans="1:9" ht="30">
       <c r="A448" s="28" t="s">
         <v>909</v>
       </c>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="I448" s="29"/>
     </row>
-    <row r="449" spans="1:9" ht="27">
+    <row r="449" spans="1:9" ht="30">
       <c r="A449" s="28" t="s">
         <v>911</v>
       </c>
@@ -17365,7 +17365,7 @@
       </c>
       <c r="I449" s="29"/>
     </row>
-    <row r="450" spans="1:9" ht="67.5">
+    <row r="450" spans="1:9" ht="60">
       <c r="A450" s="28" t="s">
         <v>908</v>
       </c>
@@ -17390,7 +17390,7 @@
       </c>
       <c r="I450" s="29"/>
     </row>
-    <row r="451" spans="1:9" ht="40.5">
+    <row r="451" spans="1:9" ht="30">
       <c r="A451" s="28" t="s">
         <v>915</v>
       </c>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="I451" s="29"/>
     </row>
-    <row r="452" spans="1:9" ht="27">
+    <row r="452" spans="1:9" ht="30">
       <c r="A452" s="28" t="s">
         <v>916</v>
       </c>
@@ -17440,7 +17440,7 @@
       </c>
       <c r="I452" s="29"/>
     </row>
-    <row r="453" spans="1:9" ht="67.5">
+    <row r="453" spans="1:9" ht="75">
       <c r="A453" s="28" t="s">
         <v>919</v>
       </c>
@@ -17465,7 +17465,7 @@
       </c>
       <c r="I453" s="29"/>
     </row>
-    <row r="454" spans="1:9" ht="27">
+    <row r="454" spans="1:9" ht="30">
       <c r="A454" s="28" t="s">
         <v>921</v>
       </c>
@@ -17490,7 +17490,7 @@
       </c>
       <c r="I454" s="29"/>
     </row>
-    <row r="455" spans="1:9" ht="40.5">
+    <row r="455" spans="1:9" ht="30">
       <c r="A455" s="28" t="s">
         <v>923</v>
       </c>
@@ -17515,7 +17515,7 @@
       </c>
       <c r="I455" s="29"/>
     </row>
-    <row r="456" spans="1:9" ht="27">
+    <row r="456" spans="1:9" ht="30">
       <c r="A456" s="28" t="s">
         <v>925</v>
       </c>
@@ -17540,7 +17540,7 @@
       </c>
       <c r="I456" s="29"/>
     </row>
-    <row r="457" spans="1:9" ht="54">
+    <row r="457" spans="1:9" ht="45">
       <c r="A457" s="28" t="s">
         <v>927</v>
       </c>
@@ -17565,7 +17565,7 @@
       </c>
       <c r="I457" s="29"/>
     </row>
-    <row r="458" spans="1:9" ht="27">
+    <row r="458" spans="1:9" ht="30">
       <c r="A458" s="28" t="s">
         <v>929</v>
       </c>
@@ -17590,7 +17590,7 @@
       </c>
       <c r="I458" s="29"/>
     </row>
-    <row r="459" spans="1:9" ht="27">
+    <row r="459" spans="1:9" ht="30">
       <c r="A459" s="28" t="s">
         <v>931</v>
       </c>
@@ -17615,7 +17615,7 @@
       </c>
       <c r="I459" s="29"/>
     </row>
-    <row r="460" spans="1:9" ht="40.5">
+    <row r="460" spans="1:9" ht="45">
       <c r="A460" s="28" t="s">
         <v>934</v>
       </c>
@@ -17640,7 +17640,7 @@
       </c>
       <c r="I460" s="29"/>
     </row>
-    <row r="461" spans="1:9" ht="27">
+    <row r="461" spans="1:9" ht="30">
       <c r="A461" s="28" t="s">
         <v>936</v>
       </c>
@@ -17665,7 +17665,7 @@
       </c>
       <c r="I461" s="29"/>
     </row>
-    <row r="462" spans="1:9" ht="27">
+    <row r="462" spans="1:9" ht="30">
       <c r="A462" s="28" t="s">
         <v>938</v>
       </c>
@@ -17690,7 +17690,7 @@
       </c>
       <c r="I462" s="29"/>
     </row>
-    <row r="463" spans="1:9" ht="27">
+    <row r="463" spans="1:9" ht="30">
       <c r="A463" s="28" t="s">
         <v>941</v>
       </c>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="I463" s="29"/>
     </row>
-    <row r="464" spans="1:9" ht="27">
+    <row r="464" spans="1:9" ht="30">
       <c r="A464" s="28" t="s">
         <v>943</v>
       </c>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="I464" s="29"/>
     </row>
-    <row r="465" spans="1:9" ht="202.5">
+    <row r="465" spans="1:9" ht="225">
       <c r="A465" s="28" t="s">
         <v>946</v>
       </c>
@@ -17765,7 +17765,7 @@
       </c>
       <c r="I465" s="29"/>
     </row>
-    <row r="466" spans="1:9" ht="27">
+    <row r="466" spans="1:9" ht="30">
       <c r="A466" s="28" t="s">
         <v>948</v>
       </c>
@@ -17790,7 +17790,7 @@
       </c>
       <c r="I466" s="29"/>
     </row>
-    <row r="467" spans="1:9" ht="27">
+    <row r="467" spans="1:9" ht="30">
       <c r="A467" s="28" t="s">
         <v>950</v>
       </c>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="I467" s="29"/>
     </row>
-    <row r="468" spans="1:9" ht="27">
+    <row r="468" spans="1:9" ht="30">
       <c r="A468" s="28" t="s">
         <v>952</v>
       </c>
@@ -17840,7 +17840,7 @@
       </c>
       <c r="I468" s="29"/>
     </row>
-    <row r="469" spans="1:9" ht="27">
+    <row r="469" spans="1:9" ht="30">
       <c r="A469" s="28" t="s">
         <v>954</v>
       </c>
@@ -17865,7 +17865,7 @@
       </c>
       <c r="I469" s="29"/>
     </row>
-    <row r="470" spans="1:9" ht="27">
+    <row r="470" spans="1:9" ht="30">
       <c r="A470" s="28" t="s">
         <v>956</v>
       </c>
@@ -17890,7 +17890,7 @@
       </c>
       <c r="I470" s="29"/>
     </row>
-    <row r="471" spans="1:9" ht="27">
+    <row r="471" spans="1:9" ht="30">
       <c r="A471" s="28" t="s">
         <v>958</v>
       </c>
@@ -17915,7 +17915,7 @@
       </c>
       <c r="I471" s="29"/>
     </row>
-    <row r="472" spans="1:9" ht="27">
+    <row r="472" spans="1:9" ht="30">
       <c r="A472" s="28" t="s">
         <v>961</v>
       </c>
@@ -17940,7 +17940,7 @@
       </c>
       <c r="I472" s="29"/>
     </row>
-    <row r="473" spans="1:9" ht="27">
+    <row r="473" spans="1:9" ht="30">
       <c r="A473" s="28" t="s">
         <v>963</v>
       </c>
@@ -17965,7 +17965,7 @@
       </c>
       <c r="I473" s="29"/>
     </row>
-    <row r="474" spans="1:9" ht="27">
+    <row r="474" spans="1:9" ht="30">
       <c r="A474" s="28" t="s">
         <v>965</v>
       </c>
@@ -17990,7 +17990,7 @@
       </c>
       <c r="I474" s="29"/>
     </row>
-    <row r="475" spans="1:9" ht="27">
+    <row r="475" spans="1:9" ht="30">
       <c r="A475" s="28" t="s">
         <v>967</v>
       </c>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="I475" s="29"/>
     </row>
-    <row r="476" spans="1:9" ht="27">
+    <row r="476" spans="1:9" ht="30">
       <c r="A476" s="28" t="s">
         <v>969</v>
       </c>
@@ -18040,7 +18040,7 @@
       </c>
       <c r="I476" s="29"/>
     </row>
-    <row r="477" spans="1:9" ht="27">
+    <row r="477" spans="1:9" ht="30">
       <c r="A477" s="28" t="s">
         <v>971</v>
       </c>
@@ -18065,7 +18065,7 @@
       </c>
       <c r="I477" s="29"/>
     </row>
-    <row r="478" spans="1:9" ht="27">
+    <row r="478" spans="1:9" ht="30">
       <c r="A478" s="28" t="s">
         <v>973</v>
       </c>
@@ -18090,7 +18090,7 @@
       </c>
       <c r="I478" s="29"/>
     </row>
-    <row r="479" spans="1:9" ht="27">
+    <row r="479" spans="1:9" ht="30">
       <c r="A479" s="28" t="s">
         <v>975</v>
       </c>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="I479" s="29"/>
     </row>
-    <row r="480" spans="1:9" ht="54">
+    <row r="480" spans="1:9" ht="60">
       <c r="A480" s="28" t="s">
         <v>960</v>
       </c>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="I480" s="29"/>
     </row>
-    <row r="481" spans="1:9" ht="40.5">
+    <row r="481" spans="1:9" ht="30">
       <c r="A481" s="28" t="s">
         <v>979</v>
       </c>
@@ -18165,7 +18165,7 @@
       </c>
       <c r="I481" s="29"/>
     </row>
-    <row r="482" spans="1:9" ht="27">
+    <row r="482" spans="1:9" ht="30">
       <c r="A482" s="28" t="s">
         <v>980</v>
       </c>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="I482" s="29"/>
     </row>
-    <row r="483" spans="1:9" ht="67.5">
+    <row r="483" spans="1:9" ht="75">
       <c r="A483" s="28" t="s">
         <v>982</v>
       </c>
@@ -18215,7 +18215,7 @@
       </c>
       <c r="I483" s="29"/>
     </row>
-    <row r="484" spans="1:9" ht="27">
+    <row r="484" spans="1:9" ht="30">
       <c r="A484" s="28" t="s">
         <v>984</v>
       </c>
@@ -18240,7 +18240,7 @@
       </c>
       <c r="I484" s="29"/>
     </row>
-    <row r="485" spans="1:9" ht="40.5">
+    <row r="485" spans="1:9" ht="30">
       <c r="A485" s="28" t="s">
         <v>986</v>
       </c>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="I485" s="29"/>
     </row>
-    <row r="486" spans="1:9" ht="27">
+    <row r="486" spans="1:9" ht="30">
       <c r="A486" s="28" t="s">
         <v>988</v>
       </c>
@@ -18290,7 +18290,7 @@
       </c>
       <c r="I486" s="29"/>
     </row>
-    <row r="487" spans="1:9" ht="54">
+    <row r="487" spans="1:9" ht="45">
       <c r="A487" s="28" t="s">
         <v>990</v>
       </c>
@@ -18315,7 +18315,7 @@
       </c>
       <c r="I487" s="29"/>
     </row>
-    <row r="488" spans="1:9" ht="27">
+    <row r="488" spans="1:9" ht="30">
       <c r="A488" s="28" t="s">
         <v>992</v>
       </c>
@@ -18340,7 +18340,7 @@
       </c>
       <c r="I488" s="29"/>
     </row>
-    <row r="489" spans="1:9" ht="40.5">
+    <row r="489" spans="1:9" ht="45">
       <c r="A489" s="28" t="s">
         <v>995</v>
       </c>
@@ -18365,7 +18365,7 @@
       </c>
       <c r="I489" s="29"/>
     </row>
-    <row r="490" spans="1:9" ht="27">
+    <row r="490" spans="1:9" ht="30">
       <c r="A490" s="28" t="s">
         <v>997</v>
       </c>
@@ -18390,7 +18390,7 @@
       </c>
       <c r="I490" s="29"/>
     </row>
-    <row r="491" spans="1:9" ht="27">
+    <row r="491" spans="1:9" ht="30">
       <c r="A491" s="28" t="s">
         <v>999</v>
       </c>
@@ -18415,7 +18415,7 @@
       </c>
       <c r="I491" s="29"/>
     </row>
-    <row r="492" spans="1:9" ht="27">
+    <row r="492" spans="1:9" ht="30">
       <c r="A492" s="28" t="s">
         <v>1002</v>
       </c>
@@ -18440,7 +18440,7 @@
       </c>
       <c r="I492" s="29"/>
     </row>
-    <row r="493" spans="1:9" ht="27">
+    <row r="493" spans="1:9" ht="30">
       <c r="A493" s="28" t="s">
         <v>1004</v>
       </c>
@@ -18490,7 +18490,7 @@
       </c>
       <c r="I494" s="29"/>
     </row>
-    <row r="495" spans="1:9" ht="27">
+    <row r="495" spans="1:9" ht="30">
       <c r="A495" s="28" t="s">
         <v>1008</v>
       </c>
@@ -18594,7 +18594,7 @@
       </c>
       <c r="I498" s="31"/>
     </row>
-    <row r="499" spans="1:9" ht="27">
+    <row r="499" spans="1:9" ht="30">
       <c r="A499" s="28" t="s">
         <v>1010</v>
       </c>
@@ -18619,7 +18619,7 @@
       </c>
       <c r="I499" s="29"/>
     </row>
-    <row r="500" spans="1:9" ht="27">
+    <row r="500" spans="1:9" ht="30">
       <c r="A500" s="28" t="s">
         <v>1012</v>
       </c>
@@ -18644,7 +18644,7 @@
       </c>
       <c r="I500" s="29"/>
     </row>
-    <row r="501" spans="1:9" ht="27">
+    <row r="501" spans="1:9" ht="30">
       <c r="A501" s="28" t="s">
         <v>1014</v>
       </c>
@@ -18669,7 +18669,7 @@
       </c>
       <c r="I501" s="29"/>
     </row>
-    <row r="502" spans="1:9" ht="27">
+    <row r="502" spans="1:9" ht="30">
       <c r="A502" s="28" t="s">
         <v>1017</v>
       </c>
@@ -18694,7 +18694,7 @@
       </c>
       <c r="I502" s="29"/>
     </row>
-    <row r="503" spans="1:9" ht="27">
+    <row r="503" spans="1:9" ht="30">
       <c r="A503" s="28" t="s">
         <v>1018</v>
       </c>
@@ -18719,7 +18719,7 @@
       </c>
       <c r="I503" s="28"/>
     </row>
-    <row r="504" spans="1:9" ht="40.5">
+    <row r="504" spans="1:9" ht="30">
       <c r="A504" s="28" t="s">
         <v>1020</v>
       </c>
@@ -18744,7 +18744,7 @@
       </c>
       <c r="I504" s="29"/>
     </row>
-    <row r="505" spans="1:9" ht="27">
+    <row r="505" spans="1:9" ht="30">
       <c r="A505" s="28" t="s">
         <v>1022</v>
       </c>
@@ -18769,7 +18769,7 @@
       </c>
       <c r="I505" s="29"/>
     </row>
-    <row r="506" spans="1:9" ht="297">
+    <row r="506" spans="1:9" ht="300">
       <c r="A506" s="28" t="s">
         <v>1016</v>
       </c>
@@ -18794,7 +18794,7 @@
       </c>
       <c r="I506" s="29"/>
     </row>
-    <row r="507" spans="1:9" ht="27">
+    <row r="507" spans="1:9" ht="30">
       <c r="A507" s="28" t="s">
         <v>1026</v>
       </c>
@@ -18819,7 +18819,7 @@
       </c>
       <c r="I507" s="29"/>
     </row>
-    <row r="508" spans="1:9" ht="27">
+    <row r="508" spans="1:9" ht="30">
       <c r="A508" s="28" t="s">
         <v>1028</v>
       </c>
@@ -18844,7 +18844,7 @@
       </c>
       <c r="I508" s="29"/>
     </row>
-    <row r="509" spans="1:9" ht="27">
+    <row r="509" spans="1:9" ht="30">
       <c r="A509" s="28" t="s">
         <v>1030</v>
       </c>
@@ -18869,7 +18869,7 @@
       </c>
       <c r="I509" s="29"/>
     </row>
-    <row r="510" spans="1:9" ht="40.5">
+    <row r="510" spans="1:9" ht="30">
       <c r="A510" s="28" t="s">
         <v>1032</v>
       </c>
@@ -18894,7 +18894,7 @@
       </c>
       <c r="I510" s="29"/>
     </row>
-    <row r="511" spans="1:9" ht="40.5">
+    <row r="511" spans="1:9" ht="45">
       <c r="A511" s="28" t="s">
         <v>50</v>
       </c>
@@ -18923,7 +18923,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="54">
+    <row r="512" spans="1:9" ht="45">
       <c r="A512" s="28" t="s">
         <v>1033</v>
       </c>
@@ -18948,7 +18948,7 @@
       </c>
       <c r="I512" s="29"/>
     </row>
-    <row r="513" spans="1:9" ht="27">
+    <row r="513" spans="1:9" ht="30">
       <c r="A513" s="28" t="s">
         <v>1034</v>
       </c>
@@ -18973,7 +18973,7 @@
       </c>
       <c r="I513" s="29"/>
     </row>
-    <row r="514" spans="1:9" ht="67.5">
+    <row r="514" spans="1:9" ht="60">
       <c r="A514" s="28" t="s">
         <v>1035</v>
       </c>
@@ -19056,7 +19056,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="517" spans="1:9" ht="40.5">
+    <row r="517" spans="1:9" ht="30">
       <c r="A517" s="28" t="s">
         <v>1036</v>
       </c>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="I517" s="29"/>
     </row>
-    <row r="518" spans="1:9" ht="40.5">
+    <row r="518" spans="1:9" ht="45">
       <c r="A518" s="28" t="s">
         <v>1038</v>
       </c>
@@ -19882,6 +19882,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -19930,37 +19945,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -19974,10 +19959,25 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-MEETS/MS-MEETS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-MEETS/MS-MEETS_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr dateCompatibility="0" filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E1DEAC8-F1F9-447C-8D7E-3F3AD13499F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0B2B7F7E-7EB0-460C-BA84-DF759620C0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1575" windowWidth="21600" windowHeight="11385" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -3841,9 +3841,6 @@
     <t>Open Specification Date:</t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
     <t>[In Messages]In the following sections, the schema definition might differ from the processing rules imposed by the protocol.</t>
   </si>
   <si>
@@ -4080,20 +4077,23 @@
     <t>[In Appendix B: Product Behavior] Unless otherwise specified, the term "MAY" implies that the product does not follow the prescription.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>10.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4131,7 +4131,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4305,7 +4305,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4314,7 +4314,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4335,7 +4335,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4396,6 +4396,21 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4420,24 +4435,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="203">
     <dxf>
@@ -5974,7 +5974,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 主题​​">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6298,27 +6298,27 @@
   <dimension ref="A1:L521"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I9"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="11" width="9" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -6342,138 +6342,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>1071</v>
+        <v>1138</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>1070</v>
       </c>
       <c r="F3" s="13" t="d">
-        <v>2019-06-18</v>
+        <v>2021-07-20</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -6486,12 +6486,12 @@
       <c r="C12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -6504,12 +6504,12 @@
       <c r="C13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -6522,12 +6522,12 @@
       <c r="C14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -6540,60 +6540,60 @@
       <c r="C15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="81" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="54" t="s">
         <v>1043</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="20" spans="1:12" s="21" customFormat="1" ht="45">
       <c r="A20" s="26" t="s">
         <v>42</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26" t="s">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="21" spans="1:12" s="21" customFormat="1" ht="45">
       <c r="A21" s="28" t="s">
         <v>43</v>
       </c>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="22" spans="1:12" s="21" customFormat="1" ht="45">
       <c r="A22" s="28" t="s">
         <v>44</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="28" t="s">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:12" s="21" customFormat="1" ht="40.5">
+    <row r="23" spans="1:12" s="21" customFormat="1" ht="45">
       <c r="A23" s="28" t="s">
         <v>45</v>
       </c>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="I23" s="29"/>
     </row>
-    <row r="24" spans="1:12" s="21" customFormat="1">
+    <row r="24" spans="1:12" s="21" customFormat="1" ht="30">
       <c r="A24" s="28" t="s">
         <v>46</v>
       </c>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="I24" s="29"/>
     </row>
-    <row r="25" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="25" spans="1:12" s="21" customFormat="1" ht="45">
       <c r="A25" s="28" t="s">
         <v>48</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="26" spans="1:12" s="21" customFormat="1" ht="30">
       <c r="A26" s="28" t="s">
         <v>52</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>2.1</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="28" t="s">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="I26" s="29"/>
     </row>
-    <row r="27" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="27" spans="1:12" s="21" customFormat="1" ht="30">
       <c r="A27" s="28" t="s">
         <v>53</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>2.1</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="28" t="s">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="I27" s="29"/>
     </row>
-    <row r="28" spans="1:12" s="21" customFormat="1" ht="30">
+    <row r="28" spans="1:12" s="21" customFormat="1" ht="45">
       <c r="A28" s="30" t="s">
         <v>54</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>2.1</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30" t="s">
@@ -6854,7 +6854,7 @@
       </c>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="29" spans="1:12" s="21" customFormat="1" ht="45">
       <c r="A29" s="28" t="s">
         <v>55</v>
       </c>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I29" s="29"/>
     </row>
-    <row r="30" spans="1:12" s="21" customFormat="1" ht="40.5">
+    <row r="30" spans="1:12" s="21" customFormat="1" ht="45">
       <c r="A30" s="28" t="s">
         <v>57</v>
       </c>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="I30" s="29"/>
     </row>
-    <row r="31" spans="1:12" s="21" customFormat="1" ht="27">
+    <row r="31" spans="1:12" s="21" customFormat="1" ht="45">
       <c r="A31" s="28" t="s">
         <v>59</v>
       </c>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I31" s="29"/>
     </row>
-    <row r="32" spans="1:12" s="21" customFormat="1" ht="40.5">
+    <row r="32" spans="1:12" s="21" customFormat="1" ht="45">
       <c r="A32" s="28" t="s">
         <v>62</v>
       </c>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="I32" s="29"/>
     </row>
-    <row r="33" spans="1:9" ht="27">
+    <row r="33" spans="1:9" ht="45">
       <c r="A33" s="28" t="s">
         <v>64</v>
       </c>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="I33" s="29"/>
     </row>
-    <row r="34" spans="1:9" ht="27">
+    <row r="34" spans="1:9" ht="45">
       <c r="A34" s="28" t="s">
         <v>66</v>
       </c>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="I34" s="29"/>
     </row>
-    <row r="35" spans="1:9" ht="27">
+    <row r="35" spans="1:9" ht="45">
       <c r="A35" s="28" t="s">
         <v>68</v>
       </c>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I35" s="29"/>
     </row>
-    <row r="36" spans="1:9" ht="27">
+    <row r="36" spans="1:9" ht="45">
       <c r="A36" s="28" t="s">
         <v>70</v>
       </c>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="I36" s="29"/>
     </row>
-    <row r="37" spans="1:9" ht="27">
+    <row r="37" spans="1:9" ht="45">
       <c r="A37" s="28" t="s">
         <v>72</v>
       </c>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="I37" s="29"/>
     </row>
-    <row r="38" spans="1:9" ht="27">
+    <row r="38" spans="1:9" ht="45">
       <c r="A38" s="28" t="s">
         <v>74</v>
       </c>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="I38" s="29"/>
     </row>
-    <row r="39" spans="1:9" ht="27">
+    <row r="39" spans="1:9" ht="45">
       <c r="A39" s="28" t="s">
         <v>76</v>
       </c>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I39" s="29"/>
     </row>
-    <row r="40" spans="1:9" ht="27">
+    <row r="40" spans="1:9" ht="45">
       <c r="A40" s="28" t="s">
         <v>78</v>
       </c>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="I40" s="29"/>
     </row>
-    <row r="41" spans="1:9" ht="27">
+    <row r="41" spans="1:9" ht="45">
       <c r="A41" s="28" t="s">
         <v>80</v>
       </c>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="I41" s="29"/>
     </row>
-    <row r="42" spans="1:9" ht="27">
+    <row r="42" spans="1:9" ht="45">
       <c r="A42" s="28" t="s">
         <v>82</v>
       </c>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="I42" s="29"/>
     </row>
-    <row r="43" spans="1:9" ht="27">
+    <row r="43" spans="1:9" ht="45">
       <c r="A43" s="28" t="s">
         <v>84</v>
       </c>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="I43" s="29"/>
     </row>
-    <row r="44" spans="1:9" ht="27">
+    <row r="44" spans="1:9" ht="45">
       <c r="A44" s="28" t="s">
         <v>87</v>
       </c>
@@ -7254,7 +7254,7 @@
       </c>
       <c r="I44" s="29"/>
     </row>
-    <row r="45" spans="1:9" ht="27">
+    <row r="45" spans="1:9" ht="45">
       <c r="A45" s="28" t="s">
         <v>90</v>
       </c>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="I45" s="29"/>
     </row>
-    <row r="46" spans="1:9" ht="27">
+    <row r="46" spans="1:9" ht="45">
       <c r="A46" s="28" t="s">
         <v>92</v>
       </c>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="I46" s="29"/>
     </row>
-    <row r="47" spans="1:9" ht="27">
+    <row r="47" spans="1:9" ht="45">
       <c r="A47" s="28" t="s">
         <v>94</v>
       </c>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="I47" s="29"/>
     </row>
-    <row r="48" spans="1:9" ht="27">
+    <row r="48" spans="1:9" ht="45">
       <c r="A48" s="28" t="s">
         <v>96</v>
       </c>
@@ -7354,7 +7354,7 @@
       </c>
       <c r="I48" s="29"/>
     </row>
-    <row r="49" spans="1:9" ht="27">
+    <row r="49" spans="1:9" ht="45">
       <c r="A49" s="28" t="s">
         <v>98</v>
       </c>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="I49" s="29"/>
     </row>
-    <row r="50" spans="1:9" ht="27">
+    <row r="50" spans="1:9" ht="45">
       <c r="A50" s="28" t="s">
         <v>100</v>
       </c>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="I50" s="29"/>
     </row>
-    <row r="51" spans="1:9" ht="27">
+    <row r="51" spans="1:9" ht="45">
       <c r="A51" s="28" t="s">
         <v>102</v>
       </c>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="I51" s="29"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="30">
       <c r="A52" s="28" t="s">
         <v>104</v>
       </c>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="I52" s="29"/>
     </row>
-    <row r="53" spans="1:9" ht="27">
+    <row r="53" spans="1:9" ht="30">
       <c r="A53" s="28" t="s">
         <v>107</v>
       </c>
@@ -7479,7 +7479,7 @@
       </c>
       <c r="I53" s="29"/>
     </row>
-    <row r="54" spans="1:9" ht="27">
+    <row r="54" spans="1:9" ht="45">
       <c r="A54" s="28" t="s">
         <v>109</v>
       </c>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="I54" s="29"/>
     </row>
-    <row r="55" spans="1:9" ht="121.5">
+    <row r="55" spans="1:9" ht="135">
       <c r="A55" s="28" t="s">
         <v>111</v>
       </c>
@@ -7529,7 +7529,7 @@
       </c>
       <c r="I55" s="29"/>
     </row>
-    <row r="56" spans="1:9" ht="27">
+    <row r="56" spans="1:9" ht="30">
       <c r="A56" s="28" t="s">
         <v>113</v>
       </c>
@@ -7554,7 +7554,7 @@
       </c>
       <c r="I56" s="29"/>
     </row>
-    <row r="57" spans="1:9" ht="27">
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="28" t="s">
         <v>116</v>
       </c>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="I57" s="29"/>
     </row>
-    <row r="58" spans="1:9" ht="27">
+    <row r="58" spans="1:9" ht="30">
       <c r="A58" s="28" t="s">
         <v>118</v>
       </c>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="I58" s="29"/>
     </row>
-    <row r="59" spans="1:9" ht="27">
+    <row r="59" spans="1:9" ht="30">
       <c r="A59" s="28" t="s">
         <v>121</v>
       </c>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="I59" s="29"/>
     </row>
-    <row r="60" spans="1:9" ht="27">
+    <row r="60" spans="1:9" ht="30">
       <c r="A60" s="28" t="s">
         <v>124</v>
       </c>
@@ -7654,7 +7654,7 @@
       </c>
       <c r="I60" s="29"/>
     </row>
-    <row r="61" spans="1:9" ht="27">
+    <row r="61" spans="1:9" ht="30">
       <c r="A61" s="28" t="s">
         <v>127</v>
       </c>
@@ -7679,7 +7679,7 @@
       </c>
       <c r="I61" s="29"/>
     </row>
-    <row r="62" spans="1:9" ht="27">
+    <row r="62" spans="1:9" ht="30">
       <c r="A62" s="28" t="s">
         <v>130</v>
       </c>
@@ -7704,7 +7704,7 @@
       </c>
       <c r="I62" s="29"/>
     </row>
-    <row r="63" spans="1:9" ht="27">
+    <row r="63" spans="1:9" ht="30">
       <c r="A63" s="28" t="s">
         <v>132</v>
       </c>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="I63" s="29"/>
     </row>
-    <row r="64" spans="1:9" ht="40.5">
+    <row r="64" spans="1:9" ht="45">
       <c r="A64" s="28" t="s">
         <v>134</v>
       </c>
@@ -7754,7 +7754,7 @@
       </c>
       <c r="I64" s="29"/>
     </row>
-    <row r="65" spans="1:9" ht="27">
+    <row r="65" spans="1:9" ht="30">
       <c r="A65" s="28" t="s">
         <v>136</v>
       </c>
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I65" s="29"/>
     </row>
-    <row r="66" spans="1:9" ht="27">
+    <row r="66" spans="1:9" ht="45">
       <c r="A66" s="28" t="s">
         <v>138</v>
       </c>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="I66" s="29"/>
     </row>
-    <row r="67" spans="1:9" ht="27">
+    <row r="67" spans="1:9" ht="45">
       <c r="A67" s="28" t="s">
         <v>141</v>
       </c>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="I67" s="29"/>
     </row>
-    <row r="68" spans="1:9" ht="27">
+    <row r="68" spans="1:9" ht="45">
       <c r="A68" s="28" t="s">
         <v>143</v>
       </c>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="I68" s="29"/>
     </row>
-    <row r="69" spans="1:9" ht="27">
+    <row r="69" spans="1:9" ht="45">
       <c r="A69" s="28" t="s">
         <v>145</v>
       </c>
@@ -7879,7 +7879,7 @@
       </c>
       <c r="I69" s="29"/>
     </row>
-    <row r="70" spans="1:9" ht="27">
+    <row r="70" spans="1:9" ht="45">
       <c r="A70" s="28" t="s">
         <v>147</v>
       </c>
@@ -7904,7 +7904,7 @@
       </c>
       <c r="I70" s="29"/>
     </row>
-    <row r="71" spans="1:9" ht="121.5">
+    <row r="71" spans="1:9" ht="135">
       <c r="A71" s="28" t="s">
         <v>149</v>
       </c>
@@ -7929,7 +7929,7 @@
       </c>
       <c r="I71" s="29"/>
     </row>
-    <row r="72" spans="1:9" ht="27">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="28" t="s">
         <v>151</v>
       </c>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="I72" s="29"/>
     </row>
-    <row r="73" spans="1:9" ht="27">
+    <row r="73" spans="1:9" ht="30">
       <c r="A73" s="34" t="s">
         <v>153</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>31</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D73" s="34"/>
       <c r="E73" s="34" t="s">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="I73" s="35"/>
     </row>
-    <row r="74" spans="1:9" ht="27">
+    <row r="74" spans="1:9" ht="30">
       <c r="A74" s="28" t="s">
         <v>154</v>
       </c>
@@ -8004,7 +8004,7 @@
       </c>
       <c r="I74" s="29"/>
     </row>
-    <row r="75" spans="1:9" ht="27">
+    <row r="75" spans="1:9" ht="30">
       <c r="A75" s="28" t="s">
         <v>155</v>
       </c>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="I75" s="29"/>
     </row>
-    <row r="76" spans="1:9" ht="27">
+    <row r="76" spans="1:9" ht="30">
       <c r="A76" s="28" t="s">
         <v>157</v>
       </c>
@@ -8054,7 +8054,7 @@
       </c>
       <c r="I76" s="29"/>
     </row>
-    <row r="77" spans="1:9" ht="27">
+    <row r="77" spans="1:9" ht="30">
       <c r="A77" s="28" t="s">
         <v>158</v>
       </c>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="I77" s="29"/>
     </row>
-    <row r="78" spans="1:9" ht="27">
+    <row r="78" spans="1:9" ht="45">
       <c r="A78" s="28" t="s">
         <v>159</v>
       </c>
@@ -8104,7 +8104,7 @@
       </c>
       <c r="I78" s="29"/>
     </row>
-    <row r="79" spans="1:9" ht="81">
+    <row r="79" spans="1:9" ht="90">
       <c r="A79" s="28" t="s">
         <v>162</v>
       </c>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I79" s="29"/>
     </row>
-    <row r="80" spans="1:9" ht="40.5">
+    <row r="80" spans="1:9" ht="45">
       <c r="A80" s="28" t="s">
         <v>164</v>
       </c>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="I80" s="29"/>
     </row>
-    <row r="81" spans="1:9" ht="27">
+    <row r="81" spans="1:9" ht="30">
       <c r="A81" s="28" t="s">
         <v>166</v>
       </c>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="I81" s="29"/>
     </row>
-    <row r="82" spans="1:9" ht="27">
+    <row r="82" spans="1:9" ht="30">
       <c r="A82" s="28" t="s">
         <v>168</v>
       </c>
@@ -8204,7 +8204,7 @@
       </c>
       <c r="I82" s="29"/>
     </row>
-    <row r="83" spans="1:9" ht="27">
+    <row r="83" spans="1:9" ht="30">
       <c r="A83" s="28" t="s">
         <v>170</v>
       </c>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I83" s="29"/>
     </row>
-    <row r="84" spans="1:9" ht="27">
+    <row r="84" spans="1:9" ht="30">
       <c r="A84" s="28" t="s">
         <v>172</v>
       </c>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="I84" s="29"/>
     </row>
-    <row r="85" spans="1:9" ht="27">
+    <row r="85" spans="1:9" ht="45">
       <c r="A85" s="28" t="s">
         <v>174</v>
       </c>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="I85" s="29"/>
     </row>
-    <row r="86" spans="1:9" ht="27">
+    <row r="86" spans="1:9" ht="45">
       <c r="A86" s="28" t="s">
         <v>177</v>
       </c>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="I86" s="29"/>
     </row>
-    <row r="87" spans="1:9" ht="94.5">
+    <row r="87" spans="1:9" ht="105">
       <c r="A87" s="28" t="s">
         <v>179</v>
       </c>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I87" s="29"/>
     </row>
-    <row r="88" spans="1:9" ht="94.5">
+    <row r="88" spans="1:9" ht="105">
       <c r="A88" s="28" t="s">
         <v>182</v>
       </c>
@@ -8354,7 +8354,7 @@
       </c>
       <c r="I88" s="29"/>
     </row>
-    <row r="89" spans="1:9" ht="54">
+    <row r="89" spans="1:9" ht="60">
       <c r="A89" s="28" t="s">
         <v>185</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>186</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="28" t="s">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="I89" s="29"/>
     </row>
-    <row r="90" spans="1:9" ht="27">
+    <row r="90" spans="1:9" ht="45">
       <c r="A90" s="28" t="s">
         <v>187</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>186</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D90" s="28"/>
       <c r="E90" s="28" t="s">
@@ -8404,7 +8404,7 @@
       </c>
       <c r="I90" s="29"/>
     </row>
-    <row r="91" spans="1:9" ht="81">
+    <row r="91" spans="1:9" ht="90">
       <c r="A91" s="28" t="s">
         <v>188</v>
       </c>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="I91" s="29"/>
     </row>
-    <row r="92" spans="1:9" ht="27">
+    <row r="92" spans="1:9" ht="45">
       <c r="A92" s="28" t="s">
         <v>191</v>
       </c>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="I92" s="29"/>
     </row>
-    <row r="93" spans="1:9" ht="27">
+    <row r="93" spans="1:9" ht="45">
       <c r="A93" s="28" t="s">
         <v>194</v>
       </c>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="I93" s="29"/>
     </row>
-    <row r="94" spans="1:9" ht="27">
+    <row r="94" spans="1:9" ht="45">
       <c r="A94" s="28" t="s">
         <v>197</v>
       </c>
@@ -8504,7 +8504,7 @@
       </c>
       <c r="I94" s="29"/>
     </row>
-    <row r="95" spans="1:9" ht="27">
+    <row r="95" spans="1:9" ht="45">
       <c r="A95" s="28" t="s">
         <v>200</v>
       </c>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="I95" s="29"/>
     </row>
-    <row r="96" spans="1:9" ht="27">
+    <row r="96" spans="1:9" ht="45">
       <c r="A96" s="28" t="s">
         <v>202</v>
       </c>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="I96" s="29"/>
     </row>
-    <row r="97" spans="1:9" ht="27">
+    <row r="97" spans="1:9" ht="45">
       <c r="A97" s="28" t="s">
         <v>204</v>
       </c>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="I97" s="29"/>
     </row>
-    <row r="98" spans="1:9" ht="40.5">
+    <row r="98" spans="1:9" ht="45">
       <c r="A98" s="28" t="s">
         <v>206</v>
       </c>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="I98" s="29"/>
     </row>
-    <row r="99" spans="1:9" ht="27">
+    <row r="99" spans="1:9" ht="45">
       <c r="A99" s="28" t="s">
         <v>207</v>
       </c>
@@ -8629,7 +8629,7 @@
       </c>
       <c r="I99" s="29"/>
     </row>
-    <row r="100" spans="1:9" ht="27">
+    <row r="100" spans="1:9" ht="45">
       <c r="A100" s="28" t="s">
         <v>209</v>
       </c>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="I100" s="29"/>
     </row>
-    <row r="101" spans="1:9" ht="40.5">
+    <row r="101" spans="1:9" ht="45">
       <c r="A101" s="28" t="s">
         <v>211</v>
       </c>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="I101" s="29"/>
     </row>
-    <row r="102" spans="1:9" ht="27">
+    <row r="102" spans="1:9" ht="45">
       <c r="A102" s="28" t="s">
         <v>213</v>
       </c>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="I102" s="29"/>
     </row>
-    <row r="103" spans="1:9" ht="40.5">
+    <row r="103" spans="1:9" ht="45">
       <c r="A103" s="28" t="s">
         <v>216</v>
       </c>
@@ -8729,7 +8729,7 @@
       </c>
       <c r="I103" s="29"/>
     </row>
-    <row r="104" spans="1:9" ht="27">
+    <row r="104" spans="1:9" ht="45">
       <c r="A104" s="28" t="s">
         <v>218</v>
       </c>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="I104" s="29"/>
     </row>
-    <row r="105" spans="1:9" ht="27">
+    <row r="105" spans="1:9" ht="45">
       <c r="A105" s="28" t="s">
         <v>220</v>
       </c>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="I105" s="29"/>
     </row>
-    <row r="106" spans="1:9" ht="40.5">
+    <row r="106" spans="1:9" ht="45">
       <c r="A106" s="28" t="s">
         <v>222</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>214</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D106" s="28"/>
       <c r="E106" s="28" t="s">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="I106" s="29"/>
     </row>
-    <row r="107" spans="1:9" ht="27">
+    <row r="107" spans="1:9" ht="45">
       <c r="A107" s="28" t="s">
         <v>223</v>
       </c>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="I107" s="29"/>
     </row>
-    <row r="108" spans="1:9" ht="27">
+    <row r="108" spans="1:9" ht="45">
       <c r="A108" s="28" t="s">
         <v>225</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>214</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D108" s="28"/>
       <c r="E108" s="28" t="s">
@@ -8854,7 +8854,7 @@
       </c>
       <c r="I108" s="29"/>
     </row>
-    <row r="109" spans="1:9" ht="27">
+    <row r="109" spans="1:9" ht="45">
       <c r="A109" s="28" t="s">
         <v>226</v>
       </c>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="I109" s="29"/>
     </row>
-    <row r="110" spans="1:9" ht="27">
+    <row r="110" spans="1:9" ht="45">
       <c r="A110" s="28" t="s">
         <v>228</v>
       </c>
@@ -8904,7 +8904,7 @@
       </c>
       <c r="I110" s="29"/>
     </row>
-    <row r="111" spans="1:9" ht="27">
+    <row r="111" spans="1:9" ht="45">
       <c r="A111" s="28" t="s">
         <v>230</v>
       </c>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="I111" s="29"/>
     </row>
-    <row r="112" spans="1:9" ht="27">
+    <row r="112" spans="1:9" ht="45">
       <c r="A112" s="28" t="s">
         <v>233</v>
       </c>
@@ -8954,7 +8954,7 @@
       </c>
       <c r="I112" s="29"/>
     </row>
-    <row r="113" spans="1:9" ht="40.5">
+    <row r="113" spans="1:9" ht="45">
       <c r="A113" s="28" t="s">
         <v>235</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>231</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D113" s="28"/>
       <c r="E113" s="28" t="s">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="I113" s="29"/>
     </row>
-    <row r="114" spans="1:9" ht="27">
+    <row r="114" spans="1:9" ht="45">
       <c r="A114" s="28" t="s">
         <v>236</v>
       </c>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="I114" s="29"/>
     </row>
-    <row r="115" spans="1:9" ht="27">
+    <row r="115" spans="1:9" ht="45">
       <c r="A115" s="28" t="s">
         <v>238</v>
       </c>
@@ -9029,7 +9029,7 @@
       </c>
       <c r="I115" s="29"/>
     </row>
-    <row r="116" spans="1:9" ht="40.5">
+    <row r="116" spans="1:9" ht="45">
       <c r="A116" s="28" t="s">
         <v>240</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>231</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D116" s="28"/>
       <c r="E116" s="28" t="s">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="I116" s="29"/>
     </row>
-    <row r="117" spans="1:9" ht="40.5">
+    <row r="117" spans="1:9" ht="45">
       <c r="A117" s="28" t="s">
         <v>241</v>
       </c>
@@ -9079,7 +9079,7 @@
       </c>
       <c r="I117" s="29"/>
     </row>
-    <row r="118" spans="1:9" ht="27">
+    <row r="118" spans="1:9" ht="45">
       <c r="A118" s="28" t="s">
         <v>243</v>
       </c>
@@ -9104,7 +9104,7 @@
       </c>
       <c r="I118" s="29"/>
     </row>
-    <row r="119" spans="1:9" ht="27">
+    <row r="119" spans="1:9" ht="45">
       <c r="A119" s="28" t="s">
         <v>245</v>
       </c>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="I119" s="29"/>
     </row>
-    <row r="120" spans="1:9" ht="40.5">
+    <row r="120" spans="1:9" ht="45">
       <c r="A120" s="28" t="s">
         <v>247</v>
       </c>
@@ -9154,7 +9154,7 @@
       </c>
       <c r="I120" s="29"/>
     </row>
-    <row r="121" spans="1:9" ht="27">
+    <row r="121" spans="1:9" ht="45">
       <c r="A121" s="28" t="s">
         <v>249</v>
       </c>
@@ -9179,7 +9179,7 @@
       </c>
       <c r="I121" s="29"/>
     </row>
-    <row r="122" spans="1:9" ht="27">
+    <row r="122" spans="1:9" ht="45">
       <c r="A122" s="28" t="s">
         <v>251</v>
       </c>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="I122" s="29"/>
     </row>
-    <row r="123" spans="1:9" ht="40.5">
+    <row r="123" spans="1:9" ht="45">
       <c r="A123" s="28" t="s">
         <v>253</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>231</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D123" s="28"/>
       <c r="E123" s="28" t="s">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="I123" s="29"/>
     </row>
-    <row r="124" spans="1:9" ht="27">
+    <row r="124" spans="1:9" ht="45">
       <c r="A124" s="28" t="s">
         <v>254</v>
       </c>
@@ -9254,7 +9254,7 @@
       </c>
       <c r="I124" s="29"/>
     </row>
-    <row r="125" spans="1:9" ht="67.5">
+    <row r="125" spans="1:9" ht="75">
       <c r="A125" s="28" t="s">
         <v>256</v>
       </c>
@@ -9279,7 +9279,7 @@
       </c>
       <c r="I125" s="29"/>
     </row>
-    <row r="126" spans="1:9" ht="27">
+    <row r="126" spans="1:9" ht="30">
       <c r="A126" s="28" t="s">
         <v>258</v>
       </c>
@@ -9304,7 +9304,7 @@
       </c>
       <c r="I126" s="29"/>
     </row>
-    <row r="127" spans="1:9" ht="40.5">
+    <row r="127" spans="1:9" ht="45">
       <c r="A127" s="28" t="s">
         <v>260</v>
       </c>
@@ -9329,7 +9329,7 @@
       </c>
       <c r="I127" s="29"/>
     </row>
-    <row r="128" spans="1:9" ht="54">
+    <row r="128" spans="1:9" ht="60">
       <c r="A128" s="28" t="s">
         <v>262</v>
       </c>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="I128" s="29"/>
     </row>
-    <row r="129" spans="1:9" ht="27">
+    <row r="129" spans="1:9" ht="30">
       <c r="A129" s="28" t="s">
         <v>264</v>
       </c>
@@ -9379,7 +9379,7 @@
       </c>
       <c r="I129" s="29"/>
     </row>
-    <row r="130" spans="1:9" ht="27">
+    <row r="130" spans="1:9" ht="30">
       <c r="A130" s="28" t="s">
         <v>266</v>
       </c>
@@ -9404,7 +9404,7 @@
       </c>
       <c r="I130" s="29"/>
     </row>
-    <row r="131" spans="1:9" ht="27">
+    <row r="131" spans="1:9" ht="30">
       <c r="A131" s="28" t="s">
         <v>268</v>
       </c>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I131" s="29"/>
     </row>
-    <row r="132" spans="1:9" ht="40.5">
+    <row r="132" spans="1:9" ht="30">
       <c r="A132" s="28" t="s">
         <v>271</v>
       </c>
@@ -9454,7 +9454,7 @@
       </c>
       <c r="I132" s="29"/>
     </row>
-    <row r="133" spans="1:9" ht="27">
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" s="28" t="s">
         <v>273</v>
       </c>
@@ -9479,7 +9479,7 @@
       </c>
       <c r="I133" s="29"/>
     </row>
-    <row r="134" spans="1:9" ht="27">
+    <row r="134" spans="1:9" ht="30">
       <c r="A134" s="28" t="s">
         <v>275</v>
       </c>
@@ -9504,7 +9504,7 @@
       </c>
       <c r="I134" s="29"/>
     </row>
-    <row r="135" spans="1:9" ht="27">
+    <row r="135" spans="1:9" ht="30">
       <c r="A135" s="28" t="s">
         <v>278</v>
       </c>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I135" s="29"/>
     </row>
-    <row r="136" spans="1:9" ht="27">
+    <row r="136" spans="1:9" ht="30">
       <c r="A136" s="28" t="s">
         <v>280</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>281</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="28" t="s">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="I136" s="29"/>
     </row>
-    <row r="137" spans="1:9" ht="40.5">
+    <row r="137" spans="1:9" ht="45">
       <c r="A137" s="28" t="s">
         <v>282</v>
       </c>
@@ -9579,7 +9579,7 @@
       </c>
       <c r="I137" s="29"/>
     </row>
-    <row r="138" spans="1:9" ht="216">
+    <row r="138" spans="1:9" ht="240">
       <c r="A138" s="28" t="s">
         <v>284</v>
       </c>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="I138" s="29"/>
     </row>
-    <row r="139" spans="1:9" ht="27">
+    <row r="139" spans="1:9" ht="30">
       <c r="A139" s="28" t="s">
         <v>286</v>
       </c>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="I139" s="29"/>
     </row>
-    <row r="140" spans="1:9" ht="27">
+    <row r="140" spans="1:9" ht="30">
       <c r="A140" s="28" t="s">
         <v>288</v>
       </c>
@@ -9654,7 +9654,7 @@
       </c>
       <c r="I140" s="29"/>
     </row>
-    <row r="141" spans="1:9" ht="27">
+    <row r="141" spans="1:9" ht="30">
       <c r="A141" s="28" t="s">
         <v>290</v>
       </c>
@@ -9681,13 +9681,13 @@
     </row>
     <row r="142" spans="1:9" ht="30">
       <c r="A142" s="33" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B142" s="28" t="s">
         <v>281</v>
       </c>
       <c r="C142" s="29" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D142" s="41"/>
       <c r="E142" s="41" t="s">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="I142" s="42"/>
     </row>
-    <row r="143" spans="1:9" ht="27">
+    <row r="143" spans="1:9" ht="30">
       <c r="A143" s="28" t="s">
         <v>292</v>
       </c>
@@ -9731,13 +9731,13 @@
     </row>
     <row r="144" spans="1:9" ht="30">
       <c r="A144" s="33" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B144" s="28" t="s">
         <v>281</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D144" s="41"/>
       <c r="E144" s="41" t="s">
@@ -9754,7 +9754,7 @@
       </c>
       <c r="I144" s="42"/>
     </row>
-    <row r="145" spans="1:9" ht="27">
+    <row r="145" spans="1:9" ht="45">
       <c r="A145" s="28" t="s">
         <v>294</v>
       </c>
@@ -9779,7 +9779,7 @@
       </c>
       <c r="I145" s="29"/>
     </row>
-    <row r="146" spans="1:9" ht="27">
+    <row r="146" spans="1:9" ht="30">
       <c r="A146" s="28" t="s">
         <v>296</v>
       </c>
@@ -9804,7 +9804,7 @@
       </c>
       <c r="I146" s="29"/>
     </row>
-    <row r="147" spans="1:9" ht="27">
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="28" t="s">
         <v>298</v>
       </c>
@@ -9829,7 +9829,7 @@
       </c>
       <c r="I147" s="29"/>
     </row>
-    <row r="148" spans="1:9" ht="27">
+    <row r="148" spans="1:9" ht="30">
       <c r="A148" s="28" t="s">
         <v>300</v>
       </c>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="I148" s="29"/>
     </row>
-    <row r="149" spans="1:9" ht="27">
+    <row r="149" spans="1:9" ht="30">
       <c r="A149" s="28" t="s">
         <v>302</v>
       </c>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="I149" s="29"/>
     </row>
-    <row r="150" spans="1:9" ht="27">
+    <row r="150" spans="1:9" ht="30">
       <c r="A150" s="28" t="s">
         <v>305</v>
       </c>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="I150" s="29"/>
     </row>
-    <row r="151" spans="1:9" ht="27">
+    <row r="151" spans="1:9" ht="30">
       <c r="A151" s="28" t="s">
         <v>307</v>
       </c>
@@ -9929,7 +9929,7 @@
       </c>
       <c r="I151" s="29"/>
     </row>
-    <row r="152" spans="1:9" ht="27">
+    <row r="152" spans="1:9" ht="30">
       <c r="A152" s="28" t="s">
         <v>309</v>
       </c>
@@ -9954,7 +9954,7 @@
       </c>
       <c r="I152" s="29"/>
     </row>
-    <row r="153" spans="1:9" ht="27">
+    <row r="153" spans="1:9" ht="30">
       <c r="A153" s="28" t="s">
         <v>311</v>
       </c>
@@ -9979,7 +9979,7 @@
       </c>
       <c r="I153" s="29"/>
     </row>
-    <row r="154" spans="1:9" ht="27">
+    <row r="154" spans="1:9" ht="30">
       <c r="A154" s="28" t="s">
         <v>313</v>
       </c>
@@ -10004,7 +10004,7 @@
       </c>
       <c r="I154" s="29"/>
     </row>
-    <row r="155" spans="1:9" ht="27">
+    <row r="155" spans="1:9" ht="30">
       <c r="A155" s="28" t="s">
         <v>315</v>
       </c>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="I155" s="29"/>
     </row>
-    <row r="156" spans="1:9" ht="27">
+    <row r="156" spans="1:9" ht="30">
       <c r="A156" s="28" t="s">
         <v>317</v>
       </c>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I156" s="29"/>
     </row>
-    <row r="157" spans="1:9" ht="27">
+    <row r="157" spans="1:9" ht="45">
       <c r="A157" s="28" t="s">
         <v>319</v>
       </c>
@@ -10079,7 +10079,7 @@
       </c>
       <c r="I157" s="29"/>
     </row>
-    <row r="158" spans="1:9" ht="189">
+    <row r="158" spans="1:9" ht="210">
       <c r="A158" s="28" t="s">
         <v>304</v>
       </c>
@@ -10106,13 +10106,13 @@
     </row>
     <row r="159" spans="1:9" ht="30">
       <c r="A159" s="33" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B159" s="33" t="s">
         <v>320</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D159" s="41"/>
       <c r="E159" s="41" t="s">
@@ -10129,7 +10129,7 @@
       </c>
       <c r="I159" s="42"/>
     </row>
-    <row r="160" spans="1:9" ht="40.5">
+    <row r="160" spans="1:9" ht="45">
       <c r="A160" s="28" t="s">
         <v>323</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>320</v>
       </c>
       <c r="C160" s="29" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="28" t="s">
@@ -10154,7 +10154,7 @@
       </c>
       <c r="I160" s="29"/>
     </row>
-    <row r="161" spans="1:9" ht="54">
+    <row r="161" spans="1:9" ht="45">
       <c r="A161" s="28" t="s">
         <v>324</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>320</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D161" s="34"/>
       <c r="E161" s="34" t="s">
@@ -10175,11 +10175,11 @@
         <v>15</v>
       </c>
       <c r="H161" s="34" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="I161" s="35"/>
     </row>
-    <row r="162" spans="1:9" ht="27">
+    <row r="162" spans="1:9" ht="45">
       <c r="A162" s="28" t="s">
         <v>325</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>33</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D162" s="28"/>
       <c r="E162" s="28" t="s">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="I162" s="29"/>
     </row>
-    <row r="163" spans="1:9" ht="81">
+    <row r="163" spans="1:9" ht="90">
       <c r="A163" s="28" t="s">
         <v>326</v>
       </c>
@@ -10229,7 +10229,7 @@
       </c>
       <c r="I163" s="29"/>
     </row>
-    <row r="164" spans="1:9" ht="27">
+    <row r="164" spans="1:9" ht="30">
       <c r="A164" s="28" t="s">
         <v>328</v>
       </c>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="I164" s="29"/>
     </row>
-    <row r="165" spans="1:9" ht="40.5">
+    <row r="165" spans="1:9" ht="45">
       <c r="A165" s="28" t="s">
         <v>330</v>
       </c>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="I165" s="29"/>
     </row>
-    <row r="166" spans="1:9" ht="27">
+    <row r="166" spans="1:9" ht="45">
       <c r="A166" s="28" t="s">
         <v>332</v>
       </c>
@@ -10304,7 +10304,7 @@
       </c>
       <c r="I166" s="29"/>
     </row>
-    <row r="167" spans="1:9" ht="40.5">
+    <row r="167" spans="1:9" ht="45">
       <c r="A167" s="28" t="s">
         <v>334</v>
       </c>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="I167" s="29"/>
     </row>
-    <row r="168" spans="1:9" ht="27">
+    <row r="168" spans="1:9" ht="30">
       <c r="A168" s="28" t="s">
         <v>336</v>
       </c>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="I168" s="29"/>
     </row>
-    <row r="169" spans="1:9" ht="40.5">
+    <row r="169" spans="1:9" ht="45">
       <c r="A169" s="28" t="s">
         <v>339</v>
       </c>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="I169" s="29"/>
     </row>
-    <row r="170" spans="1:9" ht="27">
+    <row r="170" spans="1:9" ht="30">
       <c r="A170" s="28" t="s">
         <v>341</v>
       </c>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="I170" s="29"/>
     </row>
-    <row r="171" spans="1:9" ht="27">
+    <row r="171" spans="1:9" ht="30">
       <c r="A171" s="28" t="s">
         <v>343</v>
       </c>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="I171" s="29"/>
     </row>
-    <row r="172" spans="1:9" ht="27">
+    <row r="172" spans="1:9" ht="30">
       <c r="A172" s="28" t="s">
         <v>346</v>
       </c>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="I172" s="29"/>
     </row>
-    <row r="173" spans="1:9" ht="27">
+    <row r="173" spans="1:9" ht="30">
       <c r="A173" s="28" t="s">
         <v>348</v>
       </c>
@@ -10479,7 +10479,7 @@
       </c>
       <c r="I173" s="29"/>
     </row>
-    <row r="174" spans="1:9" ht="121.5">
+    <row r="174" spans="1:9" ht="135">
       <c r="A174" s="28" t="s">
         <v>351</v>
       </c>
@@ -10504,7 +10504,7 @@
       </c>
       <c r="I174" s="29"/>
     </row>
-    <row r="175" spans="1:9" ht="27">
+    <row r="175" spans="1:9" ht="30">
       <c r="A175" s="28" t="s">
         <v>353</v>
       </c>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="I175" s="29"/>
     </row>
-    <row r="176" spans="1:9" ht="27">
+    <row r="176" spans="1:9" ht="30">
       <c r="A176" s="28" t="s">
         <v>355</v>
       </c>
@@ -10554,7 +10554,7 @@
       </c>
       <c r="I176" s="29"/>
     </row>
-    <row r="177" spans="1:9" ht="27">
+    <row r="177" spans="1:9" ht="30">
       <c r="A177" s="28" t="s">
         <v>357</v>
       </c>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="I177" s="29"/>
     </row>
-    <row r="178" spans="1:9" ht="27">
+    <row r="178" spans="1:9" ht="45">
       <c r="A178" s="28" t="s">
         <v>359</v>
       </c>
@@ -10604,15 +10604,15 @@
       </c>
       <c r="I178" s="29"/>
     </row>
-    <row r="179" spans="1:9" ht="30">
+    <row r="179" spans="1:9" ht="45">
       <c r="A179" s="33" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B179" s="41" t="s">
         <v>349</v>
       </c>
       <c r="C179" s="29" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D179" s="41"/>
       <c r="E179" s="41" t="s">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I179" s="42"/>
     </row>
-    <row r="180" spans="1:9" ht="27">
+    <row r="180" spans="1:9" ht="45">
       <c r="A180" s="28" t="s">
         <v>361</v>
       </c>
@@ -10654,7 +10654,7 @@
       </c>
       <c r="I180" s="29"/>
     </row>
-    <row r="181" spans="1:9" ht="27">
+    <row r="181" spans="1:9" ht="30">
       <c r="A181" s="28" t="s">
         <v>363</v>
       </c>
@@ -10679,7 +10679,7 @@
       </c>
       <c r="I181" s="29"/>
     </row>
-    <row r="182" spans="1:9" ht="27">
+    <row r="182" spans="1:9" ht="30">
       <c r="A182" s="28" t="s">
         <v>366</v>
       </c>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="I182" s="29"/>
     </row>
-    <row r="183" spans="1:9" ht="27">
+    <row r="183" spans="1:9" ht="45">
       <c r="A183" s="28" t="s">
         <v>368</v>
       </c>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I183" s="29"/>
     </row>
-    <row r="184" spans="1:9" ht="27">
+    <row r="184" spans="1:9" ht="45">
       <c r="A184" s="28" t="s">
         <v>369</v>
       </c>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="I184" s="29"/>
     </row>
-    <row r="185" spans="1:9" ht="202.5">
+    <row r="185" spans="1:9" ht="225">
       <c r="A185" s="28" t="s">
         <v>365</v>
       </c>
@@ -10779,7 +10779,7 @@
       </c>
       <c r="I185" s="29"/>
     </row>
-    <row r="186" spans="1:9" ht="148.5">
+    <row r="186" spans="1:9" ht="165">
       <c r="A186" s="28" t="s">
         <v>373</v>
       </c>
@@ -10804,7 +10804,7 @@
       </c>
       <c r="I186" s="29"/>
     </row>
-    <row r="187" spans="1:9" ht="40.5">
+    <row r="187" spans="1:9" ht="45">
       <c r="A187" s="28" t="s">
         <v>375</v>
       </c>
@@ -10829,7 +10829,7 @@
       </c>
       <c r="I187" s="29"/>
     </row>
-    <row r="188" spans="1:9" ht="40.5">
+    <row r="188" spans="1:9" ht="45">
       <c r="A188" s="28" t="s">
         <v>377</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>370</v>
       </c>
       <c r="C188" s="29" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D188" s="28"/>
       <c r="E188" s="28" t="s">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="I188" s="29"/>
     </row>
-    <row r="189" spans="1:9" ht="40.5">
+    <row r="189" spans="1:9" ht="45">
       <c r="A189" s="28" t="s">
         <v>378</v>
       </c>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="I189" s="29"/>
     </row>
-    <row r="190" spans="1:9" ht="40.5">
+    <row r="190" spans="1:9" ht="45">
       <c r="A190" s="28" t="s">
         <v>380</v>
       </c>
@@ -10906,13 +10906,13 @@
     </row>
     <row r="191" spans="1:9" ht="30">
       <c r="A191" s="33" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B191" s="33" t="s">
         <v>1095</v>
       </c>
-      <c r="B191" s="33" t="s">
+      <c r="C191" s="31" t="s">
         <v>1096</v>
-      </c>
-      <c r="C191" s="31" t="s">
-        <v>1097</v>
       </c>
       <c r="D191" s="41"/>
       <c r="E191" s="41" t="s">
@@ -10931,13 +10931,13 @@
     </row>
     <row r="192" spans="1:9" ht="165">
       <c r="A192" s="33" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B192" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C192" s="31" t="s">
         <v>1098</v>
-      </c>
-      <c r="B192" s="33" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C192" s="31" t="s">
-        <v>1099</v>
       </c>
       <c r="D192" s="41"/>
       <c r="E192" s="41" t="s">
@@ -10956,13 +10956,13 @@
     </row>
     <row r="193" spans="1:9" ht="30">
       <c r="A193" s="33" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B193" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C193" s="31" t="s">
         <v>1100</v>
-      </c>
-      <c r="B193" s="33" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C193" s="31" t="s">
-        <v>1101</v>
       </c>
       <c r="D193" s="41"/>
       <c r="E193" s="41" t="s">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="I193" s="42"/>
     </row>
-    <row r="194" spans="1:9" ht="27">
+    <row r="194" spans="1:9" ht="45">
       <c r="A194" s="28" t="s">
         <v>382</v>
       </c>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="I194" s="29"/>
     </row>
-    <row r="195" spans="1:9" ht="67.5">
+    <row r="195" spans="1:9" ht="75">
       <c r="A195" s="28" t="s">
         <v>385</v>
       </c>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="I195" s="29"/>
     </row>
-    <row r="196" spans="1:9" ht="27">
+    <row r="196" spans="1:9" ht="30">
       <c r="A196" s="28" t="s">
         <v>387</v>
       </c>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="I196" s="29"/>
     </row>
-    <row r="197" spans="1:9" ht="40.5">
+    <row r="197" spans="1:9" ht="45">
       <c r="A197" s="28" t="s">
         <v>389</v>
       </c>
@@ -11079,7 +11079,7 @@
       </c>
       <c r="I197" s="29"/>
     </row>
-    <row r="198" spans="1:9" ht="40.5">
+    <row r="198" spans="1:9" ht="45">
       <c r="A198" s="28" t="s">
         <v>391</v>
       </c>
@@ -11104,7 +11104,7 @@
       </c>
       <c r="I198" s="29"/>
     </row>
-    <row r="199" spans="1:9" ht="27">
+    <row r="199" spans="1:9" ht="30">
       <c r="A199" s="28" t="s">
         <v>393</v>
       </c>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="I199" s="29"/>
     </row>
-    <row r="200" spans="1:9" ht="40.5">
+    <row r="200" spans="1:9" ht="45">
       <c r="A200" s="28" t="s">
         <v>396</v>
       </c>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="I200" s="29"/>
     </row>
-    <row r="201" spans="1:9" ht="27">
+    <row r="201" spans="1:9" ht="30">
       <c r="A201" s="28" t="s">
         <v>398</v>
       </c>
@@ -11179,7 +11179,7 @@
       </c>
       <c r="I201" s="29"/>
     </row>
-    <row r="202" spans="1:9" ht="27">
+    <row r="202" spans="1:9" ht="30">
       <c r="A202" s="28" t="s">
         <v>400</v>
       </c>
@@ -11204,7 +11204,7 @@
       </c>
       <c r="I202" s="29"/>
     </row>
-    <row r="203" spans="1:9" ht="27">
+    <row r="203" spans="1:9" ht="30">
       <c r="A203" s="28" t="s">
         <v>403</v>
       </c>
@@ -11229,7 +11229,7 @@
       </c>
       <c r="I203" s="29"/>
     </row>
-    <row r="204" spans="1:9" ht="27">
+    <row r="204" spans="1:9" ht="30">
       <c r="A204" s="28" t="s">
         <v>405</v>
       </c>
@@ -11254,7 +11254,7 @@
       </c>
       <c r="I204" s="29"/>
     </row>
-    <row r="205" spans="1:9" ht="148.5">
+    <row r="205" spans="1:9" ht="165">
       <c r="A205" s="28" t="s">
         <v>408</v>
       </c>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="I205" s="29"/>
     </row>
-    <row r="206" spans="1:9" ht="27">
+    <row r="206" spans="1:9" ht="30">
       <c r="A206" s="28" t="s">
         <v>410</v>
       </c>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="I206" s="29"/>
     </row>
-    <row r="207" spans="1:9" ht="27">
+    <row r="207" spans="1:9" ht="30">
       <c r="A207" s="28" t="s">
         <v>412</v>
       </c>
@@ -11329,7 +11329,7 @@
       </c>
       <c r="I207" s="29"/>
     </row>
-    <row r="208" spans="1:9" ht="27">
+    <row r="208" spans="1:9" ht="30">
       <c r="A208" s="28" t="s">
         <v>415</v>
       </c>
@@ -11354,7 +11354,7 @@
       </c>
       <c r="I208" s="29"/>
     </row>
-    <row r="209" spans="1:9" ht="27">
+    <row r="209" spans="1:9" ht="30">
       <c r="A209" s="28" t="s">
         <v>417</v>
       </c>
@@ -11379,15 +11379,15 @@
       </c>
       <c r="I209" s="29"/>
     </row>
-    <row r="210" spans="1:9" ht="30">
+    <row r="210" spans="1:9" ht="45">
       <c r="A210" s="33" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B210" s="33" t="s">
         <v>406</v>
       </c>
       <c r="C210" s="29" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D210" s="41"/>
       <c r="E210" s="41" t="s">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="I210" s="42"/>
     </row>
-    <row r="211" spans="1:9" ht="27">
+    <row r="211" spans="1:9" ht="30">
       <c r="A211" s="28" t="s">
         <v>419</v>
       </c>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="I211" s="29"/>
     </row>
-    <row r="212" spans="1:9" ht="27">
+    <row r="212" spans="1:9" ht="45">
       <c r="A212" s="28" t="s">
         <v>421</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>406</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D212" s="28"/>
       <c r="E212" s="28" t="s">
@@ -11454,7 +11454,7 @@
       </c>
       <c r="I212" s="29"/>
     </row>
-    <row r="213" spans="1:9" ht="54">
+    <row r="213" spans="1:9" ht="45">
       <c r="A213" s="28" t="s">
         <v>422</v>
       </c>
@@ -11479,7 +11479,7 @@
       </c>
       <c r="I213" s="29"/>
     </row>
-    <row r="214" spans="1:9" ht="27">
+    <row r="214" spans="1:9" ht="45">
       <c r="A214" s="28" t="s">
         <v>424</v>
       </c>
@@ -11504,7 +11504,7 @@
       </c>
       <c r="I214" s="29"/>
     </row>
-    <row r="215" spans="1:9" ht="27">
+    <row r="215" spans="1:9" ht="30">
       <c r="A215" s="28" t="s">
         <v>426</v>
       </c>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="I215" s="29"/>
     </row>
-    <row r="216" spans="1:9" ht="27">
+    <row r="216" spans="1:9" ht="45">
       <c r="A216" s="28" t="s">
         <v>428</v>
       </c>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="I216" s="29"/>
     </row>
-    <row r="217" spans="1:9" ht="216">
+    <row r="217" spans="1:9" ht="240">
       <c r="A217" s="28" t="s">
         <v>414</v>
       </c>
@@ -11579,7 +11579,7 @@
       </c>
       <c r="I217" s="29"/>
     </row>
-    <row r="218" spans="1:9" ht="54">
+    <row r="218" spans="1:9" ht="60">
       <c r="A218" s="28" t="s">
         <v>432</v>
       </c>
@@ -11604,7 +11604,7 @@
       </c>
       <c r="I218" s="29"/>
     </row>
-    <row r="219" spans="1:9" ht="27">
+    <row r="219" spans="1:9" ht="30">
       <c r="A219" s="28" t="s">
         <v>434</v>
       </c>
@@ -11629,7 +11629,7 @@
       </c>
       <c r="I219" s="29"/>
     </row>
-    <row r="220" spans="1:9" ht="27">
+    <row r="220" spans="1:9" ht="45">
       <c r="A220" s="28" t="s">
         <v>436</v>
       </c>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="I220" s="29"/>
     </row>
-    <row r="221" spans="1:9" ht="27">
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="28" t="s">
         <v>438</v>
       </c>
@@ -11679,7 +11679,7 @@
       </c>
       <c r="I221" s="29"/>
     </row>
-    <row r="222" spans="1:9" ht="27">
+    <row r="222" spans="1:9" ht="45">
       <c r="A222" s="28" t="s">
         <v>440</v>
       </c>
@@ -11704,7 +11704,7 @@
       </c>
       <c r="I222" s="29"/>
     </row>
-    <row r="223" spans="1:9" ht="40.5">
+    <row r="223" spans="1:9" ht="45">
       <c r="A223" s="28" t="s">
         <v>442</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>429</v>
       </c>
       <c r="C223" s="29" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D223" s="28"/>
       <c r="E223" s="28" t="s">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="I223" s="29"/>
     </row>
-    <row r="224" spans="1:9" ht="27">
+    <row r="224" spans="1:9" ht="45">
       <c r="A224" s="28" t="s">
         <v>443</v>
       </c>
@@ -11754,7 +11754,7 @@
       </c>
       <c r="I224" s="29"/>
     </row>
-    <row r="225" spans="1:9" ht="135">
+    <row r="225" spans="1:9" ht="150">
       <c r="A225" s="28" t="s">
         <v>446</v>
       </c>
@@ -11779,7 +11779,7 @@
       </c>
       <c r="I225" s="29"/>
     </row>
-    <row r="226" spans="1:9" ht="27">
+    <row r="226" spans="1:9" ht="30">
       <c r="A226" s="28" t="s">
         <v>448</v>
       </c>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="I226" s="29"/>
     </row>
-    <row r="227" spans="1:9" ht="27">
+    <row r="227" spans="1:9" ht="30">
       <c r="A227" s="28" t="s">
         <v>450</v>
       </c>
@@ -11829,7 +11829,7 @@
       </c>
       <c r="I227" s="29"/>
     </row>
-    <row r="228" spans="1:9" ht="27">
+    <row r="228" spans="1:9" ht="30">
       <c r="A228" s="28" t="s">
         <v>452</v>
       </c>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="I228" s="29"/>
     </row>
-    <row r="229" spans="1:9" ht="27">
+    <row r="229" spans="1:9" ht="45">
       <c r="A229" s="28" t="s">
         <v>454</v>
       </c>
@@ -11879,7 +11879,7 @@
       </c>
       <c r="I229" s="29"/>
     </row>
-    <row r="230" spans="1:9" ht="27">
+    <row r="230" spans="1:9" ht="30">
       <c r="A230" s="28" t="s">
         <v>456</v>
       </c>
@@ -11904,7 +11904,7 @@
       </c>
       <c r="I230" s="29"/>
     </row>
-    <row r="231" spans="1:9" ht="27">
+    <row r="231" spans="1:9" ht="30">
       <c r="A231" s="28" t="s">
         <v>458</v>
       </c>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I231" s="29"/>
     </row>
-    <row r="232" spans="1:9" ht="27">
+    <row r="232" spans="1:9" ht="45">
       <c r="A232" s="28" t="s">
         <v>460</v>
       </c>
@@ -11954,7 +11954,7 @@
       </c>
       <c r="I232" s="29"/>
     </row>
-    <row r="233" spans="1:9" ht="27">
+    <row r="233" spans="1:9" ht="45">
       <c r="A233" s="28" t="s">
         <v>462</v>
       </c>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="I233" s="29"/>
     </row>
-    <row r="234" spans="1:9" ht="27">
+    <row r="234" spans="1:9" ht="30">
       <c r="A234" s="28" t="s">
         <v>464</v>
       </c>
@@ -12004,7 +12004,7 @@
       </c>
       <c r="I234" s="29"/>
     </row>
-    <row r="235" spans="1:9" ht="27">
+    <row r="235" spans="1:9" ht="30">
       <c r="A235" s="28" t="s">
         <v>466</v>
       </c>
@@ -12029,7 +12029,7 @@
       </c>
       <c r="I235" s="29"/>
     </row>
-    <row r="236" spans="1:9" ht="27">
+    <row r="236" spans="1:9" ht="30">
       <c r="A236" s="28" t="s">
         <v>468</v>
       </c>
@@ -12054,7 +12054,7 @@
       </c>
       <c r="I236" s="29"/>
     </row>
-    <row r="237" spans="1:9" ht="27">
+    <row r="237" spans="1:9" ht="30">
       <c r="A237" s="28" t="s">
         <v>470</v>
       </c>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="I237" s="29"/>
     </row>
-    <row r="238" spans="1:9" ht="27">
+    <row r="238" spans="1:9" ht="30">
       <c r="A238" s="28" t="s">
         <v>472</v>
       </c>
@@ -12104,7 +12104,7 @@
       </c>
       <c r="I238" s="29"/>
     </row>
-    <row r="239" spans="1:9" ht="27">
+    <row r="239" spans="1:9" ht="30">
       <c r="A239" s="28" t="s">
         <v>475</v>
       </c>
@@ -12129,7 +12129,7 @@
       </c>
       <c r="I239" s="29"/>
     </row>
-    <row r="240" spans="1:9" ht="175.5">
+    <row r="240" spans="1:9" ht="195">
       <c r="A240" s="28" t="s">
         <v>477</v>
       </c>
@@ -12154,7 +12154,7 @@
       </c>
       <c r="I240" s="29"/>
     </row>
-    <row r="241" spans="1:9" ht="27">
+    <row r="241" spans="1:9" ht="30">
       <c r="A241" s="28" t="s">
         <v>479</v>
       </c>
@@ -12179,7 +12179,7 @@
       </c>
       <c r="I241" s="29"/>
     </row>
-    <row r="242" spans="1:9" ht="40.5">
+    <row r="242" spans="1:9" ht="45">
       <c r="A242" s="28" t="s">
         <v>481</v>
       </c>
@@ -12204,7 +12204,7 @@
       </c>
       <c r="I242" s="29"/>
     </row>
-    <row r="243" spans="1:9" ht="27">
+    <row r="243" spans="1:9" ht="30">
       <c r="A243" s="28" t="s">
         <v>483</v>
       </c>
@@ -12229,7 +12229,7 @@
       </c>
       <c r="I243" s="29"/>
     </row>
-    <row r="244" spans="1:9" ht="27">
+    <row r="244" spans="1:9" ht="30">
       <c r="A244" s="28" t="s">
         <v>485</v>
       </c>
@@ -12254,7 +12254,7 @@
       </c>
       <c r="I244" s="29"/>
     </row>
-    <row r="245" spans="1:9" ht="27">
+    <row r="245" spans="1:9" ht="30">
       <c r="A245" s="28" t="s">
         <v>487</v>
       </c>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="I245" s="29"/>
     </row>
-    <row r="246" spans="1:9" ht="27">
+    <row r="246" spans="1:9" ht="30">
       <c r="A246" s="28" t="s">
         <v>489</v>
       </c>
@@ -12304,7 +12304,7 @@
       </c>
       <c r="I246" s="29"/>
     </row>
-    <row r="247" spans="1:9" ht="27">
+    <row r="247" spans="1:9" ht="30">
       <c r="A247" s="28" t="s">
         <v>491</v>
       </c>
@@ -12329,7 +12329,7 @@
       </c>
       <c r="I247" s="29"/>
     </row>
-    <row r="248" spans="1:9" ht="27">
+    <row r="248" spans="1:9" ht="30">
       <c r="A248" s="28" t="s">
         <v>493</v>
       </c>
@@ -12354,7 +12354,7 @@
       </c>
       <c r="I248" s="29"/>
     </row>
-    <row r="249" spans="1:9" ht="27">
+    <row r="249" spans="1:9" ht="30">
       <c r="A249" s="28" t="s">
         <v>495</v>
       </c>
@@ -12379,7 +12379,7 @@
       </c>
       <c r="I249" s="29"/>
     </row>
-    <row r="250" spans="1:9" ht="27">
+    <row r="250" spans="1:9" ht="30">
       <c r="A250" s="28" t="s">
         <v>497</v>
       </c>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="I250" s="29"/>
     </row>
-    <row r="251" spans="1:9" ht="27">
+    <row r="251" spans="1:9" ht="45">
       <c r="A251" s="28" t="s">
         <v>499</v>
       </c>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="I251" s="29"/>
     </row>
-    <row r="252" spans="1:9" ht="40.5">
+    <row r="252" spans="1:9" ht="45">
       <c r="A252" s="28" t="s">
         <v>501</v>
       </c>
@@ -12454,7 +12454,7 @@
       </c>
       <c r="I252" s="29"/>
     </row>
-    <row r="253" spans="1:9" ht="40.5">
+    <row r="253" spans="1:9" ht="30">
       <c r="A253" s="28" t="s">
         <v>503</v>
       </c>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="I253" s="29"/>
     </row>
-    <row r="254" spans="1:9" ht="54">
+    <row r="254" spans="1:9" ht="60">
       <c r="A254" s="28" t="s">
         <v>505</v>
       </c>
@@ -12504,7 +12504,7 @@
       </c>
       <c r="I254" s="29"/>
     </row>
-    <row r="255" spans="1:9" ht="27">
+    <row r="255" spans="1:9" ht="30">
       <c r="A255" s="28" t="s">
         <v>507</v>
       </c>
@@ -12529,7 +12529,7 @@
       </c>
       <c r="I255" s="29"/>
     </row>
-    <row r="256" spans="1:9" ht="27">
+    <row r="256" spans="1:9" ht="30">
       <c r="A256" s="28" t="s">
         <v>509</v>
       </c>
@@ -12554,7 +12554,7 @@
       </c>
       <c r="I256" s="29"/>
     </row>
-    <row r="257" spans="1:9" ht="27">
+    <row r="257" spans="1:9" ht="30">
       <c r="A257" s="28" t="s">
         <v>511</v>
       </c>
@@ -12579,7 +12579,7 @@
       </c>
       <c r="I257" s="29"/>
     </row>
-    <row r="258" spans="1:9" ht="27">
+    <row r="258" spans="1:9" ht="30">
       <c r="A258" s="28" t="s">
         <v>513</v>
       </c>
@@ -12604,7 +12604,7 @@
       </c>
       <c r="I258" s="29"/>
     </row>
-    <row r="259" spans="1:9" ht="27">
+    <row r="259" spans="1:9" ht="30">
       <c r="A259" s="28" t="s">
         <v>515</v>
       </c>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="I259" s="29"/>
     </row>
-    <row r="260" spans="1:9" ht="27">
+    <row r="260" spans="1:9" ht="30">
       <c r="A260" s="28" t="s">
         <v>517</v>
       </c>
@@ -12654,7 +12654,7 @@
       </c>
       <c r="I260" s="29"/>
     </row>
-    <row r="261" spans="1:9" ht="27">
+    <row r="261" spans="1:9" ht="30">
       <c r="A261" s="28" t="s">
         <v>519</v>
       </c>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="I261" s="29"/>
     </row>
-    <row r="262" spans="1:9" ht="27">
+    <row r="262" spans="1:9" ht="30">
       <c r="A262" s="28" t="s">
         <v>521</v>
       </c>
@@ -12704,7 +12704,7 @@
       </c>
       <c r="I262" s="29"/>
     </row>
-    <row r="263" spans="1:9" ht="27">
+    <row r="263" spans="1:9" ht="45">
       <c r="A263" s="28" t="s">
         <v>523</v>
       </c>
@@ -12729,7 +12729,7 @@
       </c>
       <c r="I263" s="29"/>
     </row>
-    <row r="264" spans="1:9" ht="67.5">
+    <row r="264" spans="1:9" ht="75">
       <c r="A264" s="28" t="s">
         <v>526</v>
       </c>
@@ -12754,7 +12754,7 @@
       </c>
       <c r="I264" s="29"/>
     </row>
-    <row r="265" spans="1:9" ht="27">
+    <row r="265" spans="1:9" ht="30">
       <c r="A265" s="28" t="s">
         <v>528</v>
       </c>
@@ -12779,7 +12779,7 @@
       </c>
       <c r="I265" s="29"/>
     </row>
-    <row r="266" spans="1:9" ht="40.5">
+    <row r="266" spans="1:9" ht="45">
       <c r="A266" s="28" t="s">
         <v>530</v>
       </c>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="I266" s="29"/>
     </row>
-    <row r="267" spans="1:9" ht="40.5">
+    <row r="267" spans="1:9" ht="45">
       <c r="A267" s="28" t="s">
         <v>532</v>
       </c>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="I267" s="29"/>
     </row>
-    <row r="268" spans="1:9" ht="27">
+    <row r="268" spans="1:9" ht="30">
       <c r="A268" s="28" t="s">
         <v>534</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>524</v>
       </c>
       <c r="C268" s="29" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D268" s="28"/>
       <c r="E268" s="28" t="s">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="I268" s="29"/>
     </row>
-    <row r="269" spans="1:9" ht="27">
+    <row r="269" spans="1:9" ht="30">
       <c r="A269" s="28" t="s">
         <v>535</v>
       </c>
@@ -12879,7 +12879,7 @@
       </c>
       <c r="I269" s="29"/>
     </row>
-    <row r="270" spans="1:9" ht="27">
+    <row r="270" spans="1:9" ht="30">
       <c r="A270" s="28" t="s">
         <v>538</v>
       </c>
@@ -12904,7 +12904,7 @@
       </c>
       <c r="I270" s="29"/>
     </row>
-    <row r="271" spans="1:9" ht="27">
+    <row r="271" spans="1:9" ht="30">
       <c r="A271" s="28" t="s">
         <v>540</v>
       </c>
@@ -12929,7 +12929,7 @@
       </c>
       <c r="I271" s="29"/>
     </row>
-    <row r="272" spans="1:9" ht="27">
+    <row r="272" spans="1:9" ht="30">
       <c r="A272" s="28" t="s">
         <v>542</v>
       </c>
@@ -12954,7 +12954,7 @@
       </c>
       <c r="I272" s="29"/>
     </row>
-    <row r="273" spans="1:9" ht="27">
+    <row r="273" spans="1:9" ht="30">
       <c r="A273" s="28" t="s">
         <v>545</v>
       </c>
@@ -12979,7 +12979,7 @@
       </c>
       <c r="I273" s="29"/>
     </row>
-    <row r="274" spans="1:9" ht="27">
+    <row r="274" spans="1:9" ht="30">
       <c r="A274" s="28" t="s">
         <v>547</v>
       </c>
@@ -13004,7 +13004,7 @@
       </c>
       <c r="I274" s="29"/>
     </row>
-    <row r="275" spans="1:9" ht="40.5">
+    <row r="275" spans="1:9" ht="45">
       <c r="A275" s="28" t="s">
         <v>550</v>
       </c>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I275" s="29"/>
     </row>
-    <row r="276" spans="1:9" ht="27">
+    <row r="276" spans="1:9" ht="30">
       <c r="A276" s="28" t="s">
         <v>552</v>
       </c>
@@ -13054,7 +13054,7 @@
       </c>
       <c r="I276" s="29"/>
     </row>
-    <row r="277" spans="1:9" ht="67.5">
+    <row r="277" spans="1:9" ht="75">
       <c r="A277" s="28" t="s">
         <v>555</v>
       </c>
@@ -13079,7 +13079,7 @@
       </c>
       <c r="I277" s="29"/>
     </row>
-    <row r="278" spans="1:9" ht="40.5">
+    <row r="278" spans="1:9" ht="45">
       <c r="A278" s="28" t="s">
         <v>557</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>553</v>
       </c>
       <c r="C278" s="29" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D278" s="28"/>
       <c r="E278" s="28" t="s">
@@ -13104,7 +13104,7 @@
       </c>
       <c r="I278" s="29"/>
     </row>
-    <row r="279" spans="1:9" ht="40.5">
+    <row r="279" spans="1:9" ht="45">
       <c r="A279" s="28" t="s">
         <v>558</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>559</v>
       </c>
       <c r="C279" s="29" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D279" s="28"/>
       <c r="E279" s="28" t="s">
@@ -13129,7 +13129,7 @@
       </c>
       <c r="I279" s="29"/>
     </row>
-    <row r="280" spans="1:9" ht="81">
+    <row r="280" spans="1:9" ht="75">
       <c r="A280" s="28" t="s">
         <v>560</v>
       </c>
@@ -13154,7 +13154,7 @@
       </c>
       <c r="I280" s="29"/>
     </row>
-    <row r="281" spans="1:9" ht="27">
+    <row r="281" spans="1:9" ht="30">
       <c r="A281" s="28" t="s">
         <v>562</v>
       </c>
@@ -13179,7 +13179,7 @@
       </c>
       <c r="I281" s="29"/>
     </row>
-    <row r="282" spans="1:9" ht="40.5">
+    <row r="282" spans="1:9" ht="45">
       <c r="A282" s="28" t="s">
         <v>564</v>
       </c>
@@ -13204,7 +13204,7 @@
       </c>
       <c r="I282" s="29"/>
     </row>
-    <row r="283" spans="1:9" ht="27">
+    <row r="283" spans="1:9" ht="30">
       <c r="A283" s="28" t="s">
         <v>566</v>
       </c>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="I283" s="29"/>
     </row>
-    <row r="284" spans="1:9" ht="40.5">
+    <row r="284" spans="1:9" ht="45">
       <c r="A284" s="28" t="s">
         <v>569</v>
       </c>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="I284" s="29"/>
     </row>
-    <row r="285" spans="1:9" ht="27">
+    <row r="285" spans="1:9" ht="30">
       <c r="A285" s="28" t="s">
         <v>571</v>
       </c>
@@ -13279,7 +13279,7 @@
       </c>
       <c r="I285" s="29"/>
     </row>
-    <row r="286" spans="1:9" ht="27">
+    <row r="286" spans="1:9" ht="30">
       <c r="A286" s="28" t="s">
         <v>573</v>
       </c>
@@ -13304,7 +13304,7 @@
       </c>
       <c r="I286" s="29"/>
     </row>
-    <row r="287" spans="1:9" ht="27">
+    <row r="287" spans="1:9" ht="30">
       <c r="A287" s="28" t="s">
         <v>576</v>
       </c>
@@ -13329,7 +13329,7 @@
       </c>
       <c r="I287" s="29"/>
     </row>
-    <row r="288" spans="1:9" ht="27">
+    <row r="288" spans="1:9" ht="30">
       <c r="A288" s="28" t="s">
         <v>578</v>
       </c>
@@ -13379,7 +13379,7 @@
       </c>
       <c r="I289" s="29"/>
     </row>
-    <row r="290" spans="1:9" ht="27">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="28" t="s">
         <v>583</v>
       </c>
@@ -13404,7 +13404,7 @@
       </c>
       <c r="I290" s="29"/>
     </row>
-    <row r="291" spans="1:9" ht="27">
+    <row r="291" spans="1:9" ht="30">
       <c r="A291" s="28" t="s">
         <v>585</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>579</v>
       </c>
       <c r="C291" s="29" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D291" s="28"/>
       <c r="E291" s="28" t="s">
@@ -13429,7 +13429,7 @@
       </c>
       <c r="I291" s="29"/>
     </row>
-    <row r="292" spans="1:9" ht="27">
+    <row r="292" spans="1:9" ht="45">
       <c r="A292" s="28" t="s">
         <v>586</v>
       </c>
@@ -13454,7 +13454,7 @@
       </c>
       <c r="I292" s="29"/>
     </row>
-    <row r="293" spans="1:9" ht="40.5">
+    <row r="293" spans="1:9" ht="30">
       <c r="A293" s="28" t="s">
         <v>588</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>579</v>
       </c>
       <c r="C293" s="29" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D293" s="28"/>
       <c r="E293" s="28" t="s">
@@ -13479,7 +13479,7 @@
       </c>
       <c r="I293" s="29"/>
     </row>
-    <row r="294" spans="1:9" ht="27">
+    <row r="294" spans="1:9" ht="30">
       <c r="A294" s="28" t="s">
         <v>589</v>
       </c>
@@ -13504,7 +13504,7 @@
       </c>
       <c r="I294" s="29"/>
     </row>
-    <row r="295" spans="1:9" ht="27">
+    <row r="295" spans="1:9" ht="30">
       <c r="A295" s="28" t="s">
         <v>591</v>
       </c>
@@ -13529,7 +13529,7 @@
       </c>
       <c r="I295" s="29"/>
     </row>
-    <row r="296" spans="1:9" ht="27">
+    <row r="296" spans="1:9" ht="30">
       <c r="A296" s="28" t="s">
         <v>593</v>
       </c>
@@ -13554,7 +13554,7 @@
       </c>
       <c r="I296" s="29"/>
     </row>
-    <row r="297" spans="1:9" ht="27">
+    <row r="297" spans="1:9" ht="30">
       <c r="A297" s="28" t="s">
         <v>595</v>
       </c>
@@ -13579,7 +13579,7 @@
       </c>
       <c r="I297" s="29"/>
     </row>
-    <row r="298" spans="1:9" ht="27">
+    <row r="298" spans="1:9" ht="30">
       <c r="A298" s="28" t="s">
         <v>597</v>
       </c>
@@ -13604,7 +13604,7 @@
       </c>
       <c r="I298" s="29"/>
     </row>
-    <row r="299" spans="1:9" ht="27">
+    <row r="299" spans="1:9" ht="30">
       <c r="A299" s="28" t="s">
         <v>599</v>
       </c>
@@ -13654,7 +13654,7 @@
       </c>
       <c r="I300" s="29"/>
     </row>
-    <row r="301" spans="1:9" ht="121.5">
+    <row r="301" spans="1:9" ht="135">
       <c r="A301" s="28" t="s">
         <v>605</v>
       </c>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="I301" s="29"/>
     </row>
-    <row r="302" spans="1:9" ht="27">
+    <row r="302" spans="1:9" ht="30">
       <c r="A302" s="28" t="s">
         <v>607</v>
       </c>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="I302" s="29"/>
     </row>
-    <row r="303" spans="1:9" ht="40.5">
+    <row r="303" spans="1:9" ht="45">
       <c r="A303" s="28" t="s">
         <v>609</v>
       </c>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="I303" s="29"/>
     </row>
-    <row r="304" spans="1:9" ht="40.5">
+    <row r="304" spans="1:9" ht="30">
       <c r="A304" s="28" t="s">
         <v>611</v>
       </c>
@@ -13754,7 +13754,7 @@
       </c>
       <c r="I304" s="29"/>
     </row>
-    <row r="305" spans="1:9" ht="27">
+    <row r="305" spans="1:9" ht="30">
       <c r="A305" s="28" t="s">
         <v>613</v>
       </c>
@@ -13779,7 +13779,7 @@
       </c>
       <c r="I305" s="29"/>
     </row>
-    <row r="306" spans="1:9" ht="40.5">
+    <row r="306" spans="1:9" ht="45">
       <c r="A306" s="28" t="s">
         <v>615</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>600</v>
       </c>
       <c r="C306" s="29" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D306" s="28"/>
       <c r="E306" s="28" t="s">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="I306" s="29"/>
     </row>
-    <row r="307" spans="1:9" ht="40.5">
+    <row r="307" spans="1:9" ht="45">
       <c r="A307" s="28" t="s">
         <v>616</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>600</v>
       </c>
       <c r="C307" s="29" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D307" s="28"/>
       <c r="E307" s="28" t="s">
@@ -13829,7 +13829,7 @@
       </c>
       <c r="I307" s="29"/>
     </row>
-    <row r="308" spans="1:9" ht="27">
+    <row r="308" spans="1:9" ht="30">
       <c r="A308" s="28" t="s">
         <v>617</v>
       </c>
@@ -13854,7 +13854,7 @@
       </c>
       <c r="I308" s="29"/>
     </row>
-    <row r="309" spans="1:9" ht="27">
+    <row r="309" spans="1:9" ht="45">
       <c r="A309" s="28" t="s">
         <v>619</v>
       </c>
@@ -13879,7 +13879,7 @@
       </c>
       <c r="I309" s="29"/>
     </row>
-    <row r="310" spans="1:9" ht="27">
+    <row r="310" spans="1:9" ht="30">
       <c r="A310" s="28" t="s">
         <v>621</v>
       </c>
@@ -13904,7 +13904,7 @@
       </c>
       <c r="I310" s="29"/>
     </row>
-    <row r="311" spans="1:9" ht="27">
+    <row r="311" spans="1:9" ht="30">
       <c r="A311" s="28" t="s">
         <v>623</v>
       </c>
@@ -13929,7 +13929,7 @@
       </c>
       <c r="I311" s="29"/>
     </row>
-    <row r="312" spans="1:9" ht="108">
+    <row r="312" spans="1:9" ht="120">
       <c r="A312" s="28" t="s">
         <v>624</v>
       </c>
@@ -13954,7 +13954,7 @@
       </c>
       <c r="I312" s="29"/>
     </row>
-    <row r="313" spans="1:9" ht="27">
+    <row r="313" spans="1:9" ht="30">
       <c r="A313" s="28" t="s">
         <v>626</v>
       </c>
@@ -13979,7 +13979,7 @@
       </c>
       <c r="I313" s="29"/>
     </row>
-    <row r="314" spans="1:9" ht="27">
+    <row r="314" spans="1:9" ht="30">
       <c r="A314" s="28" t="s">
         <v>628</v>
       </c>
@@ -14004,7 +14004,7 @@
       </c>
       <c r="I314" s="29"/>
     </row>
-    <row r="315" spans="1:9" ht="27">
+    <row r="315" spans="1:9" ht="30">
       <c r="A315" s="28" t="s">
         <v>630</v>
       </c>
@@ -14029,7 +14029,7 @@
       </c>
       <c r="I315" s="29"/>
     </row>
-    <row r="316" spans="1:9" ht="121.5">
+    <row r="316" spans="1:9" ht="135">
       <c r="A316" s="28" t="s">
         <v>632</v>
       </c>
@@ -14054,7 +14054,7 @@
       </c>
       <c r="I316" s="29"/>
     </row>
-    <row r="317" spans="1:9" ht="108">
+    <row r="317" spans="1:9" ht="120">
       <c r="A317" s="28" t="s">
         <v>634</v>
       </c>
@@ -14079,7 +14079,7 @@
       </c>
       <c r="I317" s="29"/>
     </row>
-    <row r="318" spans="1:9" ht="27">
+    <row r="318" spans="1:9" ht="30">
       <c r="A318" s="28" t="s">
         <v>635</v>
       </c>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="I318" s="29"/>
     </row>
-    <row r="319" spans="1:9" ht="27">
+    <row r="319" spans="1:9" ht="30">
       <c r="A319" s="28" t="s">
         <v>637</v>
       </c>
@@ -14129,7 +14129,7 @@
       </c>
       <c r="I319" s="29"/>
     </row>
-    <row r="320" spans="1:9" ht="27">
+    <row r="320" spans="1:9" ht="30">
       <c r="A320" s="28" t="s">
         <v>639</v>
       </c>
@@ -14154,7 +14154,7 @@
       </c>
       <c r="I320" s="29"/>
     </row>
-    <row r="321" spans="1:9" ht="27">
+    <row r="321" spans="1:9" ht="30">
       <c r="A321" s="28" t="s">
         <v>641</v>
       </c>
@@ -14179,7 +14179,7 @@
       </c>
       <c r="I321" s="29"/>
     </row>
-    <row r="322" spans="1:9" ht="27">
+    <row r="322" spans="1:9" ht="30">
       <c r="A322" s="28" t="s">
         <v>643</v>
       </c>
@@ -14204,7 +14204,7 @@
       </c>
       <c r="I322" s="29"/>
     </row>
-    <row r="323" spans="1:9" ht="27">
+    <row r="323" spans="1:9" ht="30">
       <c r="A323" s="28" t="s">
         <v>645</v>
       </c>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="I323" s="29"/>
     </row>
-    <row r="324" spans="1:9" ht="27">
+    <row r="324" spans="1:9" ht="30">
       <c r="A324" s="28" t="s">
         <v>647</v>
       </c>
@@ -14254,7 +14254,7 @@
       </c>
       <c r="I324" s="29"/>
     </row>
-    <row r="325" spans="1:9" ht="27">
+    <row r="325" spans="1:9" ht="30">
       <c r="A325" s="28" t="s">
         <v>649</v>
       </c>
@@ -14279,7 +14279,7 @@
       </c>
       <c r="I325" s="29"/>
     </row>
-    <row r="326" spans="1:9" ht="148.5">
+    <row r="326" spans="1:9" ht="150">
       <c r="A326" s="28" t="s">
         <v>651</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>600</v>
       </c>
       <c r="C326" s="29" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D326" s="28"/>
       <c r="E326" s="28" t="s">
@@ -14304,7 +14304,7 @@
       </c>
       <c r="I326" s="29"/>
     </row>
-    <row r="327" spans="1:9" ht="27">
+    <row r="327" spans="1:9" ht="30">
       <c r="A327" s="34" t="s">
         <v>652</v>
       </c>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I327" s="35"/>
     </row>
-    <row r="328" spans="1:9" ht="27">
+    <row r="328" spans="1:9" ht="45">
       <c r="A328" s="28" t="s">
         <v>654</v>
       </c>
@@ -14354,7 +14354,7 @@
       </c>
       <c r="I328" s="29"/>
     </row>
-    <row r="329" spans="1:9" ht="27">
+    <row r="329" spans="1:9" ht="30">
       <c r="A329" s="28" t="s">
         <v>656</v>
       </c>
@@ -14379,7 +14379,7 @@
       </c>
       <c r="I329" s="29"/>
     </row>
-    <row r="330" spans="1:9" ht="27">
+    <row r="330" spans="1:9" ht="30">
       <c r="A330" s="28" t="s">
         <v>658</v>
       </c>
@@ -14404,7 +14404,7 @@
       </c>
       <c r="I330" s="29"/>
     </row>
-    <row r="331" spans="1:9" ht="27">
+    <row r="331" spans="1:9" ht="45">
       <c r="A331" s="28" t="s">
         <v>660</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>600</v>
       </c>
       <c r="C331" s="29" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D331" s="28"/>
       <c r="E331" s="28" t="s">
@@ -14429,7 +14429,7 @@
       </c>
       <c r="I331" s="29"/>
     </row>
-    <row r="332" spans="1:9" ht="27">
+    <row r="332" spans="1:9" ht="30">
       <c r="A332" s="28" t="s">
         <v>661</v>
       </c>
@@ -14454,7 +14454,7 @@
       </c>
       <c r="I332" s="29"/>
     </row>
-    <row r="333" spans="1:9" ht="27">
+    <row r="333" spans="1:9" ht="45">
       <c r="A333" s="28" t="s">
         <v>663</v>
       </c>
@@ -14479,7 +14479,7 @@
       </c>
       <c r="I333" s="29"/>
     </row>
-    <row r="334" spans="1:9" ht="27">
+    <row r="334" spans="1:9" ht="30">
       <c r="A334" s="28" t="s">
         <v>664</v>
       </c>
@@ -14504,7 +14504,7 @@
       </c>
       <c r="I334" s="29"/>
     </row>
-    <row r="335" spans="1:9" ht="27">
+    <row r="335" spans="1:9" ht="45">
       <c r="A335" s="28" t="s">
         <v>666</v>
       </c>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="I335" s="29"/>
     </row>
-    <row r="336" spans="1:9" ht="27">
+    <row r="336" spans="1:9" ht="30">
       <c r="A336" s="28" t="s">
         <v>667</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>668</v>
       </c>
       <c r="C336" s="29" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D336" s="28"/>
       <c r="E336" s="28" t="s">
@@ -14554,7 +14554,7 @@
       </c>
       <c r="I336" s="29"/>
     </row>
-    <row r="337" spans="1:9" ht="67.5">
+    <row r="337" spans="1:9" ht="75">
       <c r="A337" s="28" t="s">
         <v>669</v>
       </c>
@@ -14579,7 +14579,7 @@
       </c>
       <c r="I337" s="29"/>
     </row>
-    <row r="338" spans="1:9" ht="27">
+    <row r="338" spans="1:9" ht="45">
       <c r="A338" s="28" t="s">
         <v>671</v>
       </c>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="I338" s="29"/>
     </row>
-    <row r="339" spans="1:9" ht="40.5">
+    <row r="339" spans="1:9" ht="45">
       <c r="A339" s="28" t="s">
         <v>673</v>
       </c>
@@ -14629,7 +14629,7 @@
       </c>
       <c r="I339" s="29"/>
     </row>
-    <row r="340" spans="1:9" ht="27">
+    <row r="340" spans="1:9" ht="30">
       <c r="A340" s="28" t="s">
         <v>675</v>
       </c>
@@ -14654,7 +14654,7 @@
       </c>
       <c r="I340" s="29"/>
     </row>
-    <row r="341" spans="1:9" ht="40.5">
+    <row r="341" spans="1:9" ht="45">
       <c r="A341" s="28" t="s">
         <v>678</v>
       </c>
@@ -14679,7 +14679,7 @@
       </c>
       <c r="I341" s="29"/>
     </row>
-    <row r="342" spans="1:9" ht="27">
+    <row r="342" spans="1:9" ht="30">
       <c r="A342" s="28" t="s">
         <v>680</v>
       </c>
@@ -14704,7 +14704,7 @@
       </c>
       <c r="I342" s="29"/>
     </row>
-    <row r="343" spans="1:9" ht="27">
+    <row r="343" spans="1:9" ht="30">
       <c r="A343" s="28" t="s">
         <v>682</v>
       </c>
@@ -14729,7 +14729,7 @@
       </c>
       <c r="I343" s="29"/>
     </row>
-    <row r="344" spans="1:9" ht="27">
+    <row r="344" spans="1:9" ht="30">
       <c r="A344" s="28" t="s">
         <v>685</v>
       </c>
@@ -14754,7 +14754,7 @@
       </c>
       <c r="I344" s="29"/>
     </row>
-    <row r="345" spans="1:9" ht="27">
+    <row r="345" spans="1:9" ht="30">
       <c r="A345" s="28" t="s">
         <v>687</v>
       </c>
@@ -14779,7 +14779,7 @@
       </c>
       <c r="I345" s="29"/>
     </row>
-    <row r="346" spans="1:9" ht="27">
+    <row r="346" spans="1:9" ht="30">
       <c r="A346" s="28" t="s">
         <v>689</v>
       </c>
@@ -14804,7 +14804,7 @@
       </c>
       <c r="I346" s="29"/>
     </row>
-    <row r="347" spans="1:9" ht="121.5">
+    <row r="347" spans="1:9" ht="135">
       <c r="A347" s="28" t="s">
         <v>692</v>
       </c>
@@ -14829,7 +14829,7 @@
       </c>
       <c r="I347" s="29"/>
     </row>
-    <row r="348" spans="1:9" ht="27">
+    <row r="348" spans="1:9" ht="30">
       <c r="A348" s="28" t="s">
         <v>694</v>
       </c>
@@ -14837,7 +14837,7 @@
         <v>690</v>
       </c>
       <c r="C348" s="29" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D348" s="28"/>
       <c r="E348" s="28" t="s">
@@ -14854,7 +14854,7 @@
       </c>
       <c r="I348" s="29"/>
     </row>
-    <row r="349" spans="1:9" ht="27">
+    <row r="349" spans="1:9" ht="30">
       <c r="A349" s="28" t="s">
         <v>695</v>
       </c>
@@ -14879,7 +14879,7 @@
       </c>
       <c r="I349" s="29"/>
     </row>
-    <row r="350" spans="1:9" ht="27">
+    <row r="350" spans="1:9" ht="30">
       <c r="A350" s="28" t="s">
         <v>697</v>
       </c>
@@ -14904,15 +14904,15 @@
       </c>
       <c r="I350" s="29"/>
     </row>
-    <row r="351" spans="1:9" ht="30">
+    <row r="351" spans="1:9" ht="45">
       <c r="A351" s="33" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B351" s="33" t="s">
         <v>690</v>
       </c>
       <c r="C351" s="29" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D351" s="41"/>
       <c r="E351" s="41" t="s">
@@ -14929,7 +14929,7 @@
       </c>
       <c r="I351" s="42"/>
     </row>
-    <row r="352" spans="1:9" ht="27">
+    <row r="352" spans="1:9" ht="45">
       <c r="A352" s="28" t="s">
         <v>699</v>
       </c>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="I352" s="29"/>
     </row>
-    <row r="353" spans="1:9" ht="297">
+    <row r="353" spans="1:9" ht="330">
       <c r="A353" s="28" t="s">
         <v>702</v>
       </c>
@@ -14979,7 +14979,7 @@
       </c>
       <c r="I353" s="29"/>
     </row>
-    <row r="354" spans="1:9" ht="67.5">
+    <row r="354" spans="1:9" ht="75">
       <c r="A354" s="28" t="s">
         <v>704</v>
       </c>
@@ -15004,7 +15004,7 @@
       </c>
       <c r="I354" s="29"/>
     </row>
-    <row r="355" spans="1:9" ht="27">
+    <row r="355" spans="1:9" ht="30">
       <c r="A355" s="28" t="s">
         <v>706</v>
       </c>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I355" s="29"/>
     </row>
-    <row r="356" spans="1:9" ht="27">
+    <row r="356" spans="1:9" ht="30">
       <c r="A356" s="28" t="s">
         <v>708</v>
       </c>
@@ -15054,7 +15054,7 @@
       </c>
       <c r="I356" s="29"/>
     </row>
-    <row r="357" spans="1:9" ht="27">
+    <row r="357" spans="1:9" ht="30">
       <c r="A357" s="28" t="s">
         <v>710</v>
       </c>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="I357" s="29"/>
     </row>
-    <row r="358" spans="1:9" ht="27">
+    <row r="358" spans="1:9" ht="30">
       <c r="A358" s="28" t="s">
         <v>712</v>
       </c>
@@ -15104,7 +15104,7 @@
       </c>
       <c r="I358" s="29"/>
     </row>
-    <row r="359" spans="1:9" ht="27">
+    <row r="359" spans="1:9" ht="30">
       <c r="A359" s="28" t="s">
         <v>714</v>
       </c>
@@ -15129,7 +15129,7 @@
       </c>
       <c r="I359" s="29"/>
     </row>
-    <row r="360" spans="1:9" ht="27">
+    <row r="360" spans="1:9" ht="30">
       <c r="A360" s="28" t="s">
         <v>716</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>717</v>
       </c>
       <c r="C360" s="29" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D360" s="28"/>
       <c r="E360" s="28" t="s">
@@ -15154,7 +15154,7 @@
       </c>
       <c r="I360" s="29"/>
     </row>
-    <row r="361" spans="1:9" ht="67.5">
+    <row r="361" spans="1:9" ht="75">
       <c r="A361" s="28" t="s">
         <v>718</v>
       </c>
@@ -15179,7 +15179,7 @@
       </c>
       <c r="I361" s="29"/>
     </row>
-    <row r="362" spans="1:9" ht="27">
+    <row r="362" spans="1:9" ht="30">
       <c r="A362" s="28" t="s">
         <v>720</v>
       </c>
@@ -15204,7 +15204,7 @@
       </c>
       <c r="I362" s="29"/>
     </row>
-    <row r="363" spans="1:9" ht="40.5">
+    <row r="363" spans="1:9" ht="45">
       <c r="A363" s="28" t="s">
         <v>722</v>
       </c>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="I363" s="29"/>
     </row>
-    <row r="364" spans="1:9" ht="54">
+    <row r="364" spans="1:9" ht="60">
       <c r="A364" s="28" t="s">
         <v>724</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>717</v>
       </c>
       <c r="C364" s="29" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D364" s="28"/>
       <c r="E364" s="28" t="s">
@@ -15254,7 +15254,7 @@
       </c>
       <c r="I364" s="29"/>
     </row>
-    <row r="365" spans="1:9" ht="27">
+    <row r="365" spans="1:9" ht="30">
       <c r="A365" s="28" t="s">
         <v>725</v>
       </c>
@@ -15279,7 +15279,7 @@
       </c>
       <c r="I365" s="29"/>
     </row>
-    <row r="366" spans="1:9" ht="40.5">
+    <row r="366" spans="1:9" ht="45">
       <c r="A366" s="28" t="s">
         <v>728</v>
       </c>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="I366" s="29"/>
     </row>
-    <row r="367" spans="1:9" ht="27">
+    <row r="367" spans="1:9" ht="30">
       <c r="A367" s="28" t="s">
         <v>730</v>
       </c>
@@ -15329,7 +15329,7 @@
       </c>
       <c r="I367" s="29"/>
     </row>
-    <row r="368" spans="1:9" ht="27">
+    <row r="368" spans="1:9" ht="30">
       <c r="A368" s="28" t="s">
         <v>732</v>
       </c>
@@ -15354,7 +15354,7 @@
       </c>
       <c r="I368" s="29"/>
     </row>
-    <row r="369" spans="1:9" ht="27">
+    <row r="369" spans="1:9" ht="30">
       <c r="A369" s="28" t="s">
         <v>735</v>
       </c>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="I369" s="29"/>
     </row>
-    <row r="370" spans="1:9" ht="27">
+    <row r="370" spans="1:9" ht="30">
       <c r="A370" s="28" t="s">
         <v>737</v>
       </c>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="I370" s="29"/>
     </row>
-    <row r="371" spans="1:9" ht="162">
+    <row r="371" spans="1:9" ht="180">
       <c r="A371" s="28" t="s">
         <v>740</v>
       </c>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I371" s="29"/>
     </row>
-    <row r="372" spans="1:9" ht="27">
+    <row r="372" spans="1:9" ht="30">
       <c r="A372" s="28" t="s">
         <v>742</v>
       </c>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="I372" s="29"/>
     </row>
-    <row r="373" spans="1:9" ht="27">
+    <row r="373" spans="1:9" ht="30">
       <c r="A373" s="28" t="s">
         <v>744</v>
       </c>
@@ -15479,7 +15479,7 @@
       </c>
       <c r="I373" s="29"/>
     </row>
-    <row r="374" spans="1:9" ht="27">
+    <row r="374" spans="1:9" ht="30">
       <c r="A374" s="28" t="s">
         <v>746</v>
       </c>
@@ -15504,7 +15504,7 @@
       </c>
       <c r="I374" s="29"/>
     </row>
-    <row r="375" spans="1:9" ht="27">
+    <row r="375" spans="1:9" ht="30">
       <c r="A375" s="28" t="s">
         <v>748</v>
       </c>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I375" s="29"/>
     </row>
-    <row r="376" spans="1:9" ht="27">
+    <row r="376" spans="1:9" ht="30">
       <c r="A376" s="28" t="s">
         <v>750</v>
       </c>
@@ -15554,7 +15554,7 @@
       </c>
       <c r="I376" s="29"/>
     </row>
-    <row r="377" spans="1:9" ht="40.5">
+    <row r="377" spans="1:9" ht="45">
       <c r="A377" s="28" t="s">
         <v>752</v>
       </c>
@@ -15579,7 +15579,7 @@
       </c>
       <c r="I377" s="29"/>
     </row>
-    <row r="378" spans="1:9" ht="27">
+    <row r="378" spans="1:9" ht="45">
       <c r="A378" s="28" t="s">
         <v>754</v>
       </c>
@@ -15604,7 +15604,7 @@
       </c>
       <c r="I378" s="29"/>
     </row>
-    <row r="379" spans="1:9" ht="27">
+    <row r="379" spans="1:9" ht="30">
       <c r="A379" s="28" t="s">
         <v>756</v>
       </c>
@@ -15629,7 +15629,7 @@
       </c>
       <c r="I379" s="29"/>
     </row>
-    <row r="380" spans="1:9" ht="27">
+    <row r="380" spans="1:9" ht="30">
       <c r="A380" s="28" t="s">
         <v>758</v>
       </c>
@@ -15654,15 +15654,15 @@
       </c>
       <c r="I380" s="29"/>
     </row>
-    <row r="381" spans="1:9" ht="30">
+    <row r="381" spans="1:9" ht="45">
       <c r="A381" s="33" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B381" s="33" t="s">
         <v>738</v>
       </c>
       <c r="C381" s="29" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D381" s="41"/>
       <c r="E381" s="41" t="s">
@@ -15679,7 +15679,7 @@
       </c>
       <c r="I381" s="42"/>
     </row>
-    <row r="382" spans="1:9" ht="27">
+    <row r="382" spans="1:9" ht="45">
       <c r="A382" s="28" t="s">
         <v>760</v>
       </c>
@@ -15704,7 +15704,7 @@
       </c>
       <c r="I382" s="29"/>
     </row>
-    <row r="383" spans="1:9" ht="67.5">
+    <row r="383" spans="1:9" ht="75">
       <c r="A383" s="28" t="s">
         <v>763</v>
       </c>
@@ -15729,7 +15729,7 @@
       </c>
       <c r="I383" s="29"/>
     </row>
-    <row r="384" spans="1:9" ht="27">
+    <row r="384" spans="1:9" ht="30">
       <c r="A384" s="28" t="s">
         <v>765</v>
       </c>
@@ -15754,7 +15754,7 @@
       </c>
       <c r="I384" s="29"/>
     </row>
-    <row r="385" spans="1:9" ht="67.5">
+    <row r="385" spans="1:9" ht="75">
       <c r="A385" s="28" t="s">
         <v>768</v>
       </c>
@@ -15779,7 +15779,7 @@
       </c>
       <c r="I385" s="29"/>
     </row>
-    <row r="386" spans="1:9" ht="27">
+    <row r="386" spans="1:9" ht="30">
       <c r="A386" s="28" t="s">
         <v>770</v>
       </c>
@@ -15804,7 +15804,7 @@
       </c>
       <c r="I386" s="29"/>
     </row>
-    <row r="387" spans="1:9" ht="40.5">
+    <row r="387" spans="1:9" ht="45">
       <c r="A387" s="28" t="s">
         <v>772</v>
       </c>
@@ -15829,7 +15829,7 @@
       </c>
       <c r="I387" s="29"/>
     </row>
-    <row r="388" spans="1:9" ht="27">
+    <row r="388" spans="1:9" ht="30">
       <c r="A388" s="28" t="s">
         <v>774</v>
       </c>
@@ -15854,7 +15854,7 @@
       </c>
       <c r="I388" s="29"/>
     </row>
-    <row r="389" spans="1:9" ht="40.5">
+    <row r="389" spans="1:9" ht="45">
       <c r="A389" s="28" t="s">
         <v>776</v>
       </c>
@@ -15879,7 +15879,7 @@
       </c>
       <c r="I389" s="29"/>
     </row>
-    <row r="390" spans="1:9" ht="40.5">
+    <row r="390" spans="1:9" ht="45">
       <c r="A390" s="28" t="s">
         <v>778</v>
       </c>
@@ -15904,7 +15904,7 @@
       </c>
       <c r="I390" s="29"/>
     </row>
-    <row r="391" spans="1:9" ht="27">
+    <row r="391" spans="1:9" ht="30">
       <c r="A391" s="28" t="s">
         <v>780</v>
       </c>
@@ -15929,7 +15929,7 @@
       </c>
       <c r="I391" s="29"/>
     </row>
-    <row r="392" spans="1:9" ht="40.5">
+    <row r="392" spans="1:9" ht="45">
       <c r="A392" s="28" t="s">
         <v>783</v>
       </c>
@@ -15954,7 +15954,7 @@
       </c>
       <c r="I392" s="29"/>
     </row>
-    <row r="393" spans="1:9" ht="27">
+    <row r="393" spans="1:9" ht="30">
       <c r="A393" s="28" t="s">
         <v>785</v>
       </c>
@@ -15979,7 +15979,7 @@
       </c>
       <c r="I393" s="29"/>
     </row>
-    <row r="394" spans="1:9" ht="27">
+    <row r="394" spans="1:9" ht="30">
       <c r="A394" s="28" t="s">
         <v>787</v>
       </c>
@@ -16004,7 +16004,7 @@
       </c>
       <c r="I394" s="29"/>
     </row>
-    <row r="395" spans="1:9" ht="27">
+    <row r="395" spans="1:9" ht="30">
       <c r="A395" s="28" t="s">
         <v>790</v>
       </c>
@@ -16029,7 +16029,7 @@
       </c>
       <c r="I395" s="29"/>
     </row>
-    <row r="396" spans="1:9" ht="27">
+    <row r="396" spans="1:9" ht="45">
       <c r="A396" s="28" t="s">
         <v>792</v>
       </c>
@@ -16054,7 +16054,7 @@
       </c>
       <c r="I396" s="29"/>
     </row>
-    <row r="397" spans="1:9" ht="108">
+    <row r="397" spans="1:9" ht="120">
       <c r="A397" s="28" t="s">
         <v>795</v>
       </c>
@@ -16079,7 +16079,7 @@
       </c>
       <c r="I397" s="29"/>
     </row>
-    <row r="398" spans="1:9" ht="27">
+    <row r="398" spans="1:9" ht="30">
       <c r="A398" s="28" t="s">
         <v>797</v>
       </c>
@@ -16104,7 +16104,7 @@
       </c>
       <c r="I398" s="29"/>
     </row>
-    <row r="399" spans="1:9" ht="27">
+    <row r="399" spans="1:9" ht="45">
       <c r="A399" s="28" t="s">
         <v>799</v>
       </c>
@@ -16129,7 +16129,7 @@
       </c>
       <c r="I399" s="29"/>
     </row>
-    <row r="400" spans="1:9" ht="40.5">
+    <row r="400" spans="1:9" ht="30">
       <c r="A400" s="28" t="s">
         <v>802</v>
       </c>
@@ -16154,7 +16154,7 @@
       </c>
       <c r="I400" s="29"/>
     </row>
-    <row r="401" spans="1:9" ht="40.5">
+    <row r="401" spans="1:9" ht="45">
       <c r="A401" s="28" t="s">
         <v>804</v>
       </c>
@@ -16179,7 +16179,7 @@
       </c>
       <c r="I401" s="29"/>
     </row>
-    <row r="402" spans="1:9" ht="27">
+    <row r="402" spans="1:9" ht="45">
       <c r="A402" s="28" t="s">
         <v>806</v>
       </c>
@@ -16204,7 +16204,7 @@
       </c>
       <c r="I402" s="29"/>
     </row>
-    <row r="403" spans="1:9" ht="27">
+    <row r="403" spans="1:9" ht="30">
       <c r="A403" s="28" t="s">
         <v>808</v>
       </c>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="I403" s="29"/>
     </row>
-    <row r="404" spans="1:9" ht="81">
+    <row r="404" spans="1:9" ht="90">
       <c r="A404" s="28" t="s">
         <v>811</v>
       </c>
@@ -16254,7 +16254,7 @@
       </c>
       <c r="I404" s="29"/>
     </row>
-    <row r="405" spans="1:9" ht="27">
+    <row r="405" spans="1:9" ht="30">
       <c r="A405" s="28" t="s">
         <v>813</v>
       </c>
@@ -16279,7 +16279,7 @@
       </c>
       <c r="I405" s="29"/>
     </row>
-    <row r="406" spans="1:9" ht="40.5">
+    <row r="406" spans="1:9" ht="45">
       <c r="A406" s="28" t="s">
         <v>815</v>
       </c>
@@ -16304,7 +16304,7 @@
       </c>
       <c r="I406" s="29"/>
     </row>
-    <row r="407" spans="1:9" ht="40.5">
+    <row r="407" spans="1:9" ht="45">
       <c r="A407" s="28" t="s">
         <v>817</v>
       </c>
@@ -16329,7 +16329,7 @@
       </c>
       <c r="I407" s="29"/>
     </row>
-    <row r="408" spans="1:9" ht="27">
+    <row r="408" spans="1:9" ht="30">
       <c r="A408" s="28" t="s">
         <v>819</v>
       </c>
@@ -16354,7 +16354,7 @@
       </c>
       <c r="I408" s="29"/>
     </row>
-    <row r="409" spans="1:9" ht="40.5">
+    <row r="409" spans="1:9" ht="45">
       <c r="A409" s="28" t="s">
         <v>822</v>
       </c>
@@ -16379,7 +16379,7 @@
       </c>
       <c r="I409" s="29"/>
     </row>
-    <row r="410" spans="1:9" ht="27">
+    <row r="410" spans="1:9" ht="30">
       <c r="A410" s="28" t="s">
         <v>824</v>
       </c>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="I410" s="29"/>
     </row>
-    <row r="411" spans="1:9" ht="27">
+    <row r="411" spans="1:9" ht="30">
       <c r="A411" s="28" t="s">
         <v>826</v>
       </c>
@@ -16429,7 +16429,7 @@
       </c>
       <c r="I411" s="29"/>
     </row>
-    <row r="412" spans="1:9" ht="27">
+    <row r="412" spans="1:9" ht="30">
       <c r="A412" s="28" t="s">
         <v>829</v>
       </c>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="I412" s="29"/>
     </row>
-    <row r="413" spans="1:9" ht="27">
+    <row r="413" spans="1:9" ht="45">
       <c r="A413" s="28" t="s">
         <v>831</v>
       </c>
@@ -16462,7 +16462,7 @@
         <v>832</v>
       </c>
       <c r="C413" s="29" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D413" s="28"/>
       <c r="E413" s="28" t="s">
@@ -16479,7 +16479,7 @@
       </c>
       <c r="I413" s="29"/>
     </row>
-    <row r="414" spans="1:9" ht="216">
+    <row r="414" spans="1:9" ht="240">
       <c r="A414" s="28" t="s">
         <v>833</v>
       </c>
@@ -16504,7 +16504,7 @@
       </c>
       <c r="I414" s="29"/>
     </row>
-    <row r="415" spans="1:9" ht="27">
+    <row r="415" spans="1:9" ht="30">
       <c r="A415" s="28" t="s">
         <v>835</v>
       </c>
@@ -16529,7 +16529,7 @@
       </c>
       <c r="I415" s="29"/>
     </row>
-    <row r="416" spans="1:9" ht="27">
+    <row r="416" spans="1:9" ht="30">
       <c r="A416" s="28" t="s">
         <v>837</v>
       </c>
@@ -16554,7 +16554,7 @@
       </c>
       <c r="I416" s="29"/>
     </row>
-    <row r="417" spans="1:9" ht="27">
+    <row r="417" spans="1:9" ht="30">
       <c r="A417" s="28" t="s">
         <v>839</v>
       </c>
@@ -16579,7 +16579,7 @@
       </c>
       <c r="I417" s="29"/>
     </row>
-    <row r="418" spans="1:9" ht="27">
+    <row r="418" spans="1:9" ht="30">
       <c r="A418" s="28" t="s">
         <v>842</v>
       </c>
@@ -16604,7 +16604,7 @@
       </c>
       <c r="I418" s="29"/>
     </row>
-    <row r="419" spans="1:9" ht="27">
+    <row r="419" spans="1:9" ht="30">
       <c r="A419" s="28" t="s">
         <v>844</v>
       </c>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="I419" s="29"/>
     </row>
-    <row r="420" spans="1:9" ht="27">
+    <row r="420" spans="1:9" ht="30">
       <c r="A420" s="28" t="s">
         <v>846</v>
       </c>
@@ -16654,7 +16654,7 @@
       </c>
       <c r="I420" s="29"/>
     </row>
-    <row r="421" spans="1:9" ht="40.5">
+    <row r="421" spans="1:9" ht="45">
       <c r="A421" s="32" t="s">
         <v>848</v>
       </c>
@@ -16679,7 +16679,7 @@
       </c>
       <c r="I421" s="29"/>
     </row>
-    <row r="422" spans="1:9" ht="27">
+    <row r="422" spans="1:9" ht="30">
       <c r="A422" s="28" t="s">
         <v>852</v>
       </c>
@@ -16704,7 +16704,7 @@
       </c>
       <c r="I422" s="29"/>
     </row>
-    <row r="423" spans="1:9" ht="27">
+    <row r="423" spans="1:9" ht="30">
       <c r="A423" s="28" t="s">
         <v>854</v>
       </c>
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I423" s="29"/>
     </row>
-    <row r="424" spans="1:9" ht="27">
+    <row r="424" spans="1:9" ht="30">
       <c r="A424" s="28" t="s">
         <v>856</v>
       </c>
@@ -16754,7 +16754,7 @@
       </c>
       <c r="I424" s="29"/>
     </row>
-    <row r="425" spans="1:9" ht="27">
+    <row r="425" spans="1:9" ht="30">
       <c r="A425" s="28" t="s">
         <v>858</v>
       </c>
@@ -16779,7 +16779,7 @@
       </c>
       <c r="I425" s="29"/>
     </row>
-    <row r="426" spans="1:9" ht="67.5">
+    <row r="426" spans="1:9" ht="75">
       <c r="A426" s="28" t="s">
         <v>841</v>
       </c>
@@ -16804,7 +16804,7 @@
       </c>
       <c r="I426" s="29"/>
     </row>
-    <row r="427" spans="1:9" ht="27">
+    <row r="427" spans="1:9" ht="30">
       <c r="A427" s="28" t="s">
         <v>862</v>
       </c>
@@ -16829,7 +16829,7 @@
       </c>
       <c r="I427" s="29"/>
     </row>
-    <row r="428" spans="1:9" ht="108">
+    <row r="428" spans="1:9" ht="120">
       <c r="A428" s="28" t="s">
         <v>865</v>
       </c>
@@ -16854,7 +16854,7 @@
       </c>
       <c r="I428" s="29"/>
     </row>
-    <row r="429" spans="1:9" ht="27">
+    <row r="429" spans="1:9" ht="45">
       <c r="A429" s="28" t="s">
         <v>867</v>
       </c>
@@ -16879,7 +16879,7 @@
       </c>
       <c r="I429" s="29"/>
     </row>
-    <row r="430" spans="1:9" ht="27">
+    <row r="430" spans="1:9" ht="45">
       <c r="A430" s="28" t="s">
         <v>869</v>
       </c>
@@ -16904,7 +16904,7 @@
       </c>
       <c r="I430" s="29"/>
     </row>
-    <row r="431" spans="1:9" ht="27">
+    <row r="431" spans="1:9" ht="45">
       <c r="A431" s="28" t="s">
         <v>871</v>
       </c>
@@ -16929,7 +16929,7 @@
       </c>
       <c r="I431" s="29"/>
     </row>
-    <row r="432" spans="1:9" ht="27">
+    <row r="432" spans="1:9" ht="45">
       <c r="A432" s="28" t="s">
         <v>873</v>
       </c>
@@ -16954,7 +16954,7 @@
       </c>
       <c r="I432" s="29"/>
     </row>
-    <row r="433" spans="1:9" ht="27">
+    <row r="433" spans="1:9" ht="30">
       <c r="A433" s="28" t="s">
         <v>875</v>
       </c>
@@ -16979,7 +16979,7 @@
       </c>
       <c r="I433" s="29"/>
     </row>
-    <row r="434" spans="1:9" ht="67.5">
+    <row r="434" spans="1:9" ht="75">
       <c r="A434" s="28" t="s">
         <v>878</v>
       </c>
@@ -17004,7 +17004,7 @@
       </c>
       <c r="I434" s="29"/>
     </row>
-    <row r="435" spans="1:9" ht="27">
+    <row r="435" spans="1:9" ht="30">
       <c r="A435" s="28" t="s">
         <v>880</v>
       </c>
@@ -17029,7 +17029,7 @@
       </c>
       <c r="I435" s="29"/>
     </row>
-    <row r="436" spans="1:9" ht="40.5">
+    <row r="436" spans="1:9" ht="45">
       <c r="A436" s="28" t="s">
         <v>882</v>
       </c>
@@ -17054,7 +17054,7 @@
       </c>
       <c r="I436" s="29"/>
     </row>
-    <row r="437" spans="1:9" ht="40.5">
+    <row r="437" spans="1:9" ht="45">
       <c r="A437" s="34" t="s">
         <v>884</v>
       </c>
@@ -17062,7 +17062,7 @@
         <v>876</v>
       </c>
       <c r="C437" s="35" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D437" s="34"/>
       <c r="E437" s="34" t="s">
@@ -17075,11 +17075,11 @@
         <v>15</v>
       </c>
       <c r="H437" s="34" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I437" s="35"/>
     </row>
-    <row r="438" spans="1:9" ht="40.5">
+    <row r="438" spans="1:9" ht="45">
       <c r="A438" s="28" t="s">
         <v>885</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>876</v>
       </c>
       <c r="C438" s="29" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D438" s="28"/>
       <c r="E438" s="28" t="s">
@@ -17104,7 +17104,7 @@
       </c>
       <c r="I438" s="29"/>
     </row>
-    <row r="439" spans="1:9" ht="27">
+    <row r="439" spans="1:9" ht="30">
       <c r="A439" s="28" t="s">
         <v>886</v>
       </c>
@@ -17129,7 +17129,7 @@
       </c>
       <c r="I439" s="29"/>
     </row>
-    <row r="440" spans="1:9" ht="40.5">
+    <row r="440" spans="1:9" ht="45">
       <c r="A440" s="28" t="s">
         <v>889</v>
       </c>
@@ -17154,7 +17154,7 @@
       </c>
       <c r="I440" s="29"/>
     </row>
-    <row r="441" spans="1:9" ht="27">
+    <row r="441" spans="1:9" ht="30">
       <c r="A441" s="28" t="s">
         <v>891</v>
       </c>
@@ -17179,7 +17179,7 @@
       </c>
       <c r="I441" s="29"/>
     </row>
-    <row r="442" spans="1:9" ht="27">
+    <row r="442" spans="1:9" ht="30">
       <c r="A442" s="28" t="s">
         <v>893</v>
       </c>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="I442" s="29"/>
     </row>
-    <row r="443" spans="1:9" ht="27">
+    <row r="443" spans="1:9" ht="30">
       <c r="A443" s="28" t="s">
         <v>896</v>
       </c>
@@ -17229,7 +17229,7 @@
       </c>
       <c r="I443" s="29"/>
     </row>
-    <row r="444" spans="1:9" ht="27">
+    <row r="444" spans="1:9" ht="30">
       <c r="A444" s="28" t="s">
         <v>898</v>
       </c>
@@ -17254,7 +17254,7 @@
       </c>
       <c r="I444" s="29"/>
     </row>
-    <row r="445" spans="1:9" ht="108">
+    <row r="445" spans="1:9" ht="120">
       <c r="A445" s="28" t="s">
         <v>901</v>
       </c>
@@ -17279,7 +17279,7 @@
       </c>
       <c r="I445" s="29"/>
     </row>
-    <row r="446" spans="1:9" ht="27">
+    <row r="446" spans="1:9" ht="30">
       <c r="A446" s="28" t="s">
         <v>903</v>
       </c>
@@ -17304,7 +17304,7 @@
       </c>
       <c r="I446" s="29"/>
     </row>
-    <row r="447" spans="1:9" ht="27">
+    <row r="447" spans="1:9" ht="30">
       <c r="A447" s="28" t="s">
         <v>905</v>
       </c>
@@ -17329,7 +17329,7 @@
       </c>
       <c r="I447" s="29"/>
     </row>
-    <row r="448" spans="1:9" ht="27">
+    <row r="448" spans="1:9" ht="30">
       <c r="A448" s="28" t="s">
         <v>907</v>
       </c>
@@ -17354,7 +17354,7 @@
       </c>
       <c r="I448" s="29"/>
     </row>
-    <row r="449" spans="1:9" ht="27">
+    <row r="449" spans="1:9" ht="45">
       <c r="A449" s="28" t="s">
         <v>909</v>
       </c>
@@ -17379,7 +17379,7 @@
       </c>
       <c r="I449" s="29"/>
     </row>
-    <row r="450" spans="1:9" ht="67.5">
+    <row r="450" spans="1:9" ht="75">
       <c r="A450" s="28" t="s">
         <v>906</v>
       </c>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="I450" s="29"/>
     </row>
-    <row r="451" spans="1:9" ht="40.5">
+    <row r="451" spans="1:9" ht="45">
       <c r="A451" s="28" t="s">
         <v>913</v>
       </c>
@@ -17412,7 +17412,7 @@
         <v>910</v>
       </c>
       <c r="C451" s="29" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D451" s="28"/>
       <c r="E451" s="28" t="s">
@@ -17429,7 +17429,7 @@
       </c>
       <c r="I451" s="29"/>
     </row>
-    <row r="452" spans="1:9" ht="27">
+    <row r="452" spans="1:9" ht="45">
       <c r="A452" s="28" t="s">
         <v>914</v>
       </c>
@@ -17454,7 +17454,7 @@
       </c>
       <c r="I452" s="29"/>
     </row>
-    <row r="453" spans="1:9" ht="67.5">
+    <row r="453" spans="1:9" ht="75">
       <c r="A453" s="28" t="s">
         <v>917</v>
       </c>
@@ -17479,7 +17479,7 @@
       </c>
       <c r="I453" s="29"/>
     </row>
-    <row r="454" spans="1:9" ht="27">
+    <row r="454" spans="1:9" ht="30">
       <c r="A454" s="28" t="s">
         <v>919</v>
       </c>
@@ -17504,7 +17504,7 @@
       </c>
       <c r="I454" s="29"/>
     </row>
-    <row r="455" spans="1:9" ht="40.5">
+    <row r="455" spans="1:9" ht="30">
       <c r="A455" s="28" t="s">
         <v>921</v>
       </c>
@@ -17529,7 +17529,7 @@
       </c>
       <c r="I455" s="29"/>
     </row>
-    <row r="456" spans="1:9" ht="27">
+    <row r="456" spans="1:9" ht="30">
       <c r="A456" s="28" t="s">
         <v>923</v>
       </c>
@@ -17554,7 +17554,7 @@
       </c>
       <c r="I456" s="29"/>
     </row>
-    <row r="457" spans="1:9" ht="54">
+    <row r="457" spans="1:9" ht="60">
       <c r="A457" s="28" t="s">
         <v>925</v>
       </c>
@@ -17579,7 +17579,7 @@
       </c>
       <c r="I457" s="29"/>
     </row>
-    <row r="458" spans="1:9" ht="27">
+    <row r="458" spans="1:9" ht="30">
       <c r="A458" s="28" t="s">
         <v>927</v>
       </c>
@@ -17604,7 +17604,7 @@
       </c>
       <c r="I458" s="29"/>
     </row>
-    <row r="459" spans="1:9" ht="27">
+    <row r="459" spans="1:9" ht="30">
       <c r="A459" s="28" t="s">
         <v>929</v>
       </c>
@@ -17629,7 +17629,7 @@
       </c>
       <c r="I459" s="29"/>
     </row>
-    <row r="460" spans="1:9" ht="40.5">
+    <row r="460" spans="1:9" ht="45">
       <c r="A460" s="28" t="s">
         <v>932</v>
       </c>
@@ -17654,7 +17654,7 @@
       </c>
       <c r="I460" s="29"/>
     </row>
-    <row r="461" spans="1:9" ht="27">
+    <row r="461" spans="1:9" ht="30">
       <c r="A461" s="28" t="s">
         <v>934</v>
       </c>
@@ -17679,7 +17679,7 @@
       </c>
       <c r="I461" s="29"/>
     </row>
-    <row r="462" spans="1:9" ht="27">
+    <row r="462" spans="1:9" ht="30">
       <c r="A462" s="28" t="s">
         <v>936</v>
       </c>
@@ -17704,7 +17704,7 @@
       </c>
       <c r="I462" s="29"/>
     </row>
-    <row r="463" spans="1:9" ht="27">
+    <row r="463" spans="1:9" ht="30">
       <c r="A463" s="28" t="s">
         <v>939</v>
       </c>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="I463" s="29"/>
     </row>
-    <row r="464" spans="1:9" ht="27">
+    <row r="464" spans="1:9" ht="30">
       <c r="A464" s="28" t="s">
         <v>941</v>
       </c>
@@ -17754,7 +17754,7 @@
       </c>
       <c r="I464" s="29"/>
     </row>
-    <row r="465" spans="1:9" ht="202.5">
+    <row r="465" spans="1:9" ht="225">
       <c r="A465" s="28" t="s">
         <v>944</v>
       </c>
@@ -17779,7 +17779,7 @@
       </c>
       <c r="I465" s="29"/>
     </row>
-    <row r="466" spans="1:9" ht="27">
+    <row r="466" spans="1:9" ht="30">
       <c r="A466" s="28" t="s">
         <v>946</v>
       </c>
@@ -17804,7 +17804,7 @@
       </c>
       <c r="I466" s="29"/>
     </row>
-    <row r="467" spans="1:9" ht="27">
+    <row r="467" spans="1:9" ht="30">
       <c r="A467" s="28" t="s">
         <v>948</v>
       </c>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="I467" s="29"/>
     </row>
-    <row r="468" spans="1:9" ht="27">
+    <row r="468" spans="1:9" ht="30">
       <c r="A468" s="28" t="s">
         <v>950</v>
       </c>
@@ -17854,7 +17854,7 @@
       </c>
       <c r="I468" s="29"/>
     </row>
-    <row r="469" spans="1:9" ht="27">
+    <row r="469" spans="1:9" ht="30">
       <c r="A469" s="28" t="s">
         <v>952</v>
       </c>
@@ -17879,7 +17879,7 @@
       </c>
       <c r="I469" s="29"/>
     </row>
-    <row r="470" spans="1:9" ht="27">
+    <row r="470" spans="1:9" ht="30">
       <c r="A470" s="28" t="s">
         <v>954</v>
       </c>
@@ -17904,7 +17904,7 @@
       </c>
       <c r="I470" s="29"/>
     </row>
-    <row r="471" spans="1:9" ht="27">
+    <row r="471" spans="1:9" ht="30">
       <c r="A471" s="28" t="s">
         <v>956</v>
       </c>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I471" s="29"/>
     </row>
-    <row r="472" spans="1:9" ht="27">
+    <row r="472" spans="1:9" ht="30">
       <c r="A472" s="28" t="s">
         <v>959</v>
       </c>
@@ -17954,7 +17954,7 @@
       </c>
       <c r="I472" s="29"/>
     </row>
-    <row r="473" spans="1:9" ht="27">
+    <row r="473" spans="1:9" ht="30">
       <c r="A473" s="28" t="s">
         <v>961</v>
       </c>
@@ -17979,7 +17979,7 @@
       </c>
       <c r="I473" s="29"/>
     </row>
-    <row r="474" spans="1:9" ht="27">
+    <row r="474" spans="1:9" ht="30">
       <c r="A474" s="28" t="s">
         <v>963</v>
       </c>
@@ -18004,7 +18004,7 @@
       </c>
       <c r="I474" s="29"/>
     </row>
-    <row r="475" spans="1:9" ht="27">
+    <row r="475" spans="1:9" ht="30">
       <c r="A475" s="28" t="s">
         <v>965</v>
       </c>
@@ -18029,7 +18029,7 @@
       </c>
       <c r="I475" s="29"/>
     </row>
-    <row r="476" spans="1:9" ht="27">
+    <row r="476" spans="1:9" ht="30">
       <c r="A476" s="28" t="s">
         <v>967</v>
       </c>
@@ -18054,7 +18054,7 @@
       </c>
       <c r="I476" s="29"/>
     </row>
-    <row r="477" spans="1:9" ht="27">
+    <row r="477" spans="1:9" ht="30">
       <c r="A477" s="28" t="s">
         <v>969</v>
       </c>
@@ -18079,7 +18079,7 @@
       </c>
       <c r="I477" s="29"/>
     </row>
-    <row r="478" spans="1:9" ht="27">
+    <row r="478" spans="1:9" ht="30">
       <c r="A478" s="28" t="s">
         <v>971</v>
       </c>
@@ -18104,7 +18104,7 @@
       </c>
       <c r="I478" s="29"/>
     </row>
-    <row r="479" spans="1:9" ht="27">
+    <row r="479" spans="1:9" ht="30">
       <c r="A479" s="28" t="s">
         <v>973</v>
       </c>
@@ -18129,7 +18129,7 @@
       </c>
       <c r="I479" s="29"/>
     </row>
-    <row r="480" spans="1:9" ht="54">
+    <row r="480" spans="1:9" ht="60">
       <c r="A480" s="28" t="s">
         <v>958</v>
       </c>
@@ -18154,7 +18154,7 @@
       </c>
       <c r="I480" s="29"/>
     </row>
-    <row r="481" spans="1:9" ht="40.5">
+    <row r="481" spans="1:9" ht="45">
       <c r="A481" s="28" t="s">
         <v>977</v>
       </c>
@@ -18162,7 +18162,7 @@
         <v>974</v>
       </c>
       <c r="C481" s="29" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D481" s="28"/>
       <c r="E481" s="28" t="s">
@@ -18179,7 +18179,7 @@
       </c>
       <c r="I481" s="29"/>
     </row>
-    <row r="482" spans="1:9" ht="27">
+    <row r="482" spans="1:9" ht="30">
       <c r="A482" s="28" t="s">
         <v>978</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>979</v>
       </c>
       <c r="C482" s="29" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D482" s="28"/>
       <c r="E482" s="28" t="s">
@@ -18204,7 +18204,7 @@
       </c>
       <c r="I482" s="29"/>
     </row>
-    <row r="483" spans="1:9" ht="67.5">
+    <row r="483" spans="1:9" ht="75">
       <c r="A483" s="28" t="s">
         <v>980</v>
       </c>
@@ -18229,7 +18229,7 @@
       </c>
       <c r="I483" s="29"/>
     </row>
-    <row r="484" spans="1:9" ht="27">
+    <row r="484" spans="1:9" ht="30">
       <c r="A484" s="28" t="s">
         <v>982</v>
       </c>
@@ -18254,7 +18254,7 @@
       </c>
       <c r="I484" s="29"/>
     </row>
-    <row r="485" spans="1:9" ht="40.5">
+    <row r="485" spans="1:9" ht="45">
       <c r="A485" s="28" t="s">
         <v>984</v>
       </c>
@@ -18279,7 +18279,7 @@
       </c>
       <c r="I485" s="29"/>
     </row>
-    <row r="486" spans="1:9" ht="27">
+    <row r="486" spans="1:9" ht="30">
       <c r="A486" s="28" t="s">
         <v>986</v>
       </c>
@@ -18304,7 +18304,7 @@
       </c>
       <c r="I486" s="29"/>
     </row>
-    <row r="487" spans="1:9" ht="54">
+    <row r="487" spans="1:9" ht="45">
       <c r="A487" s="28" t="s">
         <v>988</v>
       </c>
@@ -18329,7 +18329,7 @@
       </c>
       <c r="I487" s="29"/>
     </row>
-    <row r="488" spans="1:9" ht="27">
+    <row r="488" spans="1:9" ht="30">
       <c r="A488" s="28" t="s">
         <v>990</v>
       </c>
@@ -18354,7 +18354,7 @@
       </c>
       <c r="I488" s="29"/>
     </row>
-    <row r="489" spans="1:9" ht="40.5">
+    <row r="489" spans="1:9" ht="45">
       <c r="A489" s="28" t="s">
         <v>993</v>
       </c>
@@ -18379,7 +18379,7 @@
       </c>
       <c r="I489" s="29"/>
     </row>
-    <row r="490" spans="1:9" ht="27">
+    <row r="490" spans="1:9" ht="30">
       <c r="A490" s="28" t="s">
         <v>995</v>
       </c>
@@ -18404,7 +18404,7 @@
       </c>
       <c r="I490" s="29"/>
     </row>
-    <row r="491" spans="1:9" ht="27">
+    <row r="491" spans="1:9" ht="30">
       <c r="A491" s="28" t="s">
         <v>997</v>
       </c>
@@ -18429,7 +18429,7 @@
       </c>
       <c r="I491" s="29"/>
     </row>
-    <row r="492" spans="1:9" ht="27">
+    <row r="492" spans="1:9" ht="30">
       <c r="A492" s="28" t="s">
         <v>1000</v>
       </c>
@@ -18454,7 +18454,7 @@
       </c>
       <c r="I492" s="29"/>
     </row>
-    <row r="493" spans="1:9" ht="27">
+    <row r="493" spans="1:9" ht="30">
       <c r="A493" s="28" t="s">
         <v>1002</v>
       </c>
@@ -18487,7 +18487,7 @@
         <v>1003</v>
       </c>
       <c r="C494" s="29" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D494" s="28"/>
       <c r="E494" s="28" t="s">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="I494" s="29"/>
     </row>
-    <row r="495" spans="1:9" ht="27">
+    <row r="495" spans="1:9" ht="30">
       <c r="A495" s="28" t="s">
         <v>1006</v>
       </c>
@@ -18529,7 +18529,7 @@
       </c>
       <c r="I495" s="29"/>
     </row>
-    <row r="496" spans="1:9" ht="30">
+    <row r="496" spans="1:9" ht="45">
       <c r="A496" s="33" t="s">
         <v>1051</v>
       </c>
@@ -18554,7 +18554,7 @@
       </c>
       <c r="I496" s="31"/>
     </row>
-    <row r="497" spans="1:9" ht="30">
+    <row r="497" spans="1:9" ht="45">
       <c r="A497" s="33" t="s">
         <v>1053</v>
       </c>
@@ -18581,7 +18581,7 @@
       </c>
       <c r="I497" s="31"/>
     </row>
-    <row r="498" spans="1:9" ht="30">
+    <row r="498" spans="1:9" ht="45">
       <c r="A498" s="33" t="s">
         <v>1054</v>
       </c>
@@ -18608,7 +18608,7 @@
       </c>
       <c r="I498" s="31"/>
     </row>
-    <row r="499" spans="1:9" ht="27">
+    <row r="499" spans="1:9" ht="30">
       <c r="A499" s="28" t="s">
         <v>1008</v>
       </c>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="I499" s="29"/>
     </row>
-    <row r="500" spans="1:9" ht="27">
+    <row r="500" spans="1:9" ht="30">
       <c r="A500" s="28" t="s">
         <v>1010</v>
       </c>
@@ -18658,7 +18658,7 @@
       </c>
       <c r="I500" s="29"/>
     </row>
-    <row r="501" spans="1:9" ht="27">
+    <row r="501" spans="1:9" ht="30">
       <c r="A501" s="28" t="s">
         <v>1012</v>
       </c>
@@ -18683,7 +18683,7 @@
       </c>
       <c r="I501" s="29"/>
     </row>
-    <row r="502" spans="1:9" ht="27">
+    <row r="502" spans="1:9" ht="45">
       <c r="A502" s="28" t="s">
         <v>1015</v>
       </c>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="I502" s="29"/>
     </row>
-    <row r="503" spans="1:9" ht="27">
+    <row r="503" spans="1:9" ht="30">
       <c r="A503" s="28" t="s">
         <v>1016</v>
       </c>
@@ -18733,7 +18733,7 @@
       </c>
       <c r="I503" s="28"/>
     </row>
-    <row r="504" spans="1:9" ht="40.5">
+    <row r="504" spans="1:9" ht="45">
       <c r="A504" s="28" t="s">
         <v>1018</v>
       </c>
@@ -18758,7 +18758,7 @@
       </c>
       <c r="I504" s="29"/>
     </row>
-    <row r="505" spans="1:9" ht="27">
+    <row r="505" spans="1:9" ht="45">
       <c r="A505" s="28" t="s">
         <v>1020</v>
       </c>
@@ -18783,7 +18783,7 @@
       </c>
       <c r="I505" s="29"/>
     </row>
-    <row r="506" spans="1:9" ht="297">
+    <row r="506" spans="1:9" ht="315">
       <c r="A506" s="28" t="s">
         <v>1014</v>
       </c>
@@ -18808,7 +18808,7 @@
       </c>
       <c r="I506" s="29"/>
     </row>
-    <row r="507" spans="1:9" ht="27">
+    <row r="507" spans="1:9" ht="30">
       <c r="A507" s="28" t="s">
         <v>1024</v>
       </c>
@@ -18833,7 +18833,7 @@
       </c>
       <c r="I507" s="29"/>
     </row>
-    <row r="508" spans="1:9" ht="27">
+    <row r="508" spans="1:9" ht="30">
       <c r="A508" s="28" t="s">
         <v>1026</v>
       </c>
@@ -18858,7 +18858,7 @@
       </c>
       <c r="I508" s="29"/>
     </row>
-    <row r="509" spans="1:9" ht="27">
+    <row r="509" spans="1:9" ht="30">
       <c r="A509" s="28" t="s">
         <v>1028</v>
       </c>
@@ -18883,7 +18883,7 @@
       </c>
       <c r="I509" s="29"/>
     </row>
-    <row r="510" spans="1:9" ht="40.5">
+    <row r="510" spans="1:9" ht="45">
       <c r="A510" s="28" t="s">
         <v>1030</v>
       </c>
@@ -18891,7 +18891,7 @@
         <v>1021</v>
       </c>
       <c r="C510" s="29" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D510" s="28"/>
       <c r="E510" s="28" t="s">
@@ -18908,7 +18908,7 @@
       </c>
       <c r="I510" s="29"/>
     </row>
-    <row r="511" spans="1:9" ht="40.5">
+    <row r="511" spans="1:9" ht="45">
       <c r="A511" s="28" t="s">
         <v>50</v>
       </c>
@@ -18937,7 +18937,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="54">
+    <row r="512" spans="1:9" ht="45">
       <c r="A512" s="28" t="s">
         <v>1031</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>7</v>
       </c>
       <c r="C512" s="29" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D512" s="28"/>
       <c r="E512" s="28" t="s">
@@ -18962,7 +18962,7 @@
       </c>
       <c r="I512" s="29"/>
     </row>
-    <row r="513" spans="1:9" ht="27">
+    <row r="513" spans="1:9" ht="30">
       <c r="A513" s="28" t="s">
         <v>1032</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>7</v>
       </c>
       <c r="C513" s="29" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D513" s="28"/>
       <c r="E513" s="28" t="s">
@@ -18987,7 +18987,7 @@
       </c>
       <c r="I513" s="29"/>
     </row>
-    <row r="514" spans="1:9" ht="67.5">
+    <row r="514" spans="1:9" ht="75">
       <c r="A514" s="28" t="s">
         <v>1033</v>
       </c>
@@ -19014,7 +19014,7 @@
       </c>
       <c r="I514" s="29"/>
     </row>
-    <row r="515" spans="1:9" ht="30">
+    <row r="515" spans="1:9" ht="45">
       <c r="A515" s="33" t="s">
         <v>1061</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="517" spans="1:9" ht="40.5">
+    <row r="517" spans="1:9" ht="45">
       <c r="A517" s="28" t="s">
         <v>1034</v>
       </c>
@@ -19095,7 +19095,7 @@
       </c>
       <c r="I517" s="29"/>
     </row>
-    <row r="518" spans="1:9" ht="40.5">
+    <row r="518" spans="1:9" ht="45">
       <c r="A518" s="28" t="s">
         <v>1036</v>
       </c>
@@ -19162,11 +19162,6 @@
   </sheetData>
   <autoFilter ref="J1:J520" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -19174,6 +19169,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E75:F77 E186:I189 D183 D93 B94:D94 E376:H376 E421:I423 E420:H420 E424:H424 E469:I477 E468:H468 E478:H478 E304:H304 E332:H332 I76:I77 E305:I331 A20:B20 D20 A21:D92 E20:I26 A517:I518 A516:H516 A519:H519 A505:I510 A512:I515 E95:F135 G95:I185 F136:F182 E138:E182 A95:D182 E194:I303 E333:I375 E377:I419 E425:I467 E479:I504 A184:D504 E190:H193">
@@ -19886,7 +19886,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B19:B351 B381:B394 B352:B380 B395:B411 B412:B442 B443:B462 B463:B491 B492:B521 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B351 B381:B394 B352:B380 B395:B411 B412:B442 B443:B462 B463:B491 B492:B521" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -19896,6 +19896,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -19944,32 +19959,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19983,15 +19982,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>